--- a/sampling/sampled_villages.xlsx
+++ b/sampling/sampled_villages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="24720" windowHeight="15880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="17000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -13,9 +13,9 @@
   <definedNames>
     <definedName name="sampled_villages_centroids" localSheetId="0">Sheet3!$A$1:$Q$100</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="27" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="455">
   <si>
     <t>lz</t>
   </si>
@@ -4040,8 +4040,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A1:K259" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A1:K173" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
@@ -4066,7 +4066,7 @@
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
-        <item x="0"/>
+        <item sd="0" x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -4337,30 +4337,12 @@
     <field x="9"/>
     <field x="16"/>
   </rowFields>
-  <rowItems count="256">
+  <rowItems count="170">
     <i>
       <x/>
     </i>
     <i r="1">
       <x/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="4">
-      <x v="19"/>
-    </i>
-    <i r="5">
-      <x v="29"/>
-    </i>
-    <i r="4">
-      <x v="50"/>
-    </i>
-    <i r="5">
-      <x v="53"/>
     </i>
     <i r="1">
       <x v="1"/>
@@ -4602,165 +4584,6 @@
     <i r="1">
       <x/>
     </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="3">
-      <x v="12"/>
-    </i>
-    <i r="4">
-      <x v="93"/>
-    </i>
-    <i r="5">
-      <x v="39"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="4">
-      <x v="47"/>
-    </i>
-    <i r="5">
-      <x v="24"/>
-    </i>
-    <i r="3">
-      <x v="6"/>
-    </i>
-    <i r="4">
-      <x v="1"/>
-    </i>
-    <i r="5">
-      <x v="3"/>
-    </i>
-    <i r="4">
-      <x v="5"/>
-    </i>
-    <i r="5">
-      <x v="44"/>
-    </i>
-    <i r="4">
-      <x v="27"/>
-    </i>
-    <i r="5">
-      <x v="15"/>
-    </i>
-    <i r="4">
-      <x v="28"/>
-    </i>
-    <i r="5">
-      <x v="56"/>
-    </i>
-    <i r="4">
-      <x v="30"/>
-    </i>
-    <i r="5">
-      <x v="58"/>
-    </i>
-    <i r="3">
-      <x v="7"/>
-    </i>
-    <i r="4">
-      <x v="78"/>
-    </i>
-    <i r="5">
-      <x v="34"/>
-    </i>
-    <i r="4">
-      <x v="84"/>
-    </i>
-    <i r="5">
-      <x v="35"/>
-    </i>
-    <i r="3">
-      <x v="8"/>
-    </i>
-    <i r="4">
-      <x v="25"/>
-    </i>
-    <i r="5">
-      <x v="54"/>
-    </i>
-    <i r="4">
-      <x v="61"/>
-    </i>
-    <i r="5">
-      <x v="28"/>
-    </i>
-    <i r="4">
-      <x v="67"/>
-    </i>
-    <i r="5">
-      <x v="30"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="3">
-      <x v="9"/>
-    </i>
-    <i r="4">
-      <x v="6"/>
-    </i>
-    <i r="5">
-      <x v="6"/>
-    </i>
-    <i r="4">
-      <x v="8"/>
-    </i>
-    <i r="5">
-      <x v="7"/>
-    </i>
-    <i r="4">
-      <x v="57"/>
-    </i>
-    <i r="5">
-      <x v="89"/>
-    </i>
-    <i r="4">
-      <x v="69"/>
-    </i>
-    <i r="5">
-      <x v="40"/>
-    </i>
-    <i r="3">
-      <x v="13"/>
-    </i>
-    <i r="4">
-      <x v="18"/>
-    </i>
-    <i r="5">
-      <x v="11"/>
-    </i>
-    <i r="4">
-      <x v="92"/>
-    </i>
-    <i r="5">
-      <x v="94"/>
-    </i>
-    <i r="3">
-      <x v="17"/>
-    </i>
-    <i r="4">
-      <x v="21"/>
-    </i>
-    <i r="5">
-      <x v="13"/>
-    </i>
-    <i r="4">
-      <x v="51"/>
-    </i>
-    <i r="5">
-      <x v="26"/>
-    </i>
-    <i r="4">
-      <x v="71"/>
-    </i>
-    <i r="5">
-      <x v="32"/>
-    </i>
     <i r="1">
       <x v="1"/>
     </i>
@@ -4841,39 +4664,6 @@
     </i>
     <i r="1">
       <x/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="3">
-      <x v="4"/>
-    </i>
-    <i r="4">
-      <x v="68"/>
-    </i>
-    <i r="5">
-      <x v="79"/>
-    </i>
-    <i r="4">
-      <x v="79"/>
-    </i>
-    <i r="5">
-      <x v="84"/>
-    </i>
-    <i r="4">
-      <x v="87"/>
-    </i>
-    <i r="5">
-      <x v="92"/>
-    </i>
-    <i r="3">
-      <x v="5"/>
-    </i>
-    <i r="4">
-      <x v="58"/>
-    </i>
-    <i r="5">
-      <x v="71"/>
     </i>
     <i r="1">
       <x v="1"/>
@@ -4961,54 +4751,6 @@
     </i>
     <i r="1">
       <x/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="3">
-      <x v="5"/>
-    </i>
-    <i r="4">
-      <x v="11"/>
-    </i>
-    <i r="5">
-      <x v="47"/>
-    </i>
-    <i r="4">
-      <x v="53"/>
-    </i>
-    <i r="5">
-      <x v="1"/>
-    </i>
-    <i r="4">
-      <x v="59"/>
-    </i>
-    <i r="5">
-      <x v="72"/>
-    </i>
-    <i r="4">
-      <x v="82"/>
-    </i>
-    <i r="5">
-      <x v="87"/>
-    </i>
-    <i r="4">
-      <x v="85"/>
-    </i>
-    <i r="5">
-      <x v="91"/>
-    </i>
-    <i r="4">
-      <x v="91"/>
-    </i>
-    <i r="5">
-      <x v="93"/>
-    </i>
-    <i r="4">
-      <x v="94"/>
-    </i>
-    <i r="5">
-      <x v="95"/>
     </i>
     <i r="1">
       <x v="1"/>
@@ -11045,8 +10787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="M222" sqref="M222"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -11248,30 +10990,30 @@
       <c r="T5"/>
     </row>
     <row r="6" spans="1:39">
-      <c r="A6" s="6" t="s">
-        <v>20</v>
+      <c r="A6" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13">
-        <v>2325</v>
+        <v>59208</v>
       </c>
       <c r="D6" s="13">
-        <v>25728</v>
+        <v>84705</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H6" s="25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="18">
-        <v>28053</v>
+        <v>143913</v>
       </c>
       <c r="K6" s="13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -11284,30 +11026,30 @@
       <c r="T6"/>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" s="7" t="s">
-        <v>21</v>
+      <c r="A7" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13">
-        <v>2325</v>
+        <v>59208</v>
       </c>
       <c r="D7" s="13">
-        <v>25728</v>
+        <v>84705</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="24"/>
       <c r="G7" s="25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H7" s="25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="18">
-        <v>28053</v>
+        <v>143913</v>
       </c>
       <c r="K7" s="13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -11320,26 +11062,30 @@
       <c r="T7"/>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="8" t="s">
-        <v>22</v>
+      <c r="A8" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13">
-        <v>2325</v>
-      </c>
-      <c r="D8" s="13"/>
+        <v>10962</v>
+      </c>
+      <c r="D8" s="13">
+        <v>43941</v>
+      </c>
       <c r="E8" s="13"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25">
-        <v>1</v>
-      </c>
-      <c r="H8" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="25">
+        <v>6</v>
+      </c>
       <c r="I8" s="25"/>
       <c r="J8" s="18">
-        <v>2325</v>
+        <v>54903</v>
       </c>
       <c r="K8" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -11352,23 +11098,23 @@
       <c r="T8"/>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="16" t="s">
-        <v>25</v>
+      <c r="A9" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="13">
-        <v>2325</v>
-      </c>
-      <c r="D9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13">
+        <v>10467</v>
+      </c>
       <c r="E9" s="13"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="25">
-        <v>1</v>
-      </c>
-      <c r="H9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25">
+        <v>1</v>
+      </c>
       <c r="I9" s="25"/>
       <c r="J9" s="18">
-        <v>2325</v>
+        <v>10467</v>
       </c>
       <c r="K9" s="13">
         <v>1</v>
@@ -11384,13 +11130,13 @@
       <c r="T9"/>
     </row>
     <row r="10" spans="1:39">
-      <c r="A10" s="8" t="s">
-        <v>27</v>
+      <c r="A10" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13">
-        <v>25728</v>
+        <v>10467</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="24"/>
@@ -11400,7 +11146,7 @@
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="18">
-        <v>25728</v>
+        <v>10467</v>
       </c>
       <c r="K10" s="13">
         <v>1</v>
@@ -11416,13 +11162,13 @@
       <c r="T10"/>
     </row>
     <row r="11" spans="1:39">
-      <c r="A11" s="16" t="s">
-        <v>30</v>
+      <c r="A11" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>25728</v>
+        <v>21540</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="24"/>
@@ -11432,7 +11178,7 @@
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="18">
-        <v>25728</v>
+        <v>21540</v>
       </c>
       <c r="K11" s="13">
         <v>1</v>
@@ -11448,30 +11194,26 @@
       <c r="T11"/>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="5" t="s">
-        <v>174</v>
+      <c r="A12" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="13">
-        <v>59208</v>
-      </c>
+      <c r="C12" s="13"/>
       <c r="D12" s="13">
-        <v>84705</v>
+        <v>21540</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="25">
-        <v>10</v>
-      </c>
+      <c r="G12" s="25"/>
       <c r="H12" s="25">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="18">
-        <v>143913</v>
+        <v>21540</v>
       </c>
       <c r="K12" s="13">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
@@ -11484,30 +11226,26 @@
       <c r="T12"/>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" s="6" t="s">
-        <v>175</v>
+      <c r="A13" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13">
-        <v>59208</v>
-      </c>
-      <c r="D13" s="13">
-        <v>84705</v>
-      </c>
+        <v>5049</v>
+      </c>
+      <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="24"/>
       <c r="G13" s="25">
-        <v>10</v>
-      </c>
-      <c r="H13" s="25">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="18">
-        <v>143913</v>
+        <v>5049</v>
       </c>
       <c r="K13" s="13">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L13"/>
       <c r="M13"/>
@@ -11520,30 +11258,26 @@
       <c r="T13"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" s="7" t="s">
-        <v>176</v>
+      <c r="A14" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13">
-        <v>10962</v>
-      </c>
-      <c r="D14" s="13">
-        <v>43941</v>
-      </c>
+        <v>5049</v>
+      </c>
+      <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="24"/>
       <c r="G14" s="25">
-        <v>2</v>
-      </c>
-      <c r="H14" s="25">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="18">
-        <v>54903</v>
+        <v>5049</v>
       </c>
       <c r="K14" s="13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
@@ -11557,12 +11291,12 @@
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="8" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
-        <v>10467</v>
+        <v>5157</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="24"/>
@@ -11572,7 +11306,7 @@
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="18">
-        <v>10467</v>
+        <v>5157</v>
       </c>
       <c r="K15" s="13">
         <v>1</v>
@@ -11589,12 +11323,12 @@
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="16" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13">
-        <v>10467</v>
+        <v>5157</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="24"/>
@@ -11604,7 +11338,7 @@
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="18">
-        <v>10467</v>
+        <v>5157</v>
       </c>
       <c r="K16" s="13">
         <v>1</v>
@@ -11621,12 +11355,12 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="8" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13">
-        <v>21540</v>
+        <v>1836</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="24"/>
@@ -11636,7 +11370,7 @@
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="18">
-        <v>21540</v>
+        <v>1836</v>
       </c>
       <c r="K17" s="13">
         <v>1</v>
@@ -11653,12 +11387,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="16" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13">
-        <v>21540</v>
+        <v>1836</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="24"/>
@@ -11668,7 +11402,7 @@
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="18">
-        <v>21540</v>
+        <v>1836</v>
       </c>
       <c r="K18" s="13">
         <v>1</v>
@@ -11685,11 +11419,11 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="8" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13">
-        <v>5049</v>
+        <v>5913</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -11700,7 +11434,7 @@
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="18">
-        <v>5049</v>
+        <v>5913</v>
       </c>
       <c r="K19" s="13">
         <v>1</v>
@@ -11717,11 +11451,11 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="16" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13">
-        <v>5049</v>
+        <v>5913</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -11732,7 +11466,7 @@
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="18">
-        <v>5049</v>
+        <v>5913</v>
       </c>
       <c r="K20" s="13">
         <v>1</v>
@@ -11749,12 +11483,12 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="8" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>5157</v>
+        <v>876</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="24"/>
@@ -11764,7 +11498,7 @@
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="18">
-        <v>5157</v>
+        <v>876</v>
       </c>
       <c r="K21" s="13">
         <v>1</v>
@@ -11781,12 +11515,12 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="16" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13">
-        <v>5157</v>
+        <v>876</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="24"/>
@@ -11796,7 +11530,7 @@
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="18">
-        <v>5157</v>
+        <v>876</v>
       </c>
       <c r="K22" s="13">
         <v>1</v>
@@ -11813,12 +11547,12 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="8" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
-        <v>1836</v>
+        <v>4065</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="24"/>
@@ -11828,7 +11562,7 @@
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="18">
-        <v>1836</v>
+        <v>4065</v>
       </c>
       <c r="K23" s="13">
         <v>1</v>
@@ -11845,12 +11579,12 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="16" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13">
-        <v>1836</v>
+        <v>4065</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="24"/>
@@ -11860,7 +11594,7 @@
       </c>
       <c r="I24" s="25"/>
       <c r="J24" s="18">
-        <v>1836</v>
+        <v>4065</v>
       </c>
       <c r="K24" s="13">
         <v>1</v>
@@ -11876,26 +11610,30 @@
       <c r="T24"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="8" t="s">
-        <v>197</v>
+      <c r="A25" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13">
-        <v>5913</v>
-      </c>
-      <c r="D25" s="13"/>
+        <v>37902</v>
+      </c>
+      <c r="D25" s="13">
+        <v>24024</v>
+      </c>
       <c r="E25" s="13"/>
       <c r="F25" s="24"/>
       <c r="G25" s="25">
-        <v>1</v>
-      </c>
-      <c r="H25" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="H25" s="25">
+        <v>2</v>
+      </c>
       <c r="I25" s="25"/>
       <c r="J25" s="18">
-        <v>5913</v>
+        <v>61926</v>
       </c>
       <c r="K25" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -11908,12 +11646,12 @@
       <c r="T25"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="16" t="s">
-        <v>200</v>
+      <c r="A26" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13">
-        <v>5913</v>
+        <v>8853</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -11924,7 +11662,7 @@
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="18">
-        <v>5913</v>
+        <v>8853</v>
       </c>
       <c r="K26" s="13">
         <v>1</v>
@@ -11940,23 +11678,23 @@
       <c r="T26"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="8" t="s">
-        <v>201</v>
+      <c r="A27" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13">
-        <v>876</v>
-      </c>
+      <c r="C27" s="13">
+        <v>8853</v>
+      </c>
+      <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25">
-        <v>1</v>
-      </c>
+      <c r="G27" s="25">
+        <v>1</v>
+      </c>
+      <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="18">
-        <v>876</v>
+        <v>8853</v>
       </c>
       <c r="K27" s="13">
         <v>1</v>
@@ -11972,23 +11710,23 @@
       <c r="T27"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="16" t="s">
-        <v>204</v>
+      <c r="A28" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13">
-        <v>876</v>
-      </c>
+      <c r="C28" s="13">
+        <v>6729</v>
+      </c>
+      <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25">
-        <v>1</v>
-      </c>
+      <c r="G28" s="25">
+        <v>1</v>
+      </c>
+      <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="18">
-        <v>876</v>
+        <v>6729</v>
       </c>
       <c r="K28" s="13">
         <v>1</v>
@@ -12004,23 +11742,23 @@
       <c r="T28"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="8" t="s">
-        <v>205</v>
+      <c r="A29" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13">
-        <v>4065</v>
-      </c>
+      <c r="C29" s="13">
+        <v>6729</v>
+      </c>
+      <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25">
-        <v>1</v>
-      </c>
+      <c r="G29" s="25">
+        <v>1</v>
+      </c>
+      <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="18">
-        <v>4065</v>
+        <v>6729</v>
       </c>
       <c r="K29" s="13">
         <v>1</v>
@@ -12036,23 +11774,23 @@
       <c r="T29"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="16" t="s">
-        <v>208</v>
+      <c r="A30" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13">
-        <v>4065</v>
-      </c>
+      <c r="C30" s="13">
+        <v>4509</v>
+      </c>
+      <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25">
-        <v>1</v>
-      </c>
+      <c r="G30" s="25">
+        <v>1</v>
+      </c>
+      <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="18">
-        <v>4065</v>
+        <v>4509</v>
       </c>
       <c r="K30" s="13">
         <v>1</v>
@@ -12068,30 +11806,26 @@
       <c r="T30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="7" t="s">
-        <v>209</v>
+      <c r="A31" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13">
-        <v>37902</v>
-      </c>
-      <c r="D31" s="13">
-        <v>24024</v>
-      </c>
+        <v>4509</v>
+      </c>
+      <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="24"/>
       <c r="G31" s="25">
-        <v>5</v>
-      </c>
-      <c r="H31" s="25">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="18">
-        <v>61926</v>
+        <v>4509</v>
       </c>
       <c r="K31" s="13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -12105,11 +11839,11 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="8" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13">
-        <v>8853</v>
+        <v>234</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
@@ -12120,7 +11854,7 @@
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="18">
-        <v>8853</v>
+        <v>234</v>
       </c>
       <c r="K32" s="13">
         <v>1</v>
@@ -12137,11 +11871,11 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="16" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13">
-        <v>8853</v>
+        <v>234</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -12152,7 +11886,7 @@
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
       <c r="J33" s="18">
-        <v>8853</v>
+        <v>234</v>
       </c>
       <c r="K33" s="13">
         <v>1</v>
@@ -12169,22 +11903,22 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="8" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B34" s="13"/>
-      <c r="C34" s="13">
-        <v>6729</v>
-      </c>
-      <c r="D34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13">
+        <v>7539</v>
+      </c>
       <c r="E34" s="13"/>
       <c r="F34" s="24"/>
-      <c r="G34" s="25">
-        <v>1</v>
-      </c>
-      <c r="H34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25">
+        <v>1</v>
+      </c>
       <c r="I34" s="25"/>
       <c r="J34" s="18">
-        <v>6729</v>
+        <v>7539</v>
       </c>
       <c r="K34" s="13">
         <v>1</v>
@@ -12201,22 +11935,22 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="16" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B35" s="13"/>
-      <c r="C35" s="13">
-        <v>6729</v>
-      </c>
-      <c r="D35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13">
+        <v>7539</v>
+      </c>
       <c r="E35" s="13"/>
       <c r="F35" s="24"/>
-      <c r="G35" s="25">
-        <v>1</v>
-      </c>
-      <c r="H35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25">
+        <v>1</v>
+      </c>
       <c r="I35" s="25"/>
       <c r="J35" s="18">
-        <v>6729</v>
+        <v>7539</v>
       </c>
       <c r="K35" s="13">
         <v>1</v>
@@ -12233,11 +11967,11 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="8" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13">
-        <v>4509</v>
+        <v>17577</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -12248,7 +11982,7 @@
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
       <c r="J36" s="18">
-        <v>4509</v>
+        <v>17577</v>
       </c>
       <c r="K36" s="13">
         <v>1</v>
@@ -12265,11 +11999,11 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="16" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13">
-        <v>4509</v>
+        <v>17577</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
@@ -12280,7 +12014,7 @@
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
       <c r="J37" s="18">
-        <v>4509</v>
+        <v>17577</v>
       </c>
       <c r="K37" s="13">
         <v>1</v>
@@ -12297,22 +12031,22 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="8" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B38" s="13"/>
-      <c r="C38" s="13">
-        <v>234</v>
-      </c>
-      <c r="D38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13">
+        <v>16485</v>
+      </c>
       <c r="E38" s="13"/>
       <c r="F38" s="24"/>
-      <c r="G38" s="25">
-        <v>1</v>
-      </c>
-      <c r="H38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25">
+        <v>1</v>
+      </c>
       <c r="I38" s="25"/>
       <c r="J38" s="18">
-        <v>234</v>
+        <v>16485</v>
       </c>
       <c r="K38" s="13">
         <v>1</v>
@@ -12329,22 +12063,22 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="16" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B39" s="13"/>
-      <c r="C39" s="13">
-        <v>234</v>
-      </c>
-      <c r="D39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13">
+        <v>16485</v>
+      </c>
       <c r="E39" s="13"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="25">
-        <v>1</v>
-      </c>
-      <c r="H39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25">
+        <v>1</v>
+      </c>
       <c r="I39" s="25"/>
       <c r="J39" s="18">
-        <v>234</v>
+        <v>16485</v>
       </c>
       <c r="K39" s="13">
         <v>1</v>
@@ -12360,26 +12094,30 @@
       <c r="T39"/>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="8" t="s">
-        <v>226</v>
+      <c r="A40" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="C40" s="13">
+        <v>8727</v>
+      </c>
       <c r="D40" s="13">
-        <v>7539</v>
+        <v>16740</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
+      <c r="G40" s="25">
+        <v>2</v>
+      </c>
       <c r="H40" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40" s="25"/>
       <c r="J40" s="18">
-        <v>7539</v>
+        <v>25467</v>
       </c>
       <c r="K40" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L40"/>
       <c r="M40"/>
@@ -12392,23 +12130,23 @@
       <c r="T40"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="16" t="s">
-        <v>229</v>
+      <c r="A41" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13">
-        <v>7539</v>
-      </c>
+      <c r="C41" s="13">
+        <v>5298</v>
+      </c>
+      <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25">
-        <v>1</v>
-      </c>
+      <c r="G41" s="25">
+        <v>1</v>
+      </c>
+      <c r="H41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="18">
-        <v>7539</v>
+        <v>5298</v>
       </c>
       <c r="K41" s="13">
         <v>1</v>
@@ -12424,12 +12162,12 @@
       <c r="T41"/>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="8" t="s">
-        <v>230</v>
+      <c r="A42" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="13">
-        <v>17577</v>
+        <v>5298</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -12440,7 +12178,7 @@
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
       <c r="J42" s="18">
-        <v>17577</v>
+        <v>5298</v>
       </c>
       <c r="K42" s="13">
         <v>1</v>
@@ -12456,23 +12194,23 @@
       <c r="T42"/>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="16" t="s">
-        <v>233</v>
+      <c r="A43" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="B43" s="13"/>
-      <c r="C43" s="13">
-        <v>17577</v>
-      </c>
-      <c r="D43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13">
+        <v>4989</v>
+      </c>
       <c r="E43" s="13"/>
       <c r="F43" s="24"/>
-      <c r="G43" s="25">
-        <v>1</v>
-      </c>
-      <c r="H43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25">
+        <v>1</v>
+      </c>
       <c r="I43" s="25"/>
       <c r="J43" s="18">
-        <v>17577</v>
+        <v>4989</v>
       </c>
       <c r="K43" s="13">
         <v>1</v>
@@ -12488,13 +12226,13 @@
       <c r="T43"/>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" s="8" t="s">
-        <v>234</v>
+      <c r="A44" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13">
-        <v>16485</v>
+        <v>4989</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="24"/>
@@ -12504,7 +12242,7 @@
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="18">
-        <v>16485</v>
+        <v>4989</v>
       </c>
       <c r="K44" s="13">
         <v>1</v>
@@ -12520,13 +12258,13 @@
       <c r="T44"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="16" t="s">
-        <v>237</v>
+      <c r="A45" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13">
-        <v>16485</v>
+        <v>7386</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="24"/>
@@ -12536,7 +12274,7 @@
       </c>
       <c r="I45" s="25"/>
       <c r="J45" s="18">
-        <v>16485</v>
+        <v>7386</v>
       </c>
       <c r="K45" s="13">
         <v>1</v>
@@ -12552,30 +12290,26 @@
       <c r="T45"/>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="7" t="s">
-        <v>238</v>
+      <c r="A46" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="B46" s="13"/>
-      <c r="C46" s="13">
-        <v>8727</v>
-      </c>
+      <c r="C46" s="13"/>
       <c r="D46" s="13">
-        <v>16740</v>
+        <v>7386</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="24"/>
-      <c r="G46" s="25">
-        <v>2</v>
-      </c>
+      <c r="G46" s="25"/>
       <c r="H46" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" s="25"/>
       <c r="J46" s="18">
-        <v>25467</v>
+        <v>7386</v>
       </c>
       <c r="K46" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L46"/>
       <c r="M46"/>
@@ -12589,22 +12323,22 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="8" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B47" s="13"/>
-      <c r="C47" s="13">
-        <v>5298</v>
-      </c>
-      <c r="D47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13">
+        <v>4365</v>
+      </c>
       <c r="E47" s="13"/>
       <c r="F47" s="24"/>
-      <c r="G47" s="25">
-        <v>1</v>
-      </c>
-      <c r="H47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25">
+        <v>1</v>
+      </c>
       <c r="I47" s="25"/>
       <c r="J47" s="18">
-        <v>5298</v>
+        <v>4365</v>
       </c>
       <c r="K47" s="13">
         <v>1</v>
@@ -12621,22 +12355,22 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="16" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B48" s="13"/>
-      <c r="C48" s="13">
-        <v>5298</v>
-      </c>
-      <c r="D48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13">
+        <v>4365</v>
+      </c>
       <c r="E48" s="13"/>
       <c r="F48" s="24"/>
-      <c r="G48" s="25">
-        <v>1</v>
-      </c>
-      <c r="H48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25">
+        <v>1</v>
+      </c>
       <c r="I48" s="25"/>
       <c r="J48" s="18">
-        <v>5298</v>
+        <v>4365</v>
       </c>
       <c r="K48" s="13">
         <v>1</v>
@@ -12653,22 +12387,22 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="8" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13">
-        <v>4989</v>
-      </c>
+      <c r="C49" s="13">
+        <v>3429</v>
+      </c>
+      <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25">
-        <v>1</v>
-      </c>
+      <c r="G49" s="25">
+        <v>1</v>
+      </c>
+      <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="18">
-        <v>4989</v>
+        <v>3429</v>
       </c>
       <c r="K49" s="13">
         <v>1</v>
@@ -12685,22 +12419,22 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="16" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13">
-        <v>4989</v>
-      </c>
+      <c r="C50" s="13">
+        <v>3429</v>
+      </c>
+      <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="24"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25">
-        <v>1</v>
-      </c>
+      <c r="G50" s="25">
+        <v>1</v>
+      </c>
+      <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="18">
-        <v>4989</v>
+        <v>3429</v>
       </c>
       <c r="K50" s="13">
         <v>1</v>
@@ -12716,23 +12450,23 @@
       <c r="T50"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="8" t="s">
-        <v>247</v>
+      <c r="A51" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13">
-        <v>7386</v>
-      </c>
+      <c r="C51" s="13">
+        <v>1617</v>
+      </c>
+      <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25">
-        <v>1</v>
-      </c>
+      <c r="G51" s="25">
+        <v>1</v>
+      </c>
+      <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="18">
-        <v>7386</v>
+        <v>1617</v>
       </c>
       <c r="K51" s="13">
         <v>1</v>
@@ -12748,23 +12482,23 @@
       <c r="T51"/>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="16" t="s">
-        <v>250</v>
+      <c r="A52" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13">
-        <v>7386</v>
-      </c>
+      <c r="C52" s="13">
+        <v>1617</v>
+      </c>
+      <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="24"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25">
-        <v>1</v>
-      </c>
+      <c r="G52" s="25">
+        <v>1</v>
+      </c>
+      <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="18">
-        <v>7386</v>
+        <v>1617</v>
       </c>
       <c r="K52" s="13">
         <v>1</v>
@@ -12780,23 +12514,23 @@
       <c r="T52"/>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="8" t="s">
-        <v>251</v>
+      <c r="A53" s="16" t="s">
+        <v>263</v>
       </c>
       <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13">
-        <v>4365</v>
-      </c>
+      <c r="C53" s="13">
+        <v>1617</v>
+      </c>
+      <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="24"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25">
-        <v>1</v>
-      </c>
+      <c r="G53" s="25">
+        <v>1</v>
+      </c>
+      <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="18">
-        <v>4365</v>
+        <v>1617</v>
       </c>
       <c r="K53" s="13">
         <v>1</v>
@@ -12812,26 +12546,34 @@
       <c r="T53"/>
     </row>
     <row r="54" spans="1:20">
-      <c r="A54" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13">
-        <v>4365</v>
-      </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25">
-        <v>1</v>
-      </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="18">
-        <v>4365</v>
-      </c>
-      <c r="K54" s="13">
-        <v>1</v>
+      <c r="A54" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B54" s="15">
+        <v>2514</v>
+      </c>
+      <c r="C54" s="15">
+        <v>588</v>
+      </c>
+      <c r="D54" s="15">
+        <v>29181</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="26">
+        <v>1</v>
+      </c>
+      <c r="G54" s="27">
+        <v>1</v>
+      </c>
+      <c r="H54" s="27">
+        <v>11</v>
+      </c>
+      <c r="I54" s="27"/>
+      <c r="J54" s="19">
+        <v>32283</v>
+      </c>
+      <c r="K54" s="15">
+        <v>13</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
@@ -12844,26 +12586,34 @@
       <c r="T54"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B55" s="13"/>
+      <c r="A55" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="13">
+        <v>2514</v>
+      </c>
       <c r="C55" s="13">
-        <v>3429</v>
-      </c>
-      <c r="D55" s="13"/>
+        <v>588</v>
+      </c>
+      <c r="D55" s="13">
+        <v>29181</v>
+      </c>
       <c r="E55" s="13"/>
-      <c r="F55" s="24"/>
+      <c r="F55" s="24">
+        <v>1</v>
+      </c>
       <c r="G55" s="25">
         <v>1</v>
       </c>
-      <c r="H55" s="25"/>
+      <c r="H55" s="25">
+        <v>11</v>
+      </c>
       <c r="I55" s="25"/>
       <c r="J55" s="18">
-        <v>3429</v>
+        <v>32283</v>
       </c>
       <c r="K55" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L55"/>
       <c r="M55"/>
@@ -12876,26 +12626,34 @@
       <c r="T55"/>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="B56" s="13"/>
+      <c r="A56" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" s="13">
+        <v>2514</v>
+      </c>
       <c r="C56" s="13">
-        <v>3429</v>
-      </c>
-      <c r="D56" s="13"/>
+        <v>588</v>
+      </c>
+      <c r="D56" s="13">
+        <v>29181</v>
+      </c>
       <c r="E56" s="13"/>
-      <c r="F56" s="24"/>
+      <c r="F56" s="24">
+        <v>1</v>
+      </c>
       <c r="G56" s="25">
         <v>1</v>
       </c>
-      <c r="H56" s="25"/>
+      <c r="H56" s="25">
+        <v>11</v>
+      </c>
       <c r="I56" s="25"/>
       <c r="J56" s="18">
-        <v>3429</v>
+        <v>32283</v>
       </c>
       <c r="K56" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L56"/>
       <c r="M56"/>
@@ -12909,25 +12667,33 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B57" s="13"/>
+        <v>266</v>
+      </c>
+      <c r="B57" s="13">
+        <v>2514</v>
+      </c>
       <c r="C57" s="13">
-        <v>1617</v>
-      </c>
-      <c r="D57" s="13"/>
+        <v>588</v>
+      </c>
+      <c r="D57" s="13">
+        <v>29181</v>
+      </c>
       <c r="E57" s="13"/>
-      <c r="F57" s="24"/>
+      <c r="F57" s="24">
+        <v>1</v>
+      </c>
       <c r="G57" s="25">
         <v>1</v>
       </c>
-      <c r="H57" s="25"/>
+      <c r="H57" s="25">
+        <v>11</v>
+      </c>
       <c r="I57" s="25"/>
       <c r="J57" s="18">
-        <v>1617</v>
+        <v>32283</v>
       </c>
       <c r="K57" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L57"/>
       <c r="M57"/>
@@ -12941,22 +12707,22 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="8" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B58" s="13"/>
-      <c r="C58" s="13">
-        <v>1617</v>
-      </c>
-      <c r="D58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13">
+        <v>1476</v>
+      </c>
       <c r="E58" s="13"/>
       <c r="F58" s="24"/>
-      <c r="G58" s="25">
-        <v>1</v>
-      </c>
-      <c r="H58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25">
+        <v>1</v>
+      </c>
       <c r="I58" s="25"/>
       <c r="J58" s="18">
-        <v>1617</v>
+        <v>1476</v>
       </c>
       <c r="K58" s="13">
         <v>1</v>
@@ -12973,22 +12739,22 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="16" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B59" s="13"/>
-      <c r="C59" s="13">
-        <v>1617</v>
-      </c>
-      <c r="D59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13">
+        <v>1476</v>
+      </c>
       <c r="E59" s="13"/>
       <c r="F59" s="24"/>
-      <c r="G59" s="25">
-        <v>1</v>
-      </c>
-      <c r="H59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25">
+        <v>1</v>
+      </c>
       <c r="I59" s="25"/>
       <c r="J59" s="18">
-        <v>1617</v>
+        <v>1476</v>
       </c>
       <c r="K59" s="13">
         <v>1</v>
@@ -13004,34 +12770,26 @@
       <c r="T59"/>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="B60" s="15">
-        <v>2514</v>
-      </c>
-      <c r="C60" s="15">
-        <v>588</v>
-      </c>
-      <c r="D60" s="15">
-        <v>29181</v>
-      </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="26">
-        <v>1</v>
-      </c>
-      <c r="G60" s="27">
-        <v>1</v>
-      </c>
-      <c r="H60" s="27">
-        <v>11</v>
-      </c>
-      <c r="I60" s="27"/>
-      <c r="J60" s="19">
-        <v>32283</v>
-      </c>
-      <c r="K60" s="15">
-        <v>13</v>
+      <c r="A60" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13">
+        <v>4770</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25">
+        <v>1</v>
+      </c>
+      <c r="I60" s="25"/>
+      <c r="J60" s="18">
+        <v>4770</v>
+      </c>
+      <c r="K60" s="13">
+        <v>1</v>
       </c>
       <c r="L60"/>
       <c r="M60"/>
@@ -13044,34 +12802,26 @@
       <c r="T60"/>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B61" s="13">
-        <v>2514</v>
-      </c>
-      <c r="C61" s="13">
-        <v>588</v>
-      </c>
+      <c r="A61" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="13">
-        <v>29181</v>
+        <v>4770</v>
       </c>
       <c r="E61" s="13"/>
-      <c r="F61" s="24">
-        <v>1</v>
-      </c>
-      <c r="G61" s="25">
-        <v>1</v>
-      </c>
+      <c r="F61" s="24"/>
+      <c r="G61" s="25"/>
       <c r="H61" s="25">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I61" s="25"/>
       <c r="J61" s="18">
-        <v>32283</v>
+        <v>4770</v>
       </c>
       <c r="K61" s="13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L61"/>
       <c r="M61"/>
@@ -13084,34 +12834,26 @@
       <c r="T61"/>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B62" s="13">
-        <v>2514</v>
-      </c>
+      <c r="A62" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B62" s="13"/>
       <c r="C62" s="13">
         <v>588</v>
       </c>
-      <c r="D62" s="13">
-        <v>29181</v>
-      </c>
+      <c r="D62" s="13"/>
       <c r="E62" s="13"/>
-      <c r="F62" s="24">
-        <v>1</v>
-      </c>
+      <c r="F62" s="24"/>
       <c r="G62" s="25">
         <v>1</v>
       </c>
-      <c r="H62" s="25">
-        <v>11</v>
-      </c>
+      <c r="H62" s="25"/>
       <c r="I62" s="25"/>
       <c r="J62" s="18">
-        <v>32283</v>
+        <v>588</v>
       </c>
       <c r="K62" s="13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L62"/>
       <c r="M62"/>
@@ -13124,34 +12866,26 @@
       <c r="T62"/>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B63" s="13">
-        <v>2514</v>
-      </c>
+      <c r="A63" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B63" s="13"/>
       <c r="C63" s="13">
         <v>588</v>
       </c>
-      <c r="D63" s="13">
-        <v>29181</v>
-      </c>
+      <c r="D63" s="13"/>
       <c r="E63" s="13"/>
-      <c r="F63" s="24">
-        <v>1</v>
-      </c>
+      <c r="F63" s="24"/>
       <c r="G63" s="25">
         <v>1</v>
       </c>
-      <c r="H63" s="25">
-        <v>11</v>
-      </c>
+      <c r="H63" s="25"/>
       <c r="I63" s="25"/>
       <c r="J63" s="18">
-        <v>32283</v>
+        <v>588</v>
       </c>
       <c r="K63" s="13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L63"/>
       <c r="M63"/>
@@ -13165,12 +12899,12 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="8" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13">
-        <v>1476</v>
+        <v>528</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="24"/>
@@ -13180,7 +12914,7 @@
       </c>
       <c r="I64" s="25"/>
       <c r="J64" s="18">
-        <v>1476</v>
+        <v>528</v>
       </c>
       <c r="K64" s="13">
         <v>1</v>
@@ -13197,12 +12931,12 @@
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="16" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13">
-        <v>1476</v>
+        <v>528</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="24"/>
@@ -13212,7 +12946,7 @@
       </c>
       <c r="I65" s="25"/>
       <c r="J65" s="18">
-        <v>1476</v>
+        <v>528</v>
       </c>
       <c r="K65" s="13">
         <v>1</v>
@@ -13229,12 +12963,12 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="8" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13">
-        <v>4770</v>
+        <v>2172</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="24"/>
@@ -13244,7 +12978,7 @@
       </c>
       <c r="I66" s="25"/>
       <c r="J66" s="18">
-        <v>4770</v>
+        <v>2172</v>
       </c>
       <c r="K66" s="13">
         <v>1</v>
@@ -13261,12 +12995,12 @@
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="16" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13">
-        <v>4770</v>
+        <v>2172</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="24"/>
@@ -13276,7 +13010,7 @@
       </c>
       <c r="I67" s="25"/>
       <c r="J67" s="18">
-        <v>4770</v>
+        <v>2172</v>
       </c>
       <c r="K67" s="13">
         <v>1</v>
@@ -13293,22 +13027,22 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="8" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B68" s="13"/>
-      <c r="C68" s="13">
-        <v>588</v>
-      </c>
-      <c r="D68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13">
+        <v>15693</v>
+      </c>
       <c r="E68" s="13"/>
       <c r="F68" s="24"/>
-      <c r="G68" s="25">
-        <v>1</v>
-      </c>
-      <c r="H68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25">
+        <v>1</v>
+      </c>
       <c r="I68" s="25"/>
       <c r="J68" s="18">
-        <v>588</v>
+        <v>15693</v>
       </c>
       <c r="K68" s="13">
         <v>1</v>
@@ -13325,22 +13059,22 @@
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="16" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B69" s="13"/>
-      <c r="C69" s="13">
-        <v>588</v>
-      </c>
-      <c r="D69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13">
+        <v>15693</v>
+      </c>
       <c r="E69" s="13"/>
       <c r="F69" s="24"/>
-      <c r="G69" s="25">
-        <v>1</v>
-      </c>
-      <c r="H69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25">
+        <v>1</v>
+      </c>
       <c r="I69" s="25"/>
       <c r="J69" s="18">
-        <v>588</v>
+        <v>15693</v>
       </c>
       <c r="K69" s="13">
         <v>1</v>
@@ -13357,22 +13091,22 @@
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B70" s="13"/>
+        <v>291</v>
+      </c>
+      <c r="B70" s="13">
+        <v>2514</v>
+      </c>
       <c r="C70" s="13"/>
-      <c r="D70" s="13">
-        <v>528</v>
-      </c>
+      <c r="D70" s="13"/>
       <c r="E70" s="13"/>
-      <c r="F70" s="24"/>
+      <c r="F70" s="24">
+        <v>1</v>
+      </c>
       <c r="G70" s="25"/>
-      <c r="H70" s="25">
-        <v>1</v>
-      </c>
+      <c r="H70" s="25"/>
       <c r="I70" s="25"/>
       <c r="J70" s="18">
-        <v>528</v>
+        <v>2514</v>
       </c>
       <c r="K70" s="13">
         <v>1</v>
@@ -13389,22 +13123,22 @@
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="B71" s="13"/>
+        <v>294</v>
+      </c>
+      <c r="B71" s="13">
+        <v>2514</v>
+      </c>
       <c r="C71" s="13"/>
-      <c r="D71" s="13">
-        <v>528</v>
-      </c>
+      <c r="D71" s="13"/>
       <c r="E71" s="13"/>
-      <c r="F71" s="24"/>
+      <c r="F71" s="24">
+        <v>1</v>
+      </c>
       <c r="G71" s="25"/>
-      <c r="H71" s="25">
-        <v>1</v>
-      </c>
+      <c r="H71" s="25"/>
       <c r="I71" s="25"/>
       <c r="J71" s="18">
-        <v>528</v>
+        <v>2514</v>
       </c>
       <c r="K71" s="13">
         <v>1</v>
@@ -13421,12 +13155,12 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="8" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13">
-        <v>2172</v>
+        <v>96</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="24"/>
@@ -13436,7 +13170,7 @@
       </c>
       <c r="I72" s="25"/>
       <c r="J72" s="18">
-        <v>2172</v>
+        <v>96</v>
       </c>
       <c r="K72" s="13">
         <v>1</v>
@@ -13453,12 +13187,12 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="16" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13">
-        <v>2172</v>
+        <v>96</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="24"/>
@@ -13468,7 +13202,7 @@
       </c>
       <c r="I73" s="25"/>
       <c r="J73" s="18">
-        <v>2172</v>
+        <v>96</v>
       </c>
       <c r="K73" s="13">
         <v>1</v>
@@ -13485,12 +13219,12 @@
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="8" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13">
-        <v>15693</v>
+        <v>1074</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="24"/>
@@ -13500,7 +13234,7 @@
       </c>
       <c r="I74" s="25"/>
       <c r="J74" s="18">
-        <v>15693</v>
+        <v>1074</v>
       </c>
       <c r="K74" s="13">
         <v>1</v>
@@ -13517,12 +13251,12 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="16" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13">
-        <v>15693</v>
+        <v>1074</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="24"/>
@@ -13532,7 +13266,7 @@
       </c>
       <c r="I75" s="25"/>
       <c r="J75" s="18">
-        <v>15693</v>
+        <v>1074</v>
       </c>
       <c r="K75" s="13">
         <v>1</v>
@@ -13549,22 +13283,22 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B76" s="13">
-        <v>2514</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B76" s="13"/>
       <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
+      <c r="D76" s="13">
+        <v>336</v>
+      </c>
       <c r="E76" s="13"/>
-      <c r="F76" s="24">
-        <v>1</v>
-      </c>
+      <c r="F76" s="24"/>
       <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
+      <c r="H76" s="25">
+        <v>1</v>
+      </c>
       <c r="I76" s="25"/>
       <c r="J76" s="18">
-        <v>2514</v>
+        <v>336</v>
       </c>
       <c r="K76" s="13">
         <v>1</v>
@@ -13581,22 +13315,22 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="B77" s="13">
-        <v>2514</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B77" s="13"/>
       <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
+      <c r="D77" s="13">
+        <v>336</v>
+      </c>
       <c r="E77" s="13"/>
-      <c r="F77" s="24">
-        <v>1</v>
-      </c>
+      <c r="F77" s="24"/>
       <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
+      <c r="H77" s="25">
+        <v>1</v>
+      </c>
       <c r="I77" s="25"/>
       <c r="J77" s="18">
-        <v>2514</v>
+        <v>336</v>
       </c>
       <c r="K77" s="13">
         <v>1</v>
@@ -13613,12 +13347,12 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="8" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13">
-        <v>96</v>
+        <v>384</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="24"/>
@@ -13628,7 +13362,7 @@
       </c>
       <c r="I78" s="25"/>
       <c r="J78" s="18">
-        <v>96</v>
+        <v>384</v>
       </c>
       <c r="K78" s="13">
         <v>1</v>
@@ -13645,12 +13379,12 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="16" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13">
-        <v>96</v>
+        <v>384</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="24"/>
@@ -13660,7 +13394,7 @@
       </c>
       <c r="I79" s="25"/>
       <c r="J79" s="18">
-        <v>96</v>
+        <v>384</v>
       </c>
       <c r="K79" s="13">
         <v>1</v>
@@ -13677,12 +13411,12 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="8" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13">
-        <v>1074</v>
+        <v>786</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="24"/>
@@ -13692,7 +13426,7 @@
       </c>
       <c r="I80" s="25"/>
       <c r="J80" s="18">
-        <v>1074</v>
+        <v>786</v>
       </c>
       <c r="K80" s="13">
         <v>1</v>
@@ -13709,12 +13443,12 @@
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="16" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13">
-        <v>1074</v>
+        <v>786</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="24"/>
@@ -13724,7 +13458,7 @@
       </c>
       <c r="I81" s="25"/>
       <c r="J81" s="18">
-        <v>1074</v>
+        <v>786</v>
       </c>
       <c r="K81" s="13">
         <v>1</v>
@@ -13741,12 +13475,12 @@
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="8" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13">
-        <v>336</v>
+        <v>1866</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="24"/>
@@ -13756,7 +13490,7 @@
       </c>
       <c r="I82" s="25"/>
       <c r="J82" s="18">
-        <v>336</v>
+        <v>1866</v>
       </c>
       <c r="K82" s="13">
         <v>1</v>
@@ -13773,12 +13507,12 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="16" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13">
-        <v>336</v>
+        <v>1866</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="24"/>
@@ -13788,7 +13522,7 @@
       </c>
       <c r="I83" s="25"/>
       <c r="J83" s="18">
-        <v>336</v>
+        <v>1866</v>
       </c>
       <c r="K83" s="13">
         <v>1</v>
@@ -13804,26 +13538,34 @@
       <c r="T83"/>
     </row>
     <row r="84" spans="1:20">
-      <c r="A84" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
+      <c r="A84" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="13">
+        <v>777</v>
+      </c>
+      <c r="C84" s="13">
+        <v>81990</v>
+      </c>
       <c r="D84" s="13">
-        <v>384</v>
+        <v>47031</v>
       </c>
       <c r="E84" s="13"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="25"/>
+      <c r="F84" s="24">
+        <v>1</v>
+      </c>
+      <c r="G84" s="25">
+        <v>19</v>
+      </c>
       <c r="H84" s="25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I84" s="25"/>
       <c r="J84" s="18">
-        <v>384</v>
+        <v>129798</v>
       </c>
       <c r="K84" s="13">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L84"/>
       <c r="M84"/>
@@ -13836,26 +13578,30 @@
       <c r="T84"/>
     </row>
     <row r="85" spans="1:20">
-      <c r="A85" s="16" t="s">
-        <v>310</v>
+      <c r="A85" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>58203</v>
+      </c>
       <c r="D85" s="13">
-        <v>384</v>
+        <v>13869</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="24"/>
-      <c r="G85" s="25"/>
+      <c r="G85" s="25">
+        <v>15</v>
+      </c>
       <c r="H85" s="25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I85" s="25"/>
       <c r="J85" s="18">
-        <v>384</v>
+        <v>72072</v>
       </c>
       <c r="K85" s="13">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="L85"/>
       <c r="M85"/>
@@ -13868,26 +13614,34 @@
       <c r="T85"/>
     </row>
     <row r="86" spans="1:20">
-      <c r="A86" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
+      <c r="A86" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" s="13">
+        <v>777</v>
+      </c>
+      <c r="C86" s="13">
+        <v>23787</v>
+      </c>
       <c r="D86" s="13">
-        <v>786</v>
+        <v>33162</v>
       </c>
       <c r="E86" s="13"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="25"/>
+      <c r="F86" s="24">
+        <v>1</v>
+      </c>
+      <c r="G86" s="25">
+        <v>4</v>
+      </c>
       <c r="H86" s="25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I86" s="25"/>
       <c r="J86" s="18">
-        <v>786</v>
+        <v>57726</v>
       </c>
       <c r="K86" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L86"/>
       <c r="M86"/>
@@ -13900,26 +13654,34 @@
       <c r="T86"/>
     </row>
     <row r="87" spans="1:20">
-      <c r="A87" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
+      <c r="A87" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="13">
+        <v>777</v>
+      </c>
+      <c r="C87" s="13">
+        <v>23787</v>
+      </c>
       <c r="D87" s="13">
-        <v>786</v>
+        <v>33162</v>
       </c>
       <c r="E87" s="13"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="25"/>
+      <c r="F87" s="24">
+        <v>1</v>
+      </c>
+      <c r="G87" s="25">
+        <v>4</v>
+      </c>
       <c r="H87" s="25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I87" s="25"/>
       <c r="J87" s="18">
-        <v>786</v>
+        <v>57726</v>
       </c>
       <c r="K87" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
@@ -13932,26 +13694,30 @@
       <c r="T87"/>
     </row>
     <row r="88" spans="1:20">
-      <c r="A88" s="8" t="s">
-        <v>315</v>
+      <c r="A88" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>21345</v>
+      </c>
       <c r="D88" s="13">
-        <v>1866</v>
+        <v>13086</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="24"/>
-      <c r="G88" s="25"/>
+      <c r="G88" s="25">
+        <v>3</v>
+      </c>
       <c r="H88" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88" s="25"/>
       <c r="J88" s="18">
-        <v>1866</v>
+        <v>34431</v>
       </c>
       <c r="K88" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L88"/>
       <c r="M88"/>
@@ -13964,13 +13730,13 @@
       <c r="T88"/>
     </row>
     <row r="89" spans="1:20">
-      <c r="A89" s="16" t="s">
-        <v>318</v>
+      <c r="A89" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13">
-        <v>1866</v>
+        <v>3396</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="24"/>
@@ -13980,7 +13746,7 @@
       </c>
       <c r="I89" s="25"/>
       <c r="J89" s="18">
-        <v>1866</v>
+        <v>3396</v>
       </c>
       <c r="K89" s="13">
         <v>1</v>
@@ -13996,34 +13762,26 @@
       <c r="T89"/>
     </row>
     <row r="90" spans="1:20">
-      <c r="A90" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B90" s="13">
-        <v>777</v>
-      </c>
-      <c r="C90" s="13">
-        <v>81990</v>
-      </c>
+      <c r="A90" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="13">
-        <v>47031</v>
+        <v>3396</v>
       </c>
       <c r="E90" s="13"/>
-      <c r="F90" s="24">
-        <v>1</v>
-      </c>
-      <c r="G90" s="25">
-        <v>19</v>
-      </c>
+      <c r="F90" s="24"/>
+      <c r="G90" s="25"/>
       <c r="H90" s="25">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I90" s="25"/>
       <c r="J90" s="18">
-        <v>129798</v>
+        <v>3396</v>
       </c>
       <c r="K90" s="13">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L90"/>
       <c r="M90"/>
@@ -14036,30 +13794,26 @@
       <c r="T90"/>
     </row>
     <row r="91" spans="1:20">
-      <c r="A91" s="5" t="s">
-        <v>19</v>
+      <c r="A91" s="8" t="s">
+        <v>339</v>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="13">
-        <v>58203</v>
-      </c>
-      <c r="D91" s="13">
-        <v>13869</v>
-      </c>
+        <v>6126</v>
+      </c>
+      <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="24"/>
       <c r="G91" s="25">
-        <v>15</v>
-      </c>
-      <c r="H91" s="25">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H91" s="25"/>
       <c r="I91" s="25"/>
       <c r="J91" s="18">
-        <v>72072</v>
+        <v>6126</v>
       </c>
       <c r="K91" s="13">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
@@ -14072,12 +13826,12 @@
       <c r="T91"/>
     </row>
     <row r="92" spans="1:20">
-      <c r="A92" s="6" t="s">
-        <v>32</v>
+      <c r="A92" s="16" t="s">
+        <v>342</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="13">
-        <v>657</v>
+        <v>6126</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
@@ -14088,7 +13842,7 @@
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
       <c r="J92" s="18">
-        <v>657</v>
+        <v>6126</v>
       </c>
       <c r="K92" s="13">
         <v>1</v>
@@ -14104,12 +13858,12 @@
       <c r="T92"/>
     </row>
     <row r="93" spans="1:20">
-      <c r="A93" s="7" t="s">
-        <v>33</v>
+      <c r="A93" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="B93" s="13"/>
       <c r="C93" s="13">
-        <v>657</v>
+        <v>6309</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -14120,7 +13874,7 @@
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
       <c r="J93" s="18">
-        <v>657</v>
+        <v>6309</v>
       </c>
       <c r="K93" s="13">
         <v>1</v>
@@ -14136,12 +13890,12 @@
       <c r="T93"/>
     </row>
     <row r="94" spans="1:20">
-      <c r="A94" s="8" t="s">
-        <v>34</v>
+      <c r="A94" s="16" t="s">
+        <v>326</v>
       </c>
       <c r="B94" s="13"/>
       <c r="C94" s="13">
-        <v>657</v>
+        <v>6309</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
@@ -14152,7 +13906,7 @@
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
       <c r="J94" s="18">
-        <v>657</v>
+        <v>6309</v>
       </c>
       <c r="K94" s="13">
         <v>1</v>
@@ -14168,23 +13922,23 @@
       <c r="T94"/>
     </row>
     <row r="95" spans="1:20">
-      <c r="A95" s="16" t="s">
-        <v>37</v>
+      <c r="A95" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="B95" s="13"/>
-      <c r="C95" s="13">
-        <v>657</v>
-      </c>
-      <c r="D95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13">
+        <v>5790</v>
+      </c>
       <c r="E95" s="13"/>
       <c r="F95" s="24"/>
-      <c r="G95" s="25">
-        <v>1</v>
-      </c>
-      <c r="H95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25">
+        <v>1</v>
+      </c>
       <c r="I95" s="25"/>
       <c r="J95" s="18">
-        <v>657</v>
+        <v>5790</v>
       </c>
       <c r="K95" s="13">
         <v>1</v>
@@ -14200,30 +13954,26 @@
       <c r="T95"/>
     </row>
     <row r="96" spans="1:20">
-      <c r="A96" s="6" t="s">
-        <v>20</v>
+      <c r="A96" s="16" t="s">
+        <v>330</v>
       </c>
       <c r="B96" s="13"/>
-      <c r="C96" s="13">
-        <v>23832</v>
-      </c>
+      <c r="C96" s="13"/>
       <c r="D96" s="13">
-        <v>11157</v>
+        <v>5790</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="24"/>
-      <c r="G96" s="25">
-        <v>7</v>
-      </c>
+      <c r="G96" s="25"/>
       <c r="H96" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I96" s="25"/>
       <c r="J96" s="18">
-        <v>34989</v>
+        <v>5790</v>
       </c>
       <c r="K96" s="13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L96"/>
       <c r="M96"/>
@@ -14236,23 +13986,23 @@
       <c r="T96"/>
     </row>
     <row r="97" spans="1:20">
-      <c r="A97" s="7" t="s">
-        <v>21</v>
+      <c r="A97" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="B97" s="13"/>
-      <c r="C97" s="13">
-        <v>1821</v>
-      </c>
-      <c r="D97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13">
+        <v>3900</v>
+      </c>
       <c r="E97" s="13"/>
       <c r="F97" s="24"/>
-      <c r="G97" s="25">
-        <v>1</v>
-      </c>
-      <c r="H97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25">
+        <v>1</v>
+      </c>
       <c r="I97" s="25"/>
       <c r="J97" s="18">
-        <v>1821</v>
+        <v>3900</v>
       </c>
       <c r="K97" s="13">
         <v>1</v>
@@ -14268,23 +14018,23 @@
       <c r="T97"/>
     </row>
     <row r="98" spans="1:20">
-      <c r="A98" s="8" t="s">
-        <v>38</v>
+      <c r="A98" s="16" t="s">
+        <v>334</v>
       </c>
       <c r="B98" s="13"/>
-      <c r="C98" s="13">
-        <v>1821</v>
-      </c>
-      <c r="D98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13">
+        <v>3900</v>
+      </c>
       <c r="E98" s="13"/>
       <c r="F98" s="24"/>
-      <c r="G98" s="25">
-        <v>1</v>
-      </c>
-      <c r="H98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25">
+        <v>1</v>
+      </c>
       <c r="I98" s="25"/>
       <c r="J98" s="18">
-        <v>1821</v>
+        <v>3900</v>
       </c>
       <c r="K98" s="13">
         <v>1</v>
@@ -14300,12 +14050,12 @@
       <c r="T98"/>
     </row>
     <row r="99" spans="1:20">
-      <c r="A99" s="16" t="s">
-        <v>41</v>
+      <c r="A99" s="8" t="s">
+        <v>335</v>
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="13">
-        <v>1821</v>
+        <v>8910</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
@@ -14316,7 +14066,7 @@
       <c r="H99" s="25"/>
       <c r="I99" s="25"/>
       <c r="J99" s="18">
-        <v>1821</v>
+        <v>8910</v>
       </c>
       <c r="K99" s="13">
         <v>1</v>
@@ -14332,30 +14082,26 @@
       <c r="T99"/>
     </row>
     <row r="100" spans="1:20">
-      <c r="A100" s="7" t="s">
-        <v>42</v>
+      <c r="A100" s="16" t="s">
+        <v>338</v>
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="13">
-        <v>6654</v>
-      </c>
-      <c r="D100" s="13">
-        <v>6513</v>
-      </c>
+        <v>8910</v>
+      </c>
+      <c r="D100" s="13"/>
       <c r="E100" s="13"/>
       <c r="F100" s="24"/>
       <c r="G100" s="25">
-        <v>2</v>
-      </c>
-      <c r="H100" s="25">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H100" s="25"/>
       <c r="I100" s="25"/>
       <c r="J100" s="18">
-        <v>13167</v>
+        <v>8910</v>
       </c>
       <c r="K100" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
@@ -14368,23 +14114,23 @@
       <c r="T100"/>
     </row>
     <row r="101" spans="1:20">
-      <c r="A101" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13">
-        <v>2208</v>
-      </c>
+      <c r="A101" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B101" s="13">
+        <v>777</v>
+      </c>
+      <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="25">
-        <v>1</v>
-      </c>
+      <c r="F101" s="24">
+        <v>1</v>
+      </c>
+      <c r="G101" s="25"/>
       <c r="H101" s="25"/>
       <c r="I101" s="25"/>
       <c r="J101" s="18">
-        <v>2208</v>
+        <v>777</v>
       </c>
       <c r="K101" s="13">
         <v>1</v>
@@ -14400,23 +14146,23 @@
       <c r="T101"/>
     </row>
     <row r="102" spans="1:20">
-      <c r="A102" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13">
-        <v>2208</v>
-      </c>
+      <c r="A102" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B102" s="13">
+        <v>777</v>
+      </c>
+      <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="25">
-        <v>1</v>
-      </c>
+      <c r="F102" s="24">
+        <v>1</v>
+      </c>
+      <c r="G102" s="25"/>
       <c r="H102" s="25"/>
       <c r="I102" s="25"/>
       <c r="J102" s="18">
-        <v>2208</v>
+        <v>777</v>
       </c>
       <c r="K102" s="13">
         <v>1</v>
@@ -14432,23 +14178,23 @@
       <c r="T102"/>
     </row>
     <row r="103" spans="1:20">
-      <c r="A103" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B103" s="13"/>
+      <c r="A103" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B103" s="13">
+        <v>777</v>
+      </c>
       <c r="C103" s="13"/>
-      <c r="D103" s="13">
-        <v>1485</v>
-      </c>
+      <c r="D103" s="13"/>
       <c r="E103" s="13"/>
-      <c r="F103" s="24"/>
+      <c r="F103" s="24">
+        <v>1</v>
+      </c>
       <c r="G103" s="25"/>
-      <c r="H103" s="25">
-        <v>1</v>
-      </c>
+      <c r="H103" s="25"/>
       <c r="I103" s="25"/>
       <c r="J103" s="18">
-        <v>1485</v>
+        <v>777</v>
       </c>
       <c r="K103" s="13">
         <v>1</v>
@@ -14464,26 +14210,30 @@
       <c r="T103"/>
     </row>
     <row r="104" spans="1:20">
-      <c r="A104" s="16" t="s">
-        <v>50</v>
+      <c r="A104" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
+      <c r="C104" s="13">
+        <v>2442</v>
+      </c>
       <c r="D104" s="13">
-        <v>1485</v>
+        <v>20076</v>
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="24"/>
-      <c r="G104" s="25"/>
+      <c r="G104" s="25">
+        <v>1</v>
+      </c>
       <c r="H104" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" s="25"/>
       <c r="J104" s="18">
-        <v>1485</v>
+        <v>22518</v>
       </c>
       <c r="K104" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L104"/>
       <c r="M104"/>
@@ -14497,11 +14247,11 @@
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="8" t="s">
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="B105" s="13"/>
       <c r="C105" s="13">
-        <v>4446</v>
+        <v>2442</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
@@ -14512,7 +14262,7 @@
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
       <c r="J105" s="18">
-        <v>4446</v>
+        <v>2442</v>
       </c>
       <c r="K105" s="13">
         <v>1</v>
@@ -14529,11 +14279,11 @@
     </row>
     <row r="106" spans="1:20">
       <c r="A106" s="16" t="s">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="13">
-        <v>4446</v>
+        <v>2442</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
@@ -14544,7 +14294,7 @@
       <c r="H106" s="25"/>
       <c r="I106" s="25"/>
       <c r="J106" s="18">
-        <v>4446</v>
+        <v>2442</v>
       </c>
       <c r="K106" s="13">
         <v>1</v>
@@ -14561,12 +14311,12 @@
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="8" t="s">
-        <v>55</v>
+        <v>351</v>
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13">
-        <v>1035</v>
+        <v>9951</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="24"/>
@@ -14576,7 +14326,7 @@
       </c>
       <c r="I107" s="25"/>
       <c r="J107" s="18">
-        <v>1035</v>
+        <v>9951</v>
       </c>
       <c r="K107" s="13">
         <v>1</v>
@@ -14593,12 +14343,12 @@
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="16" t="s">
-        <v>58</v>
+        <v>354</v>
       </c>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13">
-        <v>1035</v>
+        <v>9951</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="24"/>
@@ -14608,7 +14358,7 @@
       </c>
       <c r="I108" s="25"/>
       <c r="J108" s="18">
-        <v>1035</v>
+        <v>9951</v>
       </c>
       <c r="K108" s="13">
         <v>1</v>
@@ -14625,12 +14375,12 @@
     </row>
     <row r="109" spans="1:20">
       <c r="A109" s="8" t="s">
-        <v>59</v>
+        <v>355</v>
       </c>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13">
-        <v>3993</v>
+        <v>10125</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="24"/>
@@ -14640,7 +14390,7 @@
       </c>
       <c r="I109" s="25"/>
       <c r="J109" s="18">
-        <v>3993</v>
+        <v>10125</v>
       </c>
       <c r="K109" s="13">
         <v>1</v>
@@ -14657,12 +14407,12 @@
     </row>
     <row r="110" spans="1:20">
       <c r="A110" s="16" t="s">
-        <v>62</v>
+        <v>358</v>
       </c>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13">
-        <v>3993</v>
+        <v>10125</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="24"/>
@@ -14672,7 +14422,7 @@
       </c>
       <c r="I110" s="25"/>
       <c r="J110" s="18">
-        <v>3993</v>
+        <v>10125</v>
       </c>
       <c r="K110" s="13">
         <v>1</v>
@@ -14688,26 +14438,30 @@
       <c r="T110"/>
     </row>
     <row r="111" spans="1:20">
-      <c r="A111" s="7" t="s">
-        <v>63</v>
+      <c r="A111" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="13">
-        <v>3582</v>
-      </c>
-      <c r="D111" s="13"/>
+        <v>18426</v>
+      </c>
+      <c r="D111" s="13">
+        <v>75972</v>
+      </c>
       <c r="E111" s="13"/>
       <c r="F111" s="24"/>
       <c r="G111" s="25">
-        <v>2</v>
-      </c>
-      <c r="H111" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="H111" s="25">
+        <v>12</v>
+      </c>
       <c r="I111" s="25"/>
       <c r="J111" s="18">
-        <v>3582</v>
+        <v>94398</v>
       </c>
       <c r="K111" s="13">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L111"/>
       <c r="M111"/>
@@ -14720,26 +14474,26 @@
       <c r="T111"/>
     </row>
     <row r="112" spans="1:20">
-      <c r="A112" s="8" t="s">
-        <v>64</v>
+      <c r="A112" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B112" s="13"/>
-      <c r="C112" s="13">
-        <v>2610</v>
-      </c>
-      <c r="D112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13">
+        <v>21006</v>
+      </c>
       <c r="E112" s="13"/>
       <c r="F112" s="24"/>
-      <c r="G112" s="25">
-        <v>1</v>
-      </c>
-      <c r="H112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25">
+        <v>4</v>
+      </c>
       <c r="I112" s="25"/>
       <c r="J112" s="18">
-        <v>2610</v>
+        <v>21006</v>
       </c>
       <c r="K112" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L112"/>
       <c r="M112"/>
@@ -14752,26 +14506,30 @@
       <c r="T112"/>
     </row>
     <row r="113" spans="1:20">
-      <c r="A113" s="16" t="s">
-        <v>67</v>
+      <c r="A113" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B113" s="13"/>
       <c r="C113" s="13">
-        <v>2610</v>
-      </c>
-      <c r="D113" s="13"/>
+        <v>18426</v>
+      </c>
+      <c r="D113" s="13">
+        <v>54966</v>
+      </c>
       <c r="E113" s="13"/>
       <c r="F113" s="24"/>
       <c r="G113" s="25">
-        <v>1</v>
-      </c>
-      <c r="H113" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="H113" s="25">
+        <v>8</v>
+      </c>
       <c r="I113" s="25"/>
       <c r="J113" s="18">
-        <v>2610</v>
+        <v>73392</v>
       </c>
       <c r="K113" s="13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L113"/>
       <c r="M113"/>
@@ -14784,26 +14542,30 @@
       <c r="T113"/>
     </row>
     <row r="114" spans="1:20">
-      <c r="A114" s="8" t="s">
-        <v>68</v>
+      <c r="A114" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="13">
-        <v>972</v>
-      </c>
-      <c r="D114" s="13"/>
+        <v>18426</v>
+      </c>
+      <c r="D114" s="13">
+        <v>54966</v>
+      </c>
       <c r="E114" s="13"/>
       <c r="F114" s="24"/>
       <c r="G114" s="25">
-        <v>1</v>
-      </c>
-      <c r="H114" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="H114" s="25">
+        <v>8</v>
+      </c>
       <c r="I114" s="25"/>
       <c r="J114" s="18">
-        <v>972</v>
+        <v>73392</v>
       </c>
       <c r="K114" s="13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L114"/>
       <c r="M114"/>
@@ -14816,26 +14578,30 @@
       <c r="T114"/>
     </row>
     <row r="115" spans="1:20">
-      <c r="A115" s="16" t="s">
-        <v>71</v>
+      <c r="A115" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="13">
-        <v>972</v>
-      </c>
-      <c r="D115" s="13"/>
+        <v>9552</v>
+      </c>
+      <c r="D115" s="13">
+        <v>33306</v>
+      </c>
       <c r="E115" s="13"/>
       <c r="F115" s="24"/>
       <c r="G115" s="25">
-        <v>1</v>
-      </c>
-      <c r="H115" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="H115" s="25">
+        <v>7</v>
+      </c>
       <c r="I115" s="25"/>
       <c r="J115" s="18">
-        <v>972</v>
+        <v>42858</v>
       </c>
       <c r="K115" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L115"/>
       <c r="M115"/>
@@ -14848,30 +14614,26 @@
       <c r="T115"/>
     </row>
     <row r="116" spans="1:20">
-      <c r="A116" s="7" t="s">
-        <v>72</v>
+      <c r="A116" s="8" t="s">
+        <v>361</v>
       </c>
       <c r="B116" s="13"/>
-      <c r="C116" s="13">
-        <v>11775</v>
-      </c>
+      <c r="C116" s="13"/>
       <c r="D116" s="13">
-        <v>4644</v>
+        <v>7830</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="24"/>
-      <c r="G116" s="25">
-        <v>2</v>
-      </c>
+      <c r="G116" s="25"/>
       <c r="H116" s="25">
         <v>1</v>
       </c>
       <c r="I116" s="25"/>
       <c r="J116" s="18">
-        <v>16419</v>
+        <v>7830</v>
       </c>
       <c r="K116" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L116"/>
       <c r="M116"/>
@@ -14884,13 +14646,13 @@
       <c r="T116"/>
     </row>
     <row r="117" spans="1:20">
-      <c r="A117" s="8" t="s">
-        <v>73</v>
+      <c r="A117" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13">
-        <v>4644</v>
+        <v>7830</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="24"/>
@@ -14900,7 +14662,7 @@
       </c>
       <c r="I117" s="25"/>
       <c r="J117" s="18">
-        <v>4644</v>
+        <v>7830</v>
       </c>
       <c r="K117" s="13">
         <v>1</v>
@@ -14916,13 +14678,13 @@
       <c r="T117"/>
     </row>
     <row r="118" spans="1:20">
-      <c r="A118" s="16" t="s">
-        <v>76</v>
+      <c r="A118" s="8" t="s">
+        <v>365</v>
       </c>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13">
-        <v>4644</v>
+        <v>1521</v>
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="24"/>
@@ -14932,7 +14694,7 @@
       </c>
       <c r="I118" s="25"/>
       <c r="J118" s="18">
-        <v>4644</v>
+        <v>1521</v>
       </c>
       <c r="K118" s="13">
         <v>1</v>
@@ -14948,23 +14710,23 @@
       <c r="T118"/>
     </row>
     <row r="119" spans="1:20">
-      <c r="A119" s="8" t="s">
-        <v>77</v>
+      <c r="A119" s="16" t="s">
+        <v>368</v>
       </c>
       <c r="B119" s="13"/>
-      <c r="C119" s="13">
-        <v>4824</v>
-      </c>
-      <c r="D119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13">
+        <v>1521</v>
+      </c>
       <c r="E119" s="13"/>
       <c r="F119" s="24"/>
-      <c r="G119" s="25">
-        <v>1</v>
-      </c>
-      <c r="H119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25">
+        <v>1</v>
+      </c>
       <c r="I119" s="25"/>
       <c r="J119" s="18">
-        <v>4824</v>
+        <v>1521</v>
       </c>
       <c r="K119" s="13">
         <v>1</v>
@@ -14980,23 +14742,23 @@
       <c r="T119"/>
     </row>
     <row r="120" spans="1:20">
-      <c r="A120" s="16" t="s">
-        <v>80</v>
+      <c r="A120" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="B120" s="13"/>
-      <c r="C120" s="13">
-        <v>4824</v>
-      </c>
-      <c r="D120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13">
+        <v>3900</v>
+      </c>
       <c r="E120" s="13"/>
       <c r="F120" s="24"/>
-      <c r="G120" s="25">
-        <v>1</v>
-      </c>
-      <c r="H120" s="25"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="25">
+        <v>1</v>
+      </c>
       <c r="I120" s="25"/>
       <c r="J120" s="18">
-        <v>4824</v>
+        <v>3900</v>
       </c>
       <c r="K120" s="13">
         <v>1</v>
@@ -15012,23 +14774,23 @@
       <c r="T120"/>
     </row>
     <row r="121" spans="1:20">
-      <c r="A121" s="8" t="s">
-        <v>81</v>
+      <c r="A121" s="16" t="s">
+        <v>372</v>
       </c>
       <c r="B121" s="13"/>
-      <c r="C121" s="13">
-        <v>6951</v>
-      </c>
-      <c r="D121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13">
+        <v>3900</v>
+      </c>
       <c r="E121" s="13"/>
       <c r="F121" s="24"/>
-      <c r="G121" s="25">
-        <v>1</v>
-      </c>
-      <c r="H121" s="25"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="25">
+        <v>1</v>
+      </c>
       <c r="I121" s="25"/>
       <c r="J121" s="18">
-        <v>6951</v>
+        <v>3900</v>
       </c>
       <c r="K121" s="13">
         <v>1</v>
@@ -15044,12 +14806,12 @@
       <c r="T121"/>
     </row>
     <row r="122" spans="1:20">
-      <c r="A122" s="16" t="s">
-        <v>84</v>
+      <c r="A122" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="B122" s="13"/>
       <c r="C122" s="13">
-        <v>6951</v>
+        <v>5205</v>
       </c>
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
@@ -15060,7 +14822,7 @@
       <c r="H122" s="25"/>
       <c r="I122" s="25"/>
       <c r="J122" s="18">
-        <v>6951</v>
+        <v>5205</v>
       </c>
       <c r="K122" s="13">
         <v>1</v>
@@ -15076,30 +14838,26 @@
       <c r="T122"/>
     </row>
     <row r="123" spans="1:20">
-      <c r="A123" s="6" t="s">
-        <v>85</v>
+      <c r="A123" s="16" t="s">
+        <v>376</v>
       </c>
       <c r="B123" s="13"/>
       <c r="C123" s="13">
-        <v>33714</v>
-      </c>
-      <c r="D123" s="13">
-        <v>2712</v>
-      </c>
+        <v>5205</v>
+      </c>
+      <c r="D123" s="13"/>
       <c r="E123" s="13"/>
       <c r="F123" s="24"/>
       <c r="G123" s="25">
-        <v>7</v>
-      </c>
-      <c r="H123" s="25">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H123" s="25"/>
       <c r="I123" s="25"/>
       <c r="J123" s="18">
-        <v>36426</v>
+        <v>5205</v>
       </c>
       <c r="K123" s="13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L123"/>
       <c r="M123"/>
@@ -15112,30 +14870,26 @@
       <c r="T123"/>
     </row>
     <row r="124" spans="1:20">
-      <c r="A124" s="7" t="s">
-        <v>86</v>
+      <c r="A124" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="B124" s="13"/>
-      <c r="C124" s="13">
-        <v>21552</v>
-      </c>
+      <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>1665</v>
+        <v>7902</v>
       </c>
       <c r="E124" s="13"/>
       <c r="F124" s="24"/>
-      <c r="G124" s="25">
-        <v>3</v>
-      </c>
+      <c r="G124" s="25"/>
       <c r="H124" s="25">
         <v>1</v>
       </c>
       <c r="I124" s="25"/>
       <c r="J124" s="18">
-        <v>23217</v>
+        <v>7902</v>
       </c>
       <c r="K124" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L124"/>
       <c r="M124"/>
@@ -15148,23 +14902,23 @@
       <c r="T124"/>
     </row>
     <row r="125" spans="1:20">
-      <c r="A125" s="8" t="s">
-        <v>87</v>
+      <c r="A125" s="16" t="s">
+        <v>380</v>
       </c>
       <c r="B125" s="13"/>
-      <c r="C125" s="13">
-        <v>6660</v>
-      </c>
-      <c r="D125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13">
+        <v>7902</v>
+      </c>
       <c r="E125" s="13"/>
       <c r="F125" s="24"/>
-      <c r="G125" s="25">
-        <v>1</v>
-      </c>
-      <c r="H125" s="25"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="25">
+        <v>1</v>
+      </c>
       <c r="I125" s="25"/>
       <c r="J125" s="18">
-        <v>6660</v>
+        <v>7902</v>
       </c>
       <c r="K125" s="13">
         <v>1</v>
@@ -15180,23 +14934,23 @@
       <c r="T125"/>
     </row>
     <row r="126" spans="1:20">
-      <c r="A126" s="16" t="s">
-        <v>90</v>
+      <c r="A126" s="8" t="s">
+        <v>381</v>
       </c>
       <c r="B126" s="13"/>
-      <c r="C126" s="13">
-        <v>6660</v>
-      </c>
-      <c r="D126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13">
+        <v>1578</v>
+      </c>
       <c r="E126" s="13"/>
       <c r="F126" s="24"/>
-      <c r="G126" s="25">
-        <v>1</v>
-      </c>
-      <c r="H126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25">
+        <v>1</v>
+      </c>
       <c r="I126" s="25"/>
       <c r="J126" s="18">
-        <v>6660</v>
+        <v>1578</v>
       </c>
       <c r="K126" s="13">
         <v>1</v>
@@ -15212,23 +14966,23 @@
       <c r="T126"/>
     </row>
     <row r="127" spans="1:20">
-      <c r="A127" s="8" t="s">
-        <v>91</v>
+      <c r="A127" s="16" t="s">
+        <v>384</v>
       </c>
       <c r="B127" s="13"/>
-      <c r="C127" s="13">
-        <v>7524</v>
-      </c>
-      <c r="D127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13">
+        <v>1578</v>
+      </c>
       <c r="E127" s="13"/>
       <c r="F127" s="24"/>
-      <c r="G127" s="25">
-        <v>1</v>
-      </c>
-      <c r="H127" s="25"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="25">
+        <v>1</v>
+      </c>
       <c r="I127" s="25"/>
       <c r="J127" s="18">
-        <v>7524</v>
+        <v>1578</v>
       </c>
       <c r="K127" s="13">
         <v>1</v>
@@ -15244,23 +14998,23 @@
       <c r="T127"/>
     </row>
     <row r="128" spans="1:20">
-      <c r="A128" s="16" t="s">
-        <v>94</v>
+      <c r="A128" s="8" t="s">
+        <v>385</v>
       </c>
       <c r="B128" s="13"/>
-      <c r="C128" s="13">
-        <v>7524</v>
-      </c>
-      <c r="D128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13">
+        <v>3177</v>
+      </c>
       <c r="E128" s="13"/>
       <c r="F128" s="24"/>
-      <c r="G128" s="25">
-        <v>1</v>
-      </c>
-      <c r="H128" s="25"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="25">
+        <v>1</v>
+      </c>
       <c r="I128" s="25"/>
       <c r="J128" s="18">
-        <v>7524</v>
+        <v>3177</v>
       </c>
       <c r="K128" s="13">
         <v>1</v>
@@ -15276,13 +15030,13 @@
       <c r="T128"/>
     </row>
     <row r="129" spans="1:20">
-      <c r="A129" s="8" t="s">
-        <v>95</v>
+      <c r="A129" s="16" t="s">
+        <v>388</v>
       </c>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13">
-        <v>1665</v>
+        <v>3177</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="24"/>
@@ -15292,7 +15046,7 @@
       </c>
       <c r="I129" s="25"/>
       <c r="J129" s="18">
-        <v>1665</v>
+        <v>3177</v>
       </c>
       <c r="K129" s="13">
         <v>1</v>
@@ -15308,23 +15062,23 @@
       <c r="T129"/>
     </row>
     <row r="130" spans="1:20">
-      <c r="A130" s="16" t="s">
-        <v>98</v>
+      <c r="A130" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="B130" s="13"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13">
-        <v>1665</v>
-      </c>
+      <c r="C130" s="13">
+        <v>4347</v>
+      </c>
+      <c r="D130" s="13"/>
       <c r="E130" s="13"/>
       <c r="F130" s="24"/>
-      <c r="G130" s="25"/>
-      <c r="H130" s="25">
-        <v>1</v>
-      </c>
+      <c r="G130" s="25">
+        <v>1</v>
+      </c>
+      <c r="H130" s="25"/>
       <c r="I130" s="25"/>
       <c r="J130" s="18">
-        <v>1665</v>
+        <v>4347</v>
       </c>
       <c r="K130" s="13">
         <v>1</v>
@@ -15340,12 +15094,12 @@
       <c r="T130"/>
     </row>
     <row r="131" spans="1:20">
-      <c r="A131" s="8" t="s">
-        <v>99</v>
+      <c r="A131" s="16" t="s">
+        <v>392</v>
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="13">
-        <v>7368</v>
+        <v>4347</v>
       </c>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
@@ -15356,7 +15110,7 @@
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
       <c r="J131" s="18">
-        <v>7368</v>
+        <v>4347</v>
       </c>
       <c r="K131" s="13">
         <v>1</v>
@@ -15372,23 +15126,23 @@
       <c r="T131"/>
     </row>
     <row r="132" spans="1:20">
-      <c r="A132" s="16" t="s">
-        <v>101</v>
+      <c r="A132" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="B132" s="13"/>
-      <c r="C132" s="13">
-        <v>7368</v>
-      </c>
-      <c r="D132" s="13"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13">
+        <v>7398</v>
+      </c>
       <c r="E132" s="13"/>
       <c r="F132" s="24"/>
-      <c r="G132" s="25">
-        <v>1</v>
-      </c>
-      <c r="H132" s="25"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="25">
+        <v>1</v>
+      </c>
       <c r="I132" s="25"/>
       <c r="J132" s="18">
-        <v>7368</v>
+        <v>7398</v>
       </c>
       <c r="K132" s="13">
         <v>1</v>
@@ -15404,30 +15158,26 @@
       <c r="T132"/>
     </row>
     <row r="133" spans="1:20">
-      <c r="A133" s="7" t="s">
-        <v>102</v>
+      <c r="A133" s="16" t="s">
+        <v>396</v>
       </c>
       <c r="B133" s="13"/>
-      <c r="C133" s="13">
-        <v>2793</v>
-      </c>
+      <c r="C133" s="13"/>
       <c r="D133" s="13">
-        <v>1047</v>
+        <v>7398</v>
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="24"/>
-      <c r="G133" s="25">
-        <v>1</v>
-      </c>
+      <c r="G133" s="25"/>
       <c r="H133" s="25">
         <v>1</v>
       </c>
       <c r="I133" s="25"/>
       <c r="J133" s="18">
-        <v>3840</v>
+        <v>7398</v>
       </c>
       <c r="K133" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L133"/>
       <c r="M133"/>
@@ -15440,26 +15190,30 @@
       <c r="T133"/>
     </row>
     <row r="134" spans="1:20">
-      <c r="A134" s="8" t="s">
-        <v>103</v>
+      <c r="A134" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="B134" s="13"/>
       <c r="C134" s="13">
-        <v>2793</v>
-      </c>
-      <c r="D134" s="13"/>
+        <v>8874</v>
+      </c>
+      <c r="D134" s="13">
+        <v>21660</v>
+      </c>
       <c r="E134" s="13"/>
       <c r="F134" s="24"/>
       <c r="G134" s="25">
-        <v>1</v>
-      </c>
-      <c r="H134" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="H134" s="25">
+        <v>1</v>
+      </c>
       <c r="I134" s="25"/>
       <c r="J134" s="18">
-        <v>2793</v>
+        <v>30534</v>
       </c>
       <c r="K134" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L134"/>
       <c r="M134"/>
@@ -15472,26 +15226,30 @@
       <c r="T134"/>
     </row>
     <row r="135" spans="1:20">
-      <c r="A135" s="16" t="s">
-        <v>106</v>
+      <c r="A135" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="B135" s="13"/>
       <c r="C135" s="13">
-        <v>2793</v>
-      </c>
-      <c r="D135" s="13"/>
+        <v>3789</v>
+      </c>
+      <c r="D135" s="13">
+        <v>21660</v>
+      </c>
       <c r="E135" s="13"/>
       <c r="F135" s="24"/>
       <c r="G135" s="25">
         <v>1</v>
       </c>
-      <c r="H135" s="25"/>
+      <c r="H135" s="25">
+        <v>1</v>
+      </c>
       <c r="I135" s="25"/>
       <c r="J135" s="18">
-        <v>2793</v>
+        <v>25449</v>
       </c>
       <c r="K135" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L135"/>
       <c r="M135"/>
@@ -15504,23 +15262,23 @@
       <c r="T135"/>
     </row>
     <row r="136" spans="1:20">
-      <c r="A136" s="8" t="s">
-        <v>107</v>
+      <c r="A136" s="16" t="s">
+        <v>408</v>
       </c>
       <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13">
-        <v>1047</v>
-      </c>
+      <c r="C136" s="13">
+        <v>3789</v>
+      </c>
+      <c r="D136" s="13"/>
       <c r="E136" s="13"/>
       <c r="F136" s="24"/>
-      <c r="G136" s="25"/>
-      <c r="H136" s="25">
-        <v>1</v>
-      </c>
+      <c r="G136" s="25">
+        <v>1</v>
+      </c>
+      <c r="H136" s="25"/>
       <c r="I136" s="25"/>
       <c r="J136" s="18">
-        <v>1047</v>
+        <v>3789</v>
       </c>
       <c r="K136" s="13">
         <v>1</v>
@@ -15537,12 +15295,12 @@
     </row>
     <row r="137" spans="1:20">
       <c r="A137" s="16" t="s">
-        <v>110</v>
+        <v>405</v>
       </c>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
       <c r="D137" s="13">
-        <v>1047</v>
+        <v>21660</v>
       </c>
       <c r="E137" s="13"/>
       <c r="F137" s="24"/>
@@ -15552,7 +15310,7 @@
       </c>
       <c r="I137" s="25"/>
       <c r="J137" s="18">
-        <v>1047</v>
+        <v>21660</v>
       </c>
       <c r="K137" s="13">
         <v>1</v>
@@ -15568,26 +15326,26 @@
       <c r="T137"/>
     </row>
     <row r="138" spans="1:20">
-      <c r="A138" s="7" t="s">
-        <v>111</v>
+      <c r="A138" s="8" t="s">
+        <v>398</v>
       </c>
       <c r="B138" s="13"/>
       <c r="C138" s="13">
-        <v>9369</v>
+        <v>5085</v>
       </c>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
       <c r="F138" s="24"/>
       <c r="G138" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H138" s="25"/>
       <c r="I138" s="25"/>
       <c r="J138" s="18">
-        <v>9369</v>
+        <v>5085</v>
       </c>
       <c r="K138" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L138"/>
       <c r="M138"/>
@@ -15600,12 +15358,12 @@
       <c r="T138"/>
     </row>
     <row r="139" spans="1:20">
-      <c r="A139" s="8" t="s">
-        <v>112</v>
+      <c r="A139" s="16" t="s">
+        <v>401</v>
       </c>
       <c r="B139" s="13"/>
       <c r="C139" s="13">
-        <v>2733</v>
+        <v>5085</v>
       </c>
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
@@ -15616,7 +15374,7 @@
       <c r="H139" s="25"/>
       <c r="I139" s="25"/>
       <c r="J139" s="18">
-        <v>2733</v>
+        <v>5085</v>
       </c>
       <c r="K139" s="13">
         <v>1</v>
@@ -15632,26 +15390,34 @@
       <c r="T139"/>
     </row>
     <row r="140" spans="1:20">
-      <c r="A140" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B140" s="13"/>
+      <c r="A140" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" s="13">
+        <v>4047</v>
+      </c>
       <c r="C140" s="13">
-        <v>2733</v>
-      </c>
-      <c r="D140" s="13"/>
+        <v>10098</v>
+      </c>
+      <c r="D140" s="13">
+        <v>48333</v>
+      </c>
       <c r="E140" s="13"/>
-      <c r="F140" s="24"/>
+      <c r="F140" s="24">
+        <v>1</v>
+      </c>
       <c r="G140" s="25">
-        <v>1</v>
-      </c>
-      <c r="H140" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="H140" s="25">
+        <v>11</v>
+      </c>
       <c r="I140" s="25"/>
       <c r="J140" s="18">
-        <v>2733</v>
+        <v>62478</v>
       </c>
       <c r="K140" s="13">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L140"/>
       <c r="M140"/>
@@ -15664,26 +15430,30 @@
       <c r="T140"/>
     </row>
     <row r="141" spans="1:20">
-      <c r="A141" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B141" s="13"/>
-      <c r="C141" s="13">
-        <v>4506</v>
-      </c>
-      <c r="D141" s="13"/>
+      <c r="A141" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" s="13">
+        <v>4047</v>
+      </c>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13">
+        <v>21378</v>
+      </c>
       <c r="E141" s="13"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="25">
-        <v>1</v>
-      </c>
-      <c r="H141" s="25"/>
+      <c r="F141" s="24">
+        <v>1</v>
+      </c>
+      <c r="G141" s="25"/>
+      <c r="H141" s="25">
+        <v>6</v>
+      </c>
       <c r="I141" s="25"/>
       <c r="J141" s="18">
-        <v>4506</v>
+        <v>25425</v>
       </c>
       <c r="K141" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L141"/>
       <c r="M141"/>
@@ -15696,26 +15466,30 @@
       <c r="T141"/>
     </row>
     <row r="142" spans="1:20">
-      <c r="A142" s="16" t="s">
-        <v>119</v>
+      <c r="A142" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B142" s="13"/>
       <c r="C142" s="13">
-        <v>4506</v>
-      </c>
-      <c r="D142" s="13"/>
+        <v>10098</v>
+      </c>
+      <c r="D142" s="13">
+        <v>26955</v>
+      </c>
       <c r="E142" s="13"/>
       <c r="F142" s="24"/>
       <c r="G142" s="25">
-        <v>1</v>
-      </c>
-      <c r="H142" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="H142" s="25">
+        <v>5</v>
+      </c>
       <c r="I142" s="25"/>
       <c r="J142" s="18">
-        <v>4506</v>
+        <v>37053</v>
       </c>
       <c r="K142" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L142"/>
       <c r="M142"/>
@@ -15728,26 +15502,26 @@
       <c r="T142"/>
     </row>
     <row r="143" spans="1:20">
-      <c r="A143" s="8" t="s">
-        <v>120</v>
+      <c r="A143" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="B143" s="13"/>
       <c r="C143" s="13">
-        <v>2130</v>
+        <v>2685</v>
       </c>
       <c r="D143" s="13"/>
       <c r="E143" s="13"/>
       <c r="F143" s="24"/>
       <c r="G143" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>
       <c r="J143" s="18">
-        <v>2130</v>
+        <v>2685</v>
       </c>
       <c r="K143" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L143"/>
       <c r="M143"/>
@@ -15760,12 +15534,12 @@
       <c r="T143"/>
     </row>
     <row r="144" spans="1:20">
-      <c r="A144" s="16" t="s">
-        <v>123</v>
+      <c r="A144" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="B144" s="13"/>
       <c r="C144" s="13">
-        <v>2130</v>
+        <v>999</v>
       </c>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
@@ -15776,7 +15550,7 @@
       <c r="H144" s="25"/>
       <c r="I144" s="25"/>
       <c r="J144" s="18">
-        <v>2130</v>
+        <v>999</v>
       </c>
       <c r="K144" s="13">
         <v>1</v>
@@ -15792,34 +15566,26 @@
       <c r="T144"/>
     </row>
     <row r="145" spans="1:20">
-      <c r="A145" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B145" s="13">
-        <v>777</v>
-      </c>
+      <c r="A145" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B145" s="13"/>
       <c r="C145" s="13">
-        <v>23787</v>
-      </c>
-      <c r="D145" s="13">
-        <v>33162</v>
-      </c>
+        <v>999</v>
+      </c>
+      <c r="D145" s="13"/>
       <c r="E145" s="13"/>
-      <c r="F145" s="24">
-        <v>1</v>
-      </c>
+      <c r="F145" s="24"/>
       <c r="G145" s="25">
-        <v>4</v>
-      </c>
-      <c r="H145" s="25">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H145" s="25"/>
       <c r="I145" s="25"/>
       <c r="J145" s="18">
-        <v>57726</v>
+        <v>999</v>
       </c>
       <c r="K145" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L145"/>
       <c r="M145"/>
@@ -15832,34 +15598,26 @@
       <c r="T145"/>
     </row>
     <row r="146" spans="1:20">
-      <c r="A146" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B146" s="13">
-        <v>777</v>
-      </c>
+      <c r="A146" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="B146" s="13"/>
       <c r="C146" s="13">
-        <v>23787</v>
-      </c>
-      <c r="D146" s="13">
-        <v>33162</v>
-      </c>
+        <v>999</v>
+      </c>
+      <c r="D146" s="13"/>
       <c r="E146" s="13"/>
-      <c r="F146" s="24">
-        <v>1</v>
-      </c>
+      <c r="F146" s="24"/>
       <c r="G146" s="25">
-        <v>4</v>
-      </c>
-      <c r="H146" s="25">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H146" s="25"/>
       <c r="I146" s="25"/>
       <c r="J146" s="18">
-        <v>57726</v>
+        <v>999</v>
       </c>
       <c r="K146" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L146"/>
       <c r="M146"/>
@@ -15873,29 +15631,25 @@
     </row>
     <row r="147" spans="1:20">
       <c r="A147" s="7" t="s">
-        <v>176</v>
+        <v>414</v>
       </c>
       <c r="B147" s="13"/>
       <c r="C147" s="13">
-        <v>21345</v>
-      </c>
-      <c r="D147" s="13">
-        <v>13086</v>
-      </c>
+        <v>1686</v>
+      </c>
+      <c r="D147" s="13"/>
       <c r="E147" s="13"/>
       <c r="F147" s="24"/>
       <c r="G147" s="25">
-        <v>3</v>
-      </c>
-      <c r="H147" s="25">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H147" s="25"/>
       <c r="I147" s="25"/>
       <c r="J147" s="18">
-        <v>34431</v>
+        <v>1686</v>
       </c>
       <c r="K147" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L147"/>
       <c r="M147"/>
@@ -15909,22 +15663,22 @@
     </row>
     <row r="148" spans="1:20">
       <c r="A148" s="8" t="s">
-        <v>319</v>
+        <v>415</v>
       </c>
       <c r="B148" s="13"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13">
-        <v>3396</v>
-      </c>
+      <c r="C148" s="13">
+        <v>1686</v>
+      </c>
+      <c r="D148" s="13"/>
       <c r="E148" s="13"/>
       <c r="F148" s="24"/>
-      <c r="G148" s="25"/>
-      <c r="H148" s="25">
-        <v>1</v>
-      </c>
+      <c r="G148" s="25">
+        <v>1</v>
+      </c>
+      <c r="H148" s="25"/>
       <c r="I148" s="25"/>
       <c r="J148" s="18">
-        <v>3396</v>
+        <v>1686</v>
       </c>
       <c r="K148" s="13">
         <v>1</v>
@@ -15941,22 +15695,22 @@
     </row>
     <row r="149" spans="1:20">
       <c r="A149" s="16" t="s">
-        <v>322</v>
+        <v>418</v>
       </c>
       <c r="B149" s="13"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13">
-        <v>3396</v>
-      </c>
+      <c r="C149" s="13">
+        <v>1686</v>
+      </c>
+      <c r="D149" s="13"/>
       <c r="E149" s="13"/>
       <c r="F149" s="24"/>
-      <c r="G149" s="25"/>
-      <c r="H149" s="25">
-        <v>1</v>
-      </c>
+      <c r="G149" s="25">
+        <v>1</v>
+      </c>
+      <c r="H149" s="25"/>
       <c r="I149" s="25"/>
       <c r="J149" s="18">
-        <v>3396</v>
+        <v>1686</v>
       </c>
       <c r="K149" s="13">
         <v>1</v>
@@ -15972,26 +15726,30 @@
       <c r="T149"/>
     </row>
     <row r="150" spans="1:20">
-      <c r="A150" s="8" t="s">
-        <v>339</v>
+      <c r="A150" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="B150" s="13"/>
       <c r="C150" s="13">
-        <v>6126</v>
-      </c>
-      <c r="D150" s="13"/>
+        <v>7413</v>
+      </c>
+      <c r="D150" s="13">
+        <v>26955</v>
+      </c>
       <c r="E150" s="13"/>
       <c r="F150" s="24"/>
       <c r="G150" s="25">
-        <v>1</v>
-      </c>
-      <c r="H150" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="H150" s="25">
+        <v>5</v>
+      </c>
       <c r="I150" s="25"/>
       <c r="J150" s="18">
-        <v>6126</v>
+        <v>34368</v>
       </c>
       <c r="K150" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L150"/>
       <c r="M150"/>
@@ -16004,26 +15762,30 @@
       <c r="T150"/>
     </row>
     <row r="151" spans="1:20">
-      <c r="A151" s="16" t="s">
-        <v>342</v>
+      <c r="A151" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="13">
-        <v>6126</v>
-      </c>
-      <c r="D151" s="13"/>
+        <v>3633</v>
+      </c>
+      <c r="D151" s="13">
+        <v>26955</v>
+      </c>
       <c r="E151" s="13"/>
       <c r="F151" s="24"/>
       <c r="G151" s="25">
         <v>1</v>
       </c>
-      <c r="H151" s="25"/>
+      <c r="H151" s="25">
+        <v>5</v>
+      </c>
       <c r="I151" s="25"/>
       <c r="J151" s="18">
-        <v>6126</v>
+        <v>30588</v>
       </c>
       <c r="K151" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L151"/>
       <c r="M151"/>
@@ -16037,22 +15799,22 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" s="8" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
       <c r="B152" s="13"/>
-      <c r="C152" s="13">
-        <v>6309</v>
-      </c>
-      <c r="D152" s="13"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13">
+        <v>3390</v>
+      </c>
       <c r="E152" s="13"/>
       <c r="F152" s="24"/>
-      <c r="G152" s="25">
-        <v>1</v>
-      </c>
-      <c r="H152" s="25"/>
+      <c r="G152" s="25"/>
+      <c r="H152" s="25">
+        <v>1</v>
+      </c>
       <c r="I152" s="25"/>
       <c r="J152" s="18">
-        <v>6309</v>
+        <v>3390</v>
       </c>
       <c r="K152" s="13">
         <v>1</v>
@@ -16069,22 +15831,22 @@
     </row>
     <row r="153" spans="1:20">
       <c r="A153" s="16" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="B153" s="13"/>
-      <c r="C153" s="13">
-        <v>6309</v>
-      </c>
-      <c r="D153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13">
+        <v>3390</v>
+      </c>
       <c r="E153" s="13"/>
       <c r="F153" s="24"/>
-      <c r="G153" s="25">
-        <v>1</v>
-      </c>
-      <c r="H153" s="25"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="25">
+        <v>1</v>
+      </c>
       <c r="I153" s="25"/>
       <c r="J153" s="18">
-        <v>6309</v>
+        <v>3390</v>
       </c>
       <c r="K153" s="13">
         <v>1</v>
@@ -16101,22 +15863,22 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154" s="8" t="s">
-        <v>327</v>
+        <v>423</v>
       </c>
       <c r="B154" s="13"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13">
-        <v>5790</v>
-      </c>
+      <c r="C154" s="13">
+        <v>3633</v>
+      </c>
+      <c r="D154" s="13"/>
       <c r="E154" s="13"/>
       <c r="F154" s="24"/>
-      <c r="G154" s="25"/>
-      <c r="H154" s="25">
-        <v>1</v>
-      </c>
+      <c r="G154" s="25">
+        <v>1</v>
+      </c>
+      <c r="H154" s="25"/>
       <c r="I154" s="25"/>
       <c r="J154" s="18">
-        <v>5790</v>
+        <v>3633</v>
       </c>
       <c r="K154" s="13">
         <v>1</v>
@@ -16133,22 +15895,22 @@
     </row>
     <row r="155" spans="1:20">
       <c r="A155" s="16" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="B155" s="13"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13">
-        <v>5790</v>
-      </c>
+      <c r="C155" s="13">
+        <v>3633</v>
+      </c>
+      <c r="D155" s="13"/>
       <c r="E155" s="13"/>
       <c r="F155" s="24"/>
-      <c r="G155" s="25"/>
-      <c r="H155" s="25">
-        <v>1</v>
-      </c>
+      <c r="G155" s="25">
+        <v>1</v>
+      </c>
+      <c r="H155" s="25"/>
       <c r="I155" s="25"/>
       <c r="J155" s="18">
-        <v>5790</v>
+        <v>3633</v>
       </c>
       <c r="K155" s="13">
         <v>1</v>
@@ -16165,12 +15927,12 @@
     </row>
     <row r="156" spans="1:20">
       <c r="A156" s="8" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13">
-        <v>3900</v>
+        <v>4866</v>
       </c>
       <c r="E156" s="13"/>
       <c r="F156" s="24"/>
@@ -16180,7 +15942,7 @@
       </c>
       <c r="I156" s="25"/>
       <c r="J156" s="18">
-        <v>3900</v>
+        <v>4866</v>
       </c>
       <c r="K156" s="13">
         <v>1</v>
@@ -16197,12 +15959,12 @@
     </row>
     <row r="157" spans="1:20">
       <c r="A157" s="16" t="s">
-        <v>334</v>
+        <v>430</v>
       </c>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13">
-        <v>3900</v>
+        <v>4866</v>
       </c>
       <c r="E157" s="13"/>
       <c r="F157" s="24"/>
@@ -16212,7 +15974,7 @@
       </c>
       <c r="I157" s="25"/>
       <c r="J157" s="18">
-        <v>3900</v>
+        <v>4866</v>
       </c>
       <c r="K157" s="13">
         <v>1</v>
@@ -16229,22 +15991,22 @@
     </row>
     <row r="158" spans="1:20">
       <c r="A158" s="8" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="B158" s="13"/>
-      <c r="C158" s="13">
-        <v>8910</v>
-      </c>
-      <c r="D158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13">
+        <v>10854</v>
+      </c>
       <c r="E158" s="13"/>
       <c r="F158" s="24"/>
-      <c r="G158" s="25">
-        <v>1</v>
-      </c>
-      <c r="H158" s="25"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="25">
+        <v>1</v>
+      </c>
       <c r="I158" s="25"/>
       <c r="J158" s="18">
-        <v>8910</v>
+        <v>10854</v>
       </c>
       <c r="K158" s="13">
         <v>1</v>
@@ -16261,22 +16023,22 @@
     </row>
     <row r="159" spans="1:20">
       <c r="A159" s="16" t="s">
-        <v>338</v>
+        <v>434</v>
       </c>
       <c r="B159" s="13"/>
-      <c r="C159" s="13">
-        <v>8910</v>
-      </c>
-      <c r="D159" s="13"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13">
+        <v>10854</v>
+      </c>
       <c r="E159" s="13"/>
       <c r="F159" s="24"/>
-      <c r="G159" s="25">
-        <v>1</v>
-      </c>
-      <c r="H159" s="25"/>
+      <c r="G159" s="25"/>
+      <c r="H159" s="25">
+        <v>1</v>
+      </c>
       <c r="I159" s="25"/>
       <c r="J159" s="18">
-        <v>8910</v>
+        <v>10854</v>
       </c>
       <c r="K159" s="13">
         <v>1</v>
@@ -16292,23 +16054,23 @@
       <c r="T159"/>
     </row>
     <row r="160" spans="1:20">
-      <c r="A160" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B160" s="13">
-        <v>777</v>
-      </c>
+      <c r="A160" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B160" s="13"/>
       <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
+      <c r="D160" s="13">
+        <v>138</v>
+      </c>
       <c r="E160" s="13"/>
-      <c r="F160" s="24">
-        <v>1</v>
-      </c>
+      <c r="F160" s="24"/>
       <c r="G160" s="25"/>
-      <c r="H160" s="25"/>
+      <c r="H160" s="25">
+        <v>1</v>
+      </c>
       <c r="I160" s="25"/>
       <c r="J160" s="18">
-        <v>777</v>
+        <v>138</v>
       </c>
       <c r="K160" s="13">
         <v>1</v>
@@ -16324,23 +16086,23 @@
       <c r="T160"/>
     </row>
     <row r="161" spans="1:20">
-      <c r="A161" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B161" s="13">
-        <v>777</v>
-      </c>
+      <c r="A161" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B161" s="13"/>
       <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
+      <c r="D161" s="13">
+        <v>138</v>
+      </c>
       <c r="E161" s="13"/>
-      <c r="F161" s="24">
-        <v>1</v>
-      </c>
+      <c r="F161" s="24"/>
       <c r="G161" s="25"/>
-      <c r="H161" s="25"/>
+      <c r="H161" s="25">
+        <v>1</v>
+      </c>
       <c r="I161" s="25"/>
       <c r="J161" s="18">
-        <v>777</v>
+        <v>138</v>
       </c>
       <c r="K161" s="13">
         <v>1</v>
@@ -16356,23 +16118,23 @@
       <c r="T161"/>
     </row>
     <row r="162" spans="1:20">
-      <c r="A162" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B162" s="13">
-        <v>777</v>
-      </c>
+      <c r="A162" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B162" s="13"/>
       <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
+      <c r="D162" s="13">
+        <v>7707</v>
+      </c>
       <c r="E162" s="13"/>
-      <c r="F162" s="24">
-        <v>1</v>
-      </c>
+      <c r="F162" s="24"/>
       <c r="G162" s="25"/>
-      <c r="H162" s="25"/>
+      <c r="H162" s="25">
+        <v>1</v>
+      </c>
       <c r="I162" s="25"/>
       <c r="J162" s="18">
-        <v>777</v>
+        <v>7707</v>
       </c>
       <c r="K162" s="13">
         <v>1</v>
@@ -16388,30 +16150,26 @@
       <c r="T162"/>
     </row>
     <row r="163" spans="1:20">
-      <c r="A163" s="7" t="s">
-        <v>238</v>
+      <c r="A163" s="16" t="s">
+        <v>442</v>
       </c>
       <c r="B163" s="13"/>
-      <c r="C163" s="13">
-        <v>2442</v>
-      </c>
+      <c r="C163" s="13"/>
       <c r="D163" s="13">
-        <v>20076</v>
+        <v>7707</v>
       </c>
       <c r="E163" s="13"/>
       <c r="F163" s="24"/>
-      <c r="G163" s="25">
-        <v>1</v>
-      </c>
+      <c r="G163" s="25"/>
       <c r="H163" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" s="25"/>
       <c r="J163" s="18">
-        <v>22518</v>
+        <v>7707</v>
       </c>
       <c r="K163" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L163"/>
       <c r="M163"/>
@@ -16424,12 +16182,12 @@
       <c r="T163"/>
     </row>
     <row r="164" spans="1:20">
-      <c r="A164" s="8" t="s">
-        <v>347</v>
+      <c r="A164" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="B164" s="13"/>
       <c r="C164" s="13">
-        <v>2442</v>
+        <v>3780</v>
       </c>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
@@ -16440,7 +16198,7 @@
       <c r="H164" s="25"/>
       <c r="I164" s="25"/>
       <c r="J164" s="18">
-        <v>2442</v>
+        <v>3780</v>
       </c>
       <c r="K164" s="13">
         <v>1</v>
@@ -16456,12 +16214,12 @@
       <c r="T164"/>
     </row>
     <row r="165" spans="1:20">
-      <c r="A165" s="16" t="s">
-        <v>350</v>
+      <c r="A165" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="B165" s="13"/>
       <c r="C165" s="13">
-        <v>2442</v>
+        <v>3780</v>
       </c>
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
@@ -16472,7 +16230,7 @@
       <c r="H165" s="25"/>
       <c r="I165" s="25"/>
       <c r="J165" s="18">
-        <v>2442</v>
+        <v>3780</v>
       </c>
       <c r="K165" s="13">
         <v>1</v>
@@ -16488,23 +16246,23 @@
       <c r="T165"/>
     </row>
     <row r="166" spans="1:20">
-      <c r="A166" s="8" t="s">
-        <v>351</v>
+      <c r="A166" s="16" t="s">
+        <v>446</v>
       </c>
       <c r="B166" s="13"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13">
-        <v>9951</v>
-      </c>
+      <c r="C166" s="13">
+        <v>3780</v>
+      </c>
+      <c r="D166" s="13"/>
       <c r="E166" s="13"/>
       <c r="F166" s="24"/>
-      <c r="G166" s="25"/>
-      <c r="H166" s="25">
-        <v>1</v>
-      </c>
+      <c r="G166" s="25">
+        <v>1</v>
+      </c>
+      <c r="H166" s="25"/>
       <c r="I166" s="25"/>
       <c r="J166" s="18">
-        <v>9951</v>
+        <v>3780</v>
       </c>
       <c r="K166" s="13">
         <v>1</v>
@@ -16520,27 +16278,19 @@
       <c r="T166"/>
     </row>
     <row r="167" spans="1:20">
-      <c r="A167" s="16" t="s">
-        <v>354</v>
+      <c r="A167" s="17" t="s">
+        <v>454</v>
       </c>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
-      <c r="D167" s="13">
-        <v>9951</v>
-      </c>
+      <c r="D167" s="13"/>
       <c r="E167" s="13"/>
       <c r="F167" s="24"/>
       <c r="G167" s="25"/>
-      <c r="H167" s="25">
-        <v>1</v>
-      </c>
+      <c r="H167" s="25"/>
       <c r="I167" s="25"/>
-      <c r="J167" s="18">
-        <v>9951</v>
-      </c>
-      <c r="K167" s="13">
-        <v>1</v>
-      </c>
+      <c r="J167" s="18"/>
+      <c r="K167" s="13"/>
       <c r="L167"/>
       <c r="M167"/>
       <c r="N167"/>
@@ -16552,27 +16302,19 @@
       <c r="T167"/>
     </row>
     <row r="168" spans="1:20">
-      <c r="A168" s="8" t="s">
-        <v>355</v>
+      <c r="A168" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
-      <c r="D168" s="13">
-        <v>10125</v>
-      </c>
+      <c r="D168" s="13"/>
       <c r="E168" s="13"/>
       <c r="F168" s="24"/>
       <c r="G168" s="25"/>
-      <c r="H168" s="25">
-        <v>1</v>
-      </c>
+      <c r="H168" s="25"/>
       <c r="I168" s="25"/>
-      <c r="J168" s="18">
-        <v>10125</v>
-      </c>
-      <c r="K168" s="13">
-        <v>1</v>
-      </c>
+      <c r="J168" s="18"/>
+      <c r="K168" s="13"/>
       <c r="L168"/>
       <c r="M168"/>
       <c r="N168"/>
@@ -16584,27 +16326,19 @@
       <c r="T168"/>
     </row>
     <row r="169" spans="1:20">
-      <c r="A169" s="16" t="s">
-        <v>358</v>
+      <c r="A169" s="6" t="s">
+        <v>454</v>
       </c>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
-      <c r="D169" s="13">
-        <v>10125</v>
-      </c>
+      <c r="D169" s="13"/>
       <c r="E169" s="13"/>
       <c r="F169" s="24"/>
       <c r="G169" s="25"/>
-      <c r="H169" s="25">
-        <v>1</v>
-      </c>
+      <c r="H169" s="25"/>
       <c r="I169" s="25"/>
-      <c r="J169" s="18">
-        <v>10125</v>
-      </c>
-      <c r="K169" s="13">
-        <v>1</v>
-      </c>
+      <c r="J169" s="18"/>
+      <c r="K169" s="13"/>
       <c r="L169"/>
       <c r="M169"/>
       <c r="N169"/>
@@ -16616,31 +16350,19 @@
       <c r="T169"/>
     </row>
     <row r="170" spans="1:20">
-      <c r="A170" s="17" t="s">
-        <v>124</v>
+      <c r="A170" s="7" t="s">
+        <v>454</v>
       </c>
       <c r="B170" s="13"/>
-      <c r="C170" s="13">
-        <v>18426</v>
-      </c>
-      <c r="D170" s="13">
-        <v>75972</v>
-      </c>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
       <c r="E170" s="13"/>
       <c r="F170" s="24"/>
-      <c r="G170" s="25">
-        <v>4</v>
-      </c>
-      <c r="H170" s="25">
-        <v>12</v>
-      </c>
+      <c r="G170" s="25"/>
+      <c r="H170" s="25"/>
       <c r="I170" s="25"/>
-      <c r="J170" s="18">
-        <v>94398</v>
-      </c>
-      <c r="K170" s="13">
-        <v>16</v>
-      </c>
+      <c r="J170" s="18"/>
+      <c r="K170" s="13"/>
       <c r="L170"/>
       <c r="M170"/>
       <c r="N170"/>
@@ -16652,27 +16374,19 @@
       <c r="T170"/>
     </row>
     <row r="171" spans="1:20">
-      <c r="A171" s="5" t="s">
-        <v>19</v>
+      <c r="A171" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
-      <c r="D171" s="13">
-        <v>21006</v>
-      </c>
+      <c r="D171" s="13"/>
       <c r="E171" s="13"/>
       <c r="F171" s="24"/>
       <c r="G171" s="25"/>
-      <c r="H171" s="25">
-        <v>4</v>
-      </c>
+      <c r="H171" s="25"/>
       <c r="I171" s="25"/>
-      <c r="J171" s="18">
-        <v>21006</v>
-      </c>
-      <c r="K171" s="13">
-        <v>4</v>
-      </c>
+      <c r="J171" s="18"/>
+      <c r="K171" s="13"/>
       <c r="L171"/>
       <c r="M171"/>
       <c r="N171"/>
@@ -16684,27 +16398,19 @@
       <c r="T171"/>
     </row>
     <row r="172" spans="1:20">
-      <c r="A172" s="6" t="s">
-        <v>125</v>
+      <c r="A172" s="16" t="s">
+        <v>454</v>
       </c>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
-      <c r="D172" s="13">
-        <v>21006</v>
-      </c>
+      <c r="D172" s="13"/>
       <c r="E172" s="13"/>
       <c r="F172" s="24"/>
       <c r="G172" s="25"/>
-      <c r="H172" s="25">
-        <v>4</v>
-      </c>
+      <c r="H172" s="25"/>
       <c r="I172" s="25"/>
-      <c r="J172" s="18">
-        <v>21006</v>
-      </c>
-      <c r="K172" s="13">
-        <v>4</v>
-      </c>
+      <c r="J172" s="18"/>
+      <c r="K172" s="13"/>
       <c r="L172"/>
       <c r="M172"/>
       <c r="N172"/>
@@ -16716,26 +16422,34 @@
       <c r="T172"/>
     </row>
     <row r="173" spans="1:20">
-      <c r="A173" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B173" s="13"/>
-      <c r="C173" s="13"/>
+      <c r="A173" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B173" s="13">
+        <v>7338</v>
+      </c>
+      <c r="C173" s="13">
+        <v>172635</v>
+      </c>
       <c r="D173" s="13">
-        <v>17196</v>
+        <v>310950</v>
       </c>
       <c r="E173" s="13"/>
-      <c r="F173" s="24"/>
-      <c r="G173" s="25"/>
+      <c r="F173" s="24">
+        <v>3</v>
+      </c>
+      <c r="G173" s="25">
+        <v>39</v>
+      </c>
       <c r="H173" s="25">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="I173" s="25"/>
       <c r="J173" s="18">
-        <v>17196</v>
+        <v>490923</v>
       </c>
       <c r="K173" s="13">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="L173"/>
       <c r="M173"/>
@@ -16748,27 +16462,16 @@
       <c r="T173"/>
     </row>
     <row r="174" spans="1:20">
-      <c r="A174" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B174" s="13"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13">
-        <v>7116</v>
-      </c>
-      <c r="E174" s="13"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="25"/>
-      <c r="H174" s="25">
-        <v>1</v>
-      </c>
-      <c r="I174" s="25"/>
-      <c r="J174" s="18">
-        <v>7116</v>
-      </c>
-      <c r="K174" s="13">
-        <v>1</v>
-      </c>
+      <c r="B174"/>
+      <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174"/>
+      <c r="G174"/>
+      <c r="H174"/>
+      <c r="I174"/>
+      <c r="J174"/>
+      <c r="K174"/>
       <c r="L174"/>
       <c r="M174"/>
       <c r="N174"/>
@@ -16780,27 +16483,16 @@
       <c r="T174"/>
     </row>
     <row r="175" spans="1:20">
-      <c r="A175" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B175" s="13"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13">
-        <v>7116</v>
-      </c>
-      <c r="E175" s="13"/>
-      <c r="F175" s="24"/>
-      <c r="G175" s="25"/>
-      <c r="H175" s="25">
-        <v>1</v>
-      </c>
-      <c r="I175" s="25"/>
-      <c r="J175" s="18">
-        <v>7116</v>
-      </c>
-      <c r="K175" s="13">
-        <v>1</v>
-      </c>
+      <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
+      <c r="H175"/>
+      <c r="I175"/>
+      <c r="J175"/>
+      <c r="K175"/>
       <c r="L175"/>
       <c r="M175"/>
       <c r="N175"/>
@@ -16812,27 +16504,16 @@
       <c r="T175"/>
     </row>
     <row r="176" spans="1:20">
-      <c r="A176" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B176" s="13"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13">
-        <v>4155</v>
-      </c>
-      <c r="E176" s="13"/>
-      <c r="F176" s="24"/>
-      <c r="G176" s="25"/>
-      <c r="H176" s="25">
-        <v>1</v>
-      </c>
-      <c r="I176" s="25"/>
-      <c r="J176" s="18">
-        <v>4155</v>
-      </c>
-      <c r="K176" s="13">
-        <v>1</v>
-      </c>
+      <c r="B176"/>
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176"/>
+      <c r="G176"/>
+      <c r="H176"/>
+      <c r="I176"/>
+      <c r="J176"/>
+      <c r="K176"/>
       <c r="L176"/>
       <c r="M176"/>
       <c r="N176"/>
@@ -16843,28 +16524,17 @@
       <c r="S176"/>
       <c r="T176"/>
     </row>
-    <row r="177" spans="1:20">
-      <c r="A177" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B177" s="13"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13">
-        <v>4155</v>
-      </c>
-      <c r="E177" s="13"/>
-      <c r="F177" s="24"/>
-      <c r="G177" s="25"/>
-      <c r="H177" s="25">
-        <v>1</v>
-      </c>
-      <c r="I177" s="25"/>
-      <c r="J177" s="18">
-        <v>4155</v>
-      </c>
-      <c r="K177" s="13">
-        <v>1</v>
-      </c>
+    <row r="177" spans="2:20">
+      <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="H177"/>
+      <c r="I177"/>
+      <c r="J177"/>
+      <c r="K177"/>
       <c r="L177"/>
       <c r="M177"/>
       <c r="N177"/>
@@ -16875,28 +16545,17 @@
       <c r="S177"/>
       <c r="T177"/>
     </row>
-    <row r="178" spans="1:20">
-      <c r="A178" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B178" s="13"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13">
-        <v>5925</v>
-      </c>
-      <c r="E178" s="13"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="25"/>
-      <c r="H178" s="25">
-        <v>1</v>
-      </c>
-      <c r="I178" s="25"/>
-      <c r="J178" s="18">
-        <v>5925</v>
-      </c>
-      <c r="K178" s="13">
-        <v>1</v>
-      </c>
+    <row r="178" spans="2:20">
+      <c r="B178"/>
+      <c r="C178"/>
+      <c r="D178"/>
+      <c r="E178"/>
+      <c r="F178"/>
+      <c r="G178"/>
+      <c r="H178"/>
+      <c r="I178"/>
+      <c r="J178"/>
+      <c r="K178"/>
       <c r="L178"/>
       <c r="M178"/>
       <c r="N178"/>
@@ -16907,28 +16566,17 @@
       <c r="S178"/>
       <c r="T178"/>
     </row>
-    <row r="179" spans="1:20">
-      <c r="A179" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B179" s="13"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13">
-        <v>5925</v>
-      </c>
-      <c r="E179" s="13"/>
-      <c r="F179" s="24"/>
-      <c r="G179" s="25"/>
-      <c r="H179" s="25">
-        <v>1</v>
-      </c>
-      <c r="I179" s="25"/>
-      <c r="J179" s="18">
-        <v>5925</v>
-      </c>
-      <c r="K179" s="13">
-        <v>1</v>
-      </c>
+    <row r="179" spans="2:20">
+      <c r="B179"/>
+      <c r="C179"/>
+      <c r="D179"/>
+      <c r="E179"/>
+      <c r="F179"/>
+      <c r="G179"/>
+      <c r="H179"/>
+      <c r="I179"/>
+      <c r="J179"/>
+      <c r="K179"/>
       <c r="L179"/>
       <c r="M179"/>
       <c r="N179"/>
@@ -16939,28 +16587,17 @@
       <c r="S179"/>
       <c r="T179"/>
     </row>
-    <row r="180" spans="1:20">
-      <c r="A180" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B180" s="13"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="13">
-        <v>3810</v>
-      </c>
-      <c r="E180" s="13"/>
-      <c r="F180" s="24"/>
-      <c r="G180" s="25"/>
-      <c r="H180" s="25">
-        <v>1</v>
-      </c>
-      <c r="I180" s="25"/>
-      <c r="J180" s="18">
-        <v>3810</v>
-      </c>
-      <c r="K180" s="13">
-        <v>1</v>
-      </c>
+    <row r="180" spans="2:20">
+      <c r="B180"/>
+      <c r="C180"/>
+      <c r="D180"/>
+      <c r="E180"/>
+      <c r="F180"/>
+      <c r="G180"/>
+      <c r="H180"/>
+      <c r="I180"/>
+      <c r="J180"/>
+      <c r="K180"/>
       <c r="L180"/>
       <c r="M180"/>
       <c r="N180"/>
@@ -16971,28 +16608,17 @@
       <c r="S180"/>
       <c r="T180"/>
     </row>
-    <row r="181" spans="1:20">
-      <c r="A181" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B181" s="13"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13">
-        <v>3810</v>
-      </c>
-      <c r="E181" s="13"/>
-      <c r="F181" s="24"/>
-      <c r="G181" s="25"/>
-      <c r="H181" s="25">
-        <v>1</v>
-      </c>
-      <c r="I181" s="25"/>
-      <c r="J181" s="18">
-        <v>3810</v>
-      </c>
-      <c r="K181" s="13">
-        <v>1</v>
-      </c>
+    <row r="181" spans="2:20">
+      <c r="B181"/>
+      <c r="C181"/>
+      <c r="D181"/>
+      <c r="E181"/>
+      <c r="F181"/>
+      <c r="G181"/>
+      <c r="H181"/>
+      <c r="I181"/>
+      <c r="J181"/>
+      <c r="K181"/>
       <c r="L181"/>
       <c r="M181"/>
       <c r="N181"/>
@@ -17003,28 +16629,17 @@
       <c r="S181"/>
       <c r="T181"/>
     </row>
-    <row r="182" spans="1:20">
-      <c r="A182" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B182" s="13"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="13">
-        <v>3810</v>
-      </c>
-      <c r="E182" s="13"/>
-      <c r="F182" s="24"/>
-      <c r="G182" s="25"/>
-      <c r="H182" s="25">
-        <v>1</v>
-      </c>
-      <c r="I182" s="25"/>
-      <c r="J182" s="18">
-        <v>3810</v>
-      </c>
-      <c r="K182" s="13">
-        <v>1</v>
-      </c>
+    <row r="182" spans="2:20">
+      <c r="B182"/>
+      <c r="C182"/>
+      <c r="D182"/>
+      <c r="E182"/>
+      <c r="F182"/>
+      <c r="G182"/>
+      <c r="H182"/>
+      <c r="I182"/>
+      <c r="J182"/>
+      <c r="K182"/>
       <c r="L182"/>
       <c r="M182"/>
       <c r="N182"/>
@@ -17035,32 +16650,17 @@
       <c r="S182"/>
       <c r="T182"/>
     </row>
-    <row r="183" spans="1:20">
-      <c r="A183" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B183" s="13"/>
-      <c r="C183" s="13">
-        <v>18426</v>
-      </c>
-      <c r="D183" s="13">
-        <v>54966</v>
-      </c>
-      <c r="E183" s="13"/>
-      <c r="F183" s="24"/>
-      <c r="G183" s="25">
-        <v>4</v>
-      </c>
-      <c r="H183" s="25">
-        <v>8</v>
-      </c>
-      <c r="I183" s="25"/>
-      <c r="J183" s="18">
-        <v>73392</v>
-      </c>
-      <c r="K183" s="13">
-        <v>12</v>
-      </c>
+    <row r="183" spans="2:20">
+      <c r="B183"/>
+      <c r="C183"/>
+      <c r="D183"/>
+      <c r="E183"/>
+      <c r="F183"/>
+      <c r="G183"/>
+      <c r="H183"/>
+      <c r="I183"/>
+      <c r="J183"/>
+      <c r="K183"/>
       <c r="L183"/>
       <c r="M183"/>
       <c r="N183"/>
@@ -17071,32 +16671,17 @@
       <c r="S183"/>
       <c r="T183"/>
     </row>
-    <row r="184" spans="1:20">
-      <c r="A184" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="B184" s="13"/>
-      <c r="C184" s="13">
-        <v>18426</v>
-      </c>
-      <c r="D184" s="13">
-        <v>54966</v>
-      </c>
-      <c r="E184" s="13"/>
-      <c r="F184" s="24"/>
-      <c r="G184" s="25">
-        <v>4</v>
-      </c>
-      <c r="H184" s="25">
-        <v>8</v>
-      </c>
-      <c r="I184" s="25"/>
-      <c r="J184" s="18">
-        <v>73392</v>
-      </c>
-      <c r="K184" s="13">
-        <v>12</v>
-      </c>
+    <row r="184" spans="2:20">
+      <c r="B184"/>
+      <c r="C184"/>
+      <c r="D184"/>
+      <c r="E184"/>
+      <c r="F184"/>
+      <c r="G184"/>
+      <c r="H184"/>
+      <c r="I184"/>
+      <c r="J184"/>
+      <c r="K184"/>
       <c r="L184"/>
       <c r="M184"/>
       <c r="N184"/>
@@ -17107,32 +16692,17 @@
       <c r="S184"/>
       <c r="T184"/>
     </row>
-    <row r="185" spans="1:20">
-      <c r="A185" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B185" s="13"/>
-      <c r="C185" s="13">
-        <v>9552</v>
-      </c>
-      <c r="D185" s="13">
-        <v>33306</v>
-      </c>
-      <c r="E185" s="13"/>
-      <c r="F185" s="24"/>
-      <c r="G185" s="25">
-        <v>2</v>
-      </c>
-      <c r="H185" s="25">
-        <v>7</v>
-      </c>
-      <c r="I185" s="25"/>
-      <c r="J185" s="18">
-        <v>42858</v>
-      </c>
-      <c r="K185" s="13">
-        <v>9</v>
-      </c>
+    <row r="185" spans="2:20">
+      <c r="B185"/>
+      <c r="C185"/>
+      <c r="D185"/>
+      <c r="E185"/>
+      <c r="F185"/>
+      <c r="G185"/>
+      <c r="H185"/>
+      <c r="I185"/>
+      <c r="J185"/>
+      <c r="K185"/>
       <c r="L185"/>
       <c r="M185"/>
       <c r="N185"/>
@@ -17143,28 +16713,17 @@
       <c r="S185"/>
       <c r="T185"/>
     </row>
-    <row r="186" spans="1:20">
-      <c r="A186" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B186" s="13"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="13">
-        <v>7830</v>
-      </c>
-      <c r="E186" s="13"/>
-      <c r="F186" s="24"/>
-      <c r="G186" s="25"/>
-      <c r="H186" s="25">
-        <v>1</v>
-      </c>
-      <c r="I186" s="25"/>
-      <c r="J186" s="18">
-        <v>7830</v>
-      </c>
-      <c r="K186" s="13">
-        <v>1</v>
-      </c>
+    <row r="186" spans="2:20">
+      <c r="B186"/>
+      <c r="C186"/>
+      <c r="D186"/>
+      <c r="E186"/>
+      <c r="F186"/>
+      <c r="G186"/>
+      <c r="H186"/>
+      <c r="I186"/>
+      <c r="J186"/>
+      <c r="K186"/>
       <c r="L186"/>
       <c r="M186"/>
       <c r="N186"/>
@@ -17175,28 +16734,17 @@
       <c r="S186"/>
       <c r="T186"/>
     </row>
-    <row r="187" spans="1:20">
-      <c r="A187" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="B187" s="13"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="13">
-        <v>7830</v>
-      </c>
-      <c r="E187" s="13"/>
-      <c r="F187" s="24"/>
-      <c r="G187" s="25"/>
-      <c r="H187" s="25">
-        <v>1</v>
-      </c>
-      <c r="I187" s="25"/>
-      <c r="J187" s="18">
-        <v>7830</v>
-      </c>
-      <c r="K187" s="13">
-        <v>1</v>
-      </c>
+    <row r="187" spans="2:20">
+      <c r="B187"/>
+      <c r="C187"/>
+      <c r="D187"/>
+      <c r="E187"/>
+      <c r="F187"/>
+      <c r="G187"/>
+      <c r="H187"/>
+      <c r="I187"/>
+      <c r="J187"/>
+      <c r="K187"/>
       <c r="L187"/>
       <c r="M187"/>
       <c r="N187"/>
@@ -17207,28 +16755,17 @@
       <c r="S187"/>
       <c r="T187"/>
     </row>
-    <row r="188" spans="1:20">
-      <c r="A188" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B188" s="13"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="13">
-        <v>1521</v>
-      </c>
-      <c r="E188" s="13"/>
-      <c r="F188" s="24"/>
-      <c r="G188" s="25"/>
-      <c r="H188" s="25">
-        <v>1</v>
-      </c>
-      <c r="I188" s="25"/>
-      <c r="J188" s="18">
-        <v>1521</v>
-      </c>
-      <c r="K188" s="13">
-        <v>1</v>
-      </c>
+    <row r="188" spans="2:20">
+      <c r="B188"/>
+      <c r="C188"/>
+      <c r="D188"/>
+      <c r="E188"/>
+      <c r="F188"/>
+      <c r="G188"/>
+      <c r="H188"/>
+      <c r="I188"/>
+      <c r="J188"/>
+      <c r="K188"/>
       <c r="L188"/>
       <c r="M188"/>
       <c r="N188"/>
@@ -17239,28 +16776,17 @@
       <c r="S188"/>
       <c r="T188"/>
     </row>
-    <row r="189" spans="1:20">
-      <c r="A189" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="B189" s="13"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="13">
-        <v>1521</v>
-      </c>
-      <c r="E189" s="13"/>
-      <c r="F189" s="24"/>
-      <c r="G189" s="25"/>
-      <c r="H189" s="25">
-        <v>1</v>
-      </c>
-      <c r="I189" s="25"/>
-      <c r="J189" s="18">
-        <v>1521</v>
-      </c>
-      <c r="K189" s="13">
-        <v>1</v>
-      </c>
+    <row r="189" spans="2:20">
+      <c r="B189"/>
+      <c r="C189"/>
+      <c r="D189"/>
+      <c r="E189"/>
+      <c r="F189"/>
+      <c r="G189"/>
+      <c r="H189"/>
+      <c r="I189"/>
+      <c r="J189"/>
+      <c r="K189"/>
       <c r="L189"/>
       <c r="M189"/>
       <c r="N189"/>
@@ -17271,28 +16797,17 @@
       <c r="S189"/>
       <c r="T189"/>
     </row>
-    <row r="190" spans="1:20">
-      <c r="A190" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B190" s="13"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="13">
-        <v>3900</v>
-      </c>
-      <c r="E190" s="13"/>
-      <c r="F190" s="24"/>
-      <c r="G190" s="25"/>
-      <c r="H190" s="25">
-        <v>1</v>
-      </c>
-      <c r="I190" s="25"/>
-      <c r="J190" s="18">
-        <v>3900</v>
-      </c>
-      <c r="K190" s="13">
-        <v>1</v>
-      </c>
+    <row r="190" spans="2:20">
+      <c r="B190"/>
+      <c r="C190"/>
+      <c r="D190"/>
+      <c r="E190"/>
+      <c r="F190"/>
+      <c r="G190"/>
+      <c r="H190"/>
+      <c r="I190"/>
+      <c r="J190"/>
+      <c r="K190"/>
       <c r="L190"/>
       <c r="M190"/>
       <c r="N190"/>
@@ -17303,28 +16818,17 @@
       <c r="S190"/>
       <c r="T190"/>
     </row>
-    <row r="191" spans="1:20">
-      <c r="A191" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="B191" s="13"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="13">
-        <v>3900</v>
-      </c>
-      <c r="E191" s="13"/>
-      <c r="F191" s="24"/>
-      <c r="G191" s="25"/>
-      <c r="H191" s="25">
-        <v>1</v>
-      </c>
-      <c r="I191" s="25"/>
-      <c r="J191" s="18">
-        <v>3900</v>
-      </c>
-      <c r="K191" s="13">
-        <v>1</v>
-      </c>
+    <row r="191" spans="2:20">
+      <c r="B191"/>
+      <c r="C191"/>
+      <c r="D191"/>
+      <c r="E191"/>
+      <c r="F191"/>
+      <c r="G191"/>
+      <c r="H191"/>
+      <c r="I191"/>
+      <c r="J191"/>
+      <c r="K191"/>
       <c r="L191"/>
       <c r="M191"/>
       <c r="N191"/>
@@ -17335,28 +16839,17 @@
       <c r="S191"/>
       <c r="T191"/>
     </row>
-    <row r="192" spans="1:20">
-      <c r="A192" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B192" s="13"/>
-      <c r="C192" s="13">
-        <v>5205</v>
-      </c>
-      <c r="D192" s="13"/>
-      <c r="E192" s="13"/>
-      <c r="F192" s="24"/>
-      <c r="G192" s="25">
-        <v>1</v>
-      </c>
-      <c r="H192" s="25"/>
-      <c r="I192" s="25"/>
-      <c r="J192" s="18">
-        <v>5205</v>
-      </c>
-      <c r="K192" s="13">
-        <v>1</v>
-      </c>
+    <row r="192" spans="2:20">
+      <c r="B192"/>
+      <c r="C192"/>
+      <c r="D192"/>
+      <c r="E192"/>
+      <c r="F192"/>
+      <c r="G192"/>
+      <c r="H192"/>
+      <c r="I192"/>
+      <c r="J192"/>
+      <c r="K192"/>
       <c r="L192"/>
       <c r="M192"/>
       <c r="N192"/>
@@ -17367,28 +16860,17 @@
       <c r="S192"/>
       <c r="T192"/>
     </row>
-    <row r="193" spans="1:20">
-      <c r="A193" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="B193" s="13"/>
-      <c r="C193" s="13">
-        <v>5205</v>
-      </c>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="24"/>
-      <c r="G193" s="25">
-        <v>1</v>
-      </c>
-      <c r="H193" s="25"/>
-      <c r="I193" s="25"/>
-      <c r="J193" s="18">
-        <v>5205</v>
-      </c>
-      <c r="K193" s="13">
-        <v>1</v>
-      </c>
+    <row r="193" spans="2:20">
+      <c r="B193"/>
+      <c r="C193"/>
+      <c r="D193"/>
+      <c r="E193"/>
+      <c r="F193"/>
+      <c r="G193"/>
+      <c r="H193"/>
+      <c r="I193"/>
+      <c r="J193"/>
+      <c r="K193"/>
       <c r="L193"/>
       <c r="M193"/>
       <c r="N193"/>
@@ -17399,28 +16881,17 @@
       <c r="S193"/>
       <c r="T193"/>
     </row>
-    <row r="194" spans="1:20">
-      <c r="A194" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="B194" s="13"/>
-      <c r="C194" s="13"/>
-      <c r="D194" s="13">
-        <v>7902</v>
-      </c>
-      <c r="E194" s="13"/>
-      <c r="F194" s="24"/>
-      <c r="G194" s="25"/>
-      <c r="H194" s="25">
-        <v>1</v>
-      </c>
-      <c r="I194" s="25"/>
-      <c r="J194" s="18">
-        <v>7902</v>
-      </c>
-      <c r="K194" s="13">
-        <v>1</v>
-      </c>
+    <row r="194" spans="2:20">
+      <c r="B194"/>
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194"/>
+      <c r="G194"/>
+      <c r="H194"/>
+      <c r="I194"/>
+      <c r="J194"/>
+      <c r="K194"/>
       <c r="L194"/>
       <c r="M194"/>
       <c r="N194"/>
@@ -17431,28 +16902,17 @@
       <c r="S194"/>
       <c r="T194"/>
     </row>
-    <row r="195" spans="1:20">
-      <c r="A195" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="B195" s="13"/>
-      <c r="C195" s="13"/>
-      <c r="D195" s="13">
-        <v>7902</v>
-      </c>
-      <c r="E195" s="13"/>
-      <c r="F195" s="24"/>
-      <c r="G195" s="25"/>
-      <c r="H195" s="25">
-        <v>1</v>
-      </c>
-      <c r="I195" s="25"/>
-      <c r="J195" s="18">
-        <v>7902</v>
-      </c>
-      <c r="K195" s="13">
-        <v>1</v>
-      </c>
+    <row r="195" spans="2:20">
+      <c r="B195"/>
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195"/>
+      <c r="F195"/>
+      <c r="G195"/>
+      <c r="H195"/>
+      <c r="I195"/>
+      <c r="J195"/>
+      <c r="K195"/>
       <c r="L195"/>
       <c r="M195"/>
       <c r="N195"/>
@@ -17463,28 +16923,17 @@
       <c r="S195"/>
       <c r="T195"/>
     </row>
-    <row r="196" spans="1:20">
-      <c r="A196" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="B196" s="13"/>
-      <c r="C196" s="13"/>
-      <c r="D196" s="13">
-        <v>1578</v>
-      </c>
-      <c r="E196" s="13"/>
-      <c r="F196" s="24"/>
-      <c r="G196" s="25"/>
-      <c r="H196" s="25">
-        <v>1</v>
-      </c>
-      <c r="I196" s="25"/>
-      <c r="J196" s="18">
-        <v>1578</v>
-      </c>
-      <c r="K196" s="13">
-        <v>1</v>
-      </c>
+    <row r="196" spans="2:20">
+      <c r="B196"/>
+      <c r="C196"/>
+      <c r="D196"/>
+      <c r="E196"/>
+      <c r="F196"/>
+      <c r="G196"/>
+      <c r="H196"/>
+      <c r="I196"/>
+      <c r="J196"/>
+      <c r="K196"/>
       <c r="L196"/>
       <c r="M196"/>
       <c r="N196"/>
@@ -17495,28 +16944,17 @@
       <c r="S196"/>
       <c r="T196"/>
     </row>
-    <row r="197" spans="1:20">
-      <c r="A197" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="B197" s="13"/>
-      <c r="C197" s="13"/>
-      <c r="D197" s="13">
-        <v>1578</v>
-      </c>
-      <c r="E197" s="13"/>
-      <c r="F197" s="24"/>
-      <c r="G197" s="25"/>
-      <c r="H197" s="25">
-        <v>1</v>
-      </c>
-      <c r="I197" s="25"/>
-      <c r="J197" s="18">
-        <v>1578</v>
-      </c>
-      <c r="K197" s="13">
-        <v>1</v>
-      </c>
+    <row r="197" spans="2:20">
+      <c r="B197"/>
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197"/>
+      <c r="I197"/>
+      <c r="J197"/>
+      <c r="K197"/>
       <c r="L197"/>
       <c r="M197"/>
       <c r="N197"/>
@@ -17527,28 +16965,17 @@
       <c r="S197"/>
       <c r="T197"/>
     </row>
-    <row r="198" spans="1:20">
-      <c r="A198" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B198" s="13"/>
-      <c r="C198" s="13"/>
-      <c r="D198" s="13">
-        <v>3177</v>
-      </c>
-      <c r="E198" s="13"/>
-      <c r="F198" s="24"/>
-      <c r="G198" s="25"/>
-      <c r="H198" s="25">
-        <v>1</v>
-      </c>
-      <c r="I198" s="25"/>
-      <c r="J198" s="18">
-        <v>3177</v>
-      </c>
-      <c r="K198" s="13">
-        <v>1</v>
-      </c>
+    <row r="198" spans="2:20">
+      <c r="B198"/>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198"/>
+      <c r="H198"/>
+      <c r="I198"/>
+      <c r="J198"/>
+      <c r="K198"/>
       <c r="L198"/>
       <c r="M198"/>
       <c r="N198"/>
@@ -17559,28 +16986,17 @@
       <c r="S198"/>
       <c r="T198"/>
     </row>
-    <row r="199" spans="1:20">
-      <c r="A199" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="B199" s="13"/>
-      <c r="C199" s="13"/>
-      <c r="D199" s="13">
-        <v>3177</v>
-      </c>
-      <c r="E199" s="13"/>
-      <c r="F199" s="24"/>
-      <c r="G199" s="25"/>
-      <c r="H199" s="25">
-        <v>1</v>
-      </c>
-      <c r="I199" s="25"/>
-      <c r="J199" s="18">
-        <v>3177</v>
-      </c>
-      <c r="K199" s="13">
-        <v>1</v>
-      </c>
+    <row r="199" spans="2:20">
+      <c r="B199"/>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="I199"/>
+      <c r="J199"/>
+      <c r="K199"/>
       <c r="L199"/>
       <c r="M199"/>
       <c r="N199"/>
@@ -17591,28 +17007,17 @@
       <c r="S199"/>
       <c r="T199"/>
     </row>
-    <row r="200" spans="1:20">
-      <c r="A200" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B200" s="13"/>
-      <c r="C200" s="13">
-        <v>4347</v>
-      </c>
-      <c r="D200" s="13"/>
-      <c r="E200" s="13"/>
-      <c r="F200" s="24"/>
-      <c r="G200" s="25">
-        <v>1</v>
-      </c>
-      <c r="H200" s="25"/>
-      <c r="I200" s="25"/>
-      <c r="J200" s="18">
-        <v>4347</v>
-      </c>
-      <c r="K200" s="13">
-        <v>1</v>
-      </c>
+    <row r="200" spans="2:20">
+      <c r="B200"/>
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200"/>
+      <c r="G200"/>
+      <c r="H200"/>
+      <c r="I200"/>
+      <c r="J200"/>
+      <c r="K200"/>
       <c r="L200"/>
       <c r="M200"/>
       <c r="N200"/>
@@ -17623,28 +17028,17 @@
       <c r="S200"/>
       <c r="T200"/>
     </row>
-    <row r="201" spans="1:20">
-      <c r="A201" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="B201" s="13"/>
-      <c r="C201" s="13">
-        <v>4347</v>
-      </c>
-      <c r="D201" s="13"/>
-      <c r="E201" s="13"/>
-      <c r="F201" s="24"/>
-      <c r="G201" s="25">
-        <v>1</v>
-      </c>
-      <c r="H201" s="25"/>
-      <c r="I201" s="25"/>
-      <c r="J201" s="18">
-        <v>4347</v>
-      </c>
-      <c r="K201" s="13">
-        <v>1</v>
-      </c>
+    <row r="201" spans="2:20">
+      <c r="B201"/>
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201"/>
+      <c r="G201"/>
+      <c r="H201"/>
+      <c r="I201"/>
+      <c r="J201"/>
+      <c r="K201"/>
       <c r="L201"/>
       <c r="M201"/>
       <c r="N201"/>
@@ -17655,28 +17049,17 @@
       <c r="S201"/>
       <c r="T201"/>
     </row>
-    <row r="202" spans="1:20">
-      <c r="A202" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B202" s="13"/>
-      <c r="C202" s="13"/>
-      <c r="D202" s="13">
-        <v>7398</v>
-      </c>
-      <c r="E202" s="13"/>
-      <c r="F202" s="24"/>
-      <c r="G202" s="25"/>
-      <c r="H202" s="25">
-        <v>1</v>
-      </c>
-      <c r="I202" s="25"/>
-      <c r="J202" s="18">
-        <v>7398</v>
-      </c>
-      <c r="K202" s="13">
-        <v>1</v>
-      </c>
+    <row r="202" spans="2:20">
+      <c r="B202"/>
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202"/>
+      <c r="H202"/>
+      <c r="I202"/>
+      <c r="J202"/>
+      <c r="K202"/>
       <c r="L202"/>
       <c r="M202"/>
       <c r="N202"/>
@@ -17687,28 +17070,17 @@
       <c r="S202"/>
       <c r="T202"/>
     </row>
-    <row r="203" spans="1:20">
-      <c r="A203" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="B203" s="13"/>
-      <c r="C203" s="13"/>
-      <c r="D203" s="13">
-        <v>7398</v>
-      </c>
-      <c r="E203" s="13"/>
-      <c r="F203" s="24"/>
-      <c r="G203" s="25"/>
-      <c r="H203" s="25">
-        <v>1</v>
-      </c>
-      <c r="I203" s="25"/>
-      <c r="J203" s="18">
-        <v>7398</v>
-      </c>
-      <c r="K203" s="13">
-        <v>1</v>
-      </c>
+    <row r="203" spans="2:20">
+      <c r="B203"/>
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+      <c r="F203"/>
+      <c r="G203"/>
+      <c r="H203"/>
+      <c r="I203"/>
+      <c r="J203"/>
+      <c r="K203"/>
       <c r="L203"/>
       <c r="M203"/>
       <c r="N203"/>
@@ -17719,32 +17091,17 @@
       <c r="S203"/>
       <c r="T203"/>
     </row>
-    <row r="204" spans="1:20">
-      <c r="A204" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B204" s="13"/>
-      <c r="C204" s="13">
-        <v>8874</v>
-      </c>
-      <c r="D204" s="13">
-        <v>21660</v>
-      </c>
-      <c r="E204" s="13"/>
-      <c r="F204" s="24"/>
-      <c r="G204" s="25">
-        <v>2</v>
-      </c>
-      <c r="H204" s="25">
-        <v>1</v>
-      </c>
-      <c r="I204" s="25"/>
-      <c r="J204" s="18">
-        <v>30534</v>
-      </c>
-      <c r="K204" s="13">
-        <v>3</v>
-      </c>
+    <row r="204" spans="2:20">
+      <c r="B204"/>
+      <c r="C204"/>
+      <c r="D204"/>
+      <c r="E204"/>
+      <c r="F204"/>
+      <c r="G204"/>
+      <c r="H204"/>
+      <c r="I204"/>
+      <c r="J204"/>
+      <c r="K204"/>
       <c r="L204"/>
       <c r="M204"/>
       <c r="N204"/>
@@ -17755,32 +17112,17 @@
       <c r="S204"/>
       <c r="T204"/>
     </row>
-    <row r="205" spans="1:20">
-      <c r="A205" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B205" s="13"/>
-      <c r="C205" s="13">
-        <v>3789</v>
-      </c>
-      <c r="D205" s="13">
-        <v>21660</v>
-      </c>
-      <c r="E205" s="13"/>
-      <c r="F205" s="24"/>
-      <c r="G205" s="25">
-        <v>1</v>
-      </c>
-      <c r="H205" s="25">
-        <v>1</v>
-      </c>
-      <c r="I205" s="25"/>
-      <c r="J205" s="18">
-        <v>25449</v>
-      </c>
-      <c r="K205" s="13">
-        <v>2</v>
-      </c>
+    <row r="205" spans="2:20">
+      <c r="B205"/>
+      <c r="C205"/>
+      <c r="D205"/>
+      <c r="E205"/>
+      <c r="F205"/>
+      <c r="G205"/>
+      <c r="H205"/>
+      <c r="I205"/>
+      <c r="J205"/>
+      <c r="K205"/>
       <c r="L205"/>
       <c r="M205"/>
       <c r="N205"/>
@@ -17791,28 +17133,17 @@
       <c r="S205"/>
       <c r="T205"/>
     </row>
-    <row r="206" spans="1:20">
-      <c r="A206" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="B206" s="13"/>
-      <c r="C206" s="13">
-        <v>3789</v>
-      </c>
-      <c r="D206" s="13"/>
-      <c r="E206" s="13"/>
-      <c r="F206" s="24"/>
-      <c r="G206" s="25">
-        <v>1</v>
-      </c>
-      <c r="H206" s="25"/>
-      <c r="I206" s="25"/>
-      <c r="J206" s="18">
-        <v>3789</v>
-      </c>
-      <c r="K206" s="13">
-        <v>1</v>
-      </c>
+    <row r="206" spans="2:20">
+      <c r="B206"/>
+      <c r="C206"/>
+      <c r="D206"/>
+      <c r="E206"/>
+      <c r="F206"/>
+      <c r="G206"/>
+      <c r="H206"/>
+      <c r="I206"/>
+      <c r="J206"/>
+      <c r="K206"/>
       <c r="L206"/>
       <c r="M206"/>
       <c r="N206"/>
@@ -17823,28 +17154,17 @@
       <c r="S206"/>
       <c r="T206"/>
     </row>
-    <row r="207" spans="1:20">
-      <c r="A207" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="B207" s="13"/>
-      <c r="C207" s="13"/>
-      <c r="D207" s="13">
-        <v>21660</v>
-      </c>
-      <c r="E207" s="13"/>
-      <c r="F207" s="24"/>
-      <c r="G207" s="25"/>
-      <c r="H207" s="25">
-        <v>1</v>
-      </c>
-      <c r="I207" s="25"/>
-      <c r="J207" s="18">
-        <v>21660</v>
-      </c>
-      <c r="K207" s="13">
-        <v>1</v>
-      </c>
+    <row r="207" spans="2:20">
+      <c r="B207"/>
+      <c r="C207"/>
+      <c r="D207"/>
+      <c r="E207"/>
+      <c r="F207"/>
+      <c r="G207"/>
+      <c r="H207"/>
+      <c r="I207"/>
+      <c r="J207"/>
+      <c r="K207"/>
       <c r="L207"/>
       <c r="M207"/>
       <c r="N207"/>
@@ -17855,28 +17175,17 @@
       <c r="S207"/>
       <c r="T207"/>
     </row>
-    <row r="208" spans="1:20">
-      <c r="A208" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="B208" s="13"/>
-      <c r="C208" s="13">
-        <v>5085</v>
-      </c>
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
-      <c r="F208" s="24"/>
-      <c r="G208" s="25">
-        <v>1</v>
-      </c>
-      <c r="H208" s="25"/>
-      <c r="I208" s="25"/>
-      <c r="J208" s="18">
-        <v>5085</v>
-      </c>
-      <c r="K208" s="13">
-        <v>1</v>
-      </c>
+    <row r="208" spans="2:20">
+      <c r="B208"/>
+      <c r="C208"/>
+      <c r="D208"/>
+      <c r="E208"/>
+      <c r="F208"/>
+      <c r="G208"/>
+      <c r="H208"/>
+      <c r="I208"/>
+      <c r="J208"/>
+      <c r="K208"/>
       <c r="L208"/>
       <c r="M208"/>
       <c r="N208"/>
@@ -17887,28 +17196,17 @@
       <c r="S208"/>
       <c r="T208"/>
     </row>
-    <row r="209" spans="1:20">
-      <c r="A209" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="B209" s="13"/>
-      <c r="C209" s="13">
-        <v>5085</v>
-      </c>
-      <c r="D209" s="13"/>
-      <c r="E209" s="13"/>
-      <c r="F209" s="24"/>
-      <c r="G209" s="25">
-        <v>1</v>
-      </c>
-      <c r="H209" s="25"/>
-      <c r="I209" s="25"/>
-      <c r="J209" s="18">
-        <v>5085</v>
-      </c>
-      <c r="K209" s="13">
-        <v>1</v>
-      </c>
+    <row r="209" spans="2:20">
+      <c r="B209"/>
+      <c r="C209"/>
+      <c r="D209"/>
+      <c r="E209"/>
+      <c r="F209"/>
+      <c r="G209"/>
+      <c r="H209"/>
+      <c r="I209"/>
+      <c r="J209"/>
+      <c r="K209"/>
       <c r="L209"/>
       <c r="M209"/>
       <c r="N209"/>
@@ -17919,36 +17217,17 @@
       <c r="S209"/>
       <c r="T209"/>
     </row>
-    <row r="210" spans="1:20">
-      <c r="A210" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B210" s="13">
-        <v>4047</v>
-      </c>
-      <c r="C210" s="13">
-        <v>10098</v>
-      </c>
-      <c r="D210" s="13">
-        <v>48333</v>
-      </c>
-      <c r="E210" s="13"/>
-      <c r="F210" s="24">
-        <v>1</v>
-      </c>
-      <c r="G210" s="25">
-        <v>4</v>
-      </c>
-      <c r="H210" s="25">
-        <v>11</v>
-      </c>
-      <c r="I210" s="25"/>
-      <c r="J210" s="18">
-        <v>62478</v>
-      </c>
-      <c r="K210" s="13">
-        <v>16</v>
-      </c>
+    <row r="210" spans="2:20">
+      <c r="B210"/>
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+      <c r="F210"/>
+      <c r="G210"/>
+      <c r="H210"/>
+      <c r="I210"/>
+      <c r="J210"/>
+      <c r="K210"/>
       <c r="L210"/>
       <c r="M210"/>
       <c r="N210"/>
@@ -17959,32 +17238,17 @@
       <c r="S210"/>
       <c r="T210"/>
     </row>
-    <row r="211" spans="1:20">
-      <c r="A211" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B211" s="13">
-        <v>4047</v>
-      </c>
-      <c r="C211" s="13"/>
-      <c r="D211" s="13">
-        <v>21378</v>
-      </c>
-      <c r="E211" s="13"/>
-      <c r="F211" s="24">
-        <v>1</v>
-      </c>
-      <c r="G211" s="25"/>
-      <c r="H211" s="25">
-        <v>6</v>
-      </c>
-      <c r="I211" s="25"/>
-      <c r="J211" s="18">
-        <v>25425</v>
-      </c>
-      <c r="K211" s="13">
-        <v>7</v>
-      </c>
+    <row r="211" spans="2:20">
+      <c r="B211"/>
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211"/>
+      <c r="G211"/>
+      <c r="H211"/>
+      <c r="I211"/>
+      <c r="J211"/>
+      <c r="K211"/>
       <c r="L211"/>
       <c r="M211"/>
       <c r="N211"/>
@@ -17995,32 +17259,17 @@
       <c r="S211"/>
       <c r="T211"/>
     </row>
-    <row r="212" spans="1:20">
-      <c r="A212" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B212" s="13">
-        <v>4047</v>
-      </c>
-      <c r="C212" s="13"/>
-      <c r="D212" s="13">
-        <v>21378</v>
-      </c>
-      <c r="E212" s="13"/>
-      <c r="F212" s="24">
-        <v>1</v>
-      </c>
-      <c r="G212" s="25"/>
-      <c r="H212" s="25">
-        <v>6</v>
-      </c>
-      <c r="I212" s="25"/>
-      <c r="J212" s="18">
-        <v>25425</v>
-      </c>
-      <c r="K212" s="13">
-        <v>7</v>
-      </c>
+    <row r="212" spans="2:20">
+      <c r="B212"/>
+      <c r="C212"/>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212"/>
+      <c r="G212"/>
+      <c r="H212"/>
+      <c r="I212"/>
+      <c r="J212"/>
+      <c r="K212"/>
       <c r="L212"/>
       <c r="M212"/>
       <c r="N212"/>
@@ -18031,32 +17280,17 @@
       <c r="S212"/>
       <c r="T212"/>
     </row>
-    <row r="213" spans="1:20">
-      <c r="A213" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B213" s="13">
-        <v>4047</v>
-      </c>
-      <c r="C213" s="13"/>
-      <c r="D213" s="13">
-        <v>21378</v>
-      </c>
-      <c r="E213" s="13"/>
-      <c r="F213" s="24">
-        <v>1</v>
-      </c>
-      <c r="G213" s="25"/>
-      <c r="H213" s="25">
-        <v>6</v>
-      </c>
-      <c r="I213" s="25"/>
-      <c r="J213" s="18">
-        <v>25425</v>
-      </c>
-      <c r="K213" s="13">
-        <v>7</v>
-      </c>
+    <row r="213" spans="2:20">
+      <c r="B213"/>
+      <c r="C213"/>
+      <c r="D213"/>
+      <c r="E213"/>
+      <c r="F213"/>
+      <c r="G213"/>
+      <c r="H213"/>
+      <c r="I213"/>
+      <c r="J213"/>
+      <c r="K213"/>
       <c r="L213"/>
       <c r="M213"/>
       <c r="N213"/>
@@ -18067,28 +17301,17 @@
       <c r="S213"/>
       <c r="T213"/>
     </row>
-    <row r="214" spans="1:20">
-      <c r="A214" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B214" s="13"/>
-      <c r="C214" s="13"/>
-      <c r="D214" s="13">
-        <v>1584</v>
-      </c>
-      <c r="E214" s="13"/>
-      <c r="F214" s="24"/>
-      <c r="G214" s="25"/>
-      <c r="H214" s="25">
-        <v>1</v>
-      </c>
-      <c r="I214" s="25"/>
-      <c r="J214" s="18">
-        <v>1584</v>
-      </c>
-      <c r="K214" s="13">
-        <v>1</v>
-      </c>
+    <row r="214" spans="2:20">
+      <c r="B214"/>
+      <c r="C214"/>
+      <c r="D214"/>
+      <c r="E214"/>
+      <c r="F214"/>
+      <c r="G214"/>
+      <c r="H214"/>
+      <c r="I214"/>
+      <c r="J214"/>
+      <c r="K214"/>
       <c r="L214"/>
       <c r="M214"/>
       <c r="N214"/>
@@ -18099,28 +17322,17 @@
       <c r="S214"/>
       <c r="T214"/>
     </row>
-    <row r="215" spans="1:20">
-      <c r="A215" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B215" s="13"/>
-      <c r="C215" s="13"/>
-      <c r="D215" s="13">
-        <v>1584</v>
-      </c>
-      <c r="E215" s="13"/>
-      <c r="F215" s="24"/>
-      <c r="G215" s="25"/>
-      <c r="H215" s="25">
-        <v>1</v>
-      </c>
-      <c r="I215" s="25"/>
-      <c r="J215" s="18">
-        <v>1584</v>
-      </c>
-      <c r="K215" s="13">
-        <v>1</v>
-      </c>
+    <row r="215" spans="2:20">
+      <c r="B215"/>
+      <c r="C215"/>
+      <c r="D215"/>
+      <c r="E215"/>
+      <c r="F215"/>
+      <c r="G215"/>
+      <c r="H215"/>
+      <c r="I215"/>
+      <c r="J215"/>
+      <c r="K215"/>
       <c r="L215"/>
       <c r="M215"/>
       <c r="N215"/>
@@ -18131,28 +17343,17 @@
       <c r="S215"/>
       <c r="T215"/>
     </row>
-    <row r="216" spans="1:20">
-      <c r="A216" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B216" s="13">
-        <v>4047</v>
-      </c>
-      <c r="C216" s="13"/>
-      <c r="D216" s="13"/>
-      <c r="E216" s="13"/>
-      <c r="F216" s="24">
-        <v>1</v>
-      </c>
-      <c r="G216" s="25"/>
-      <c r="H216" s="25"/>
-      <c r="I216" s="25"/>
-      <c r="J216" s="18">
-        <v>4047</v>
-      </c>
-      <c r="K216" s="13">
-        <v>1</v>
-      </c>
+    <row r="216" spans="2:20">
+      <c r="B216"/>
+      <c r="C216"/>
+      <c r="D216"/>
+      <c r="E216"/>
+      <c r="F216"/>
+      <c r="G216"/>
+      <c r="H216"/>
+      <c r="I216"/>
+      <c r="J216"/>
+      <c r="K216"/>
       <c r="L216"/>
       <c r="M216"/>
       <c r="N216"/>
@@ -18163,28 +17364,17 @@
       <c r="S216"/>
       <c r="T216"/>
     </row>
-    <row r="217" spans="1:20">
-      <c r="A217" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B217" s="13">
-        <v>4047</v>
-      </c>
-      <c r="C217" s="13"/>
-      <c r="D217" s="13"/>
-      <c r="E217" s="13"/>
-      <c r="F217" s="24">
-        <v>1</v>
-      </c>
-      <c r="G217" s="25"/>
-      <c r="H217" s="25"/>
-      <c r="I217" s="25"/>
-      <c r="J217" s="18">
-        <v>4047</v>
-      </c>
-      <c r="K217" s="13">
-        <v>1</v>
-      </c>
+    <row r="217" spans="2:20">
+      <c r="B217"/>
+      <c r="C217"/>
+      <c r="D217"/>
+      <c r="E217"/>
+      <c r="F217"/>
+      <c r="G217"/>
+      <c r="H217"/>
+      <c r="I217"/>
+      <c r="J217"/>
+      <c r="K217"/>
       <c r="L217"/>
       <c r="M217"/>
       <c r="N217"/>
@@ -18195,28 +17385,17 @@
       <c r="S217"/>
       <c r="T217"/>
     </row>
-    <row r="218" spans="1:20">
-      <c r="A218" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B218" s="13"/>
-      <c r="C218" s="13"/>
-      <c r="D218" s="13">
-        <v>4845</v>
-      </c>
-      <c r="E218" s="13"/>
-      <c r="F218" s="24"/>
-      <c r="G218" s="25"/>
-      <c r="H218" s="25">
-        <v>1</v>
-      </c>
-      <c r="I218" s="25"/>
-      <c r="J218" s="18">
-        <v>4845</v>
-      </c>
-      <c r="K218" s="13">
-        <v>1</v>
-      </c>
+    <row r="218" spans="2:20">
+      <c r="B218"/>
+      <c r="C218"/>
+      <c r="D218"/>
+      <c r="E218"/>
+      <c r="F218"/>
+      <c r="G218"/>
+      <c r="H218"/>
+      <c r="I218"/>
+      <c r="J218"/>
+      <c r="K218"/>
       <c r="L218"/>
       <c r="M218"/>
       <c r="N218"/>
@@ -18227,28 +17406,17 @@
       <c r="S218"/>
       <c r="T218"/>
     </row>
-    <row r="219" spans="1:20">
-      <c r="A219" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B219" s="13"/>
-      <c r="C219" s="13"/>
-      <c r="D219" s="13">
-        <v>4845</v>
-      </c>
-      <c r="E219" s="13"/>
-      <c r="F219" s="24"/>
-      <c r="G219" s="25"/>
-      <c r="H219" s="25">
-        <v>1</v>
-      </c>
-      <c r="I219" s="25"/>
-      <c r="J219" s="18">
-        <v>4845</v>
-      </c>
-      <c r="K219" s="13">
-        <v>1</v>
-      </c>
+    <row r="219" spans="2:20">
+      <c r="B219"/>
+      <c r="C219"/>
+      <c r="D219"/>
+      <c r="E219"/>
+      <c r="F219"/>
+      <c r="G219"/>
+      <c r="H219"/>
+      <c r="I219"/>
+      <c r="J219"/>
+      <c r="K219"/>
       <c r="L219"/>
       <c r="M219"/>
       <c r="N219"/>
@@ -18259,28 +17427,17 @@
       <c r="S219"/>
       <c r="T219"/>
     </row>
-    <row r="220" spans="1:20">
-      <c r="A220" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B220" s="13"/>
-      <c r="C220" s="13"/>
-      <c r="D220" s="13">
-        <v>5349</v>
-      </c>
-      <c r="E220" s="13"/>
-      <c r="F220" s="24"/>
-      <c r="G220" s="25"/>
-      <c r="H220" s="25">
-        <v>1</v>
-      </c>
-      <c r="I220" s="25"/>
-      <c r="J220" s="18">
-        <v>5349</v>
-      </c>
-      <c r="K220" s="13">
-        <v>1</v>
-      </c>
+    <row r="220" spans="2:20">
+      <c r="B220"/>
+      <c r="C220"/>
+      <c r="D220"/>
+      <c r="E220"/>
+      <c r="F220"/>
+      <c r="G220"/>
+      <c r="H220"/>
+      <c r="I220"/>
+      <c r="J220"/>
+      <c r="K220"/>
       <c r="L220"/>
       <c r="M220"/>
       <c r="N220"/>
@@ -18291,28 +17448,17 @@
       <c r="S220"/>
       <c r="T220"/>
     </row>
-    <row r="221" spans="1:20">
-      <c r="A221" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B221" s="13"/>
-      <c r="C221" s="13"/>
-      <c r="D221" s="13">
-        <v>5349</v>
-      </c>
-      <c r="E221" s="13"/>
-      <c r="F221" s="24"/>
-      <c r="G221" s="25"/>
-      <c r="H221" s="25">
-        <v>1</v>
-      </c>
-      <c r="I221" s="25"/>
-      <c r="J221" s="18">
-        <v>5349</v>
-      </c>
-      <c r="K221" s="13">
-        <v>1</v>
-      </c>
+    <row r="221" spans="2:20">
+      <c r="B221"/>
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221"/>
+      <c r="G221"/>
+      <c r="H221"/>
+      <c r="I221"/>
+      <c r="J221"/>
+      <c r="K221"/>
       <c r="L221"/>
       <c r="M221"/>
       <c r="N221"/>
@@ -18323,28 +17469,17 @@
       <c r="S221"/>
       <c r="T221"/>
     </row>
-    <row r="222" spans="1:20">
-      <c r="A222" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B222" s="13"/>
-      <c r="C222" s="13"/>
-      <c r="D222" s="13">
-        <v>2787</v>
-      </c>
-      <c r="E222" s="13"/>
-      <c r="F222" s="24"/>
-      <c r="G222" s="25"/>
-      <c r="H222" s="25">
-        <v>1</v>
-      </c>
-      <c r="I222" s="25"/>
-      <c r="J222" s="18">
-        <v>2787</v>
-      </c>
-      <c r="K222" s="13">
-        <v>1</v>
-      </c>
+    <row r="222" spans="2:20">
+      <c r="B222"/>
+      <c r="C222"/>
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222"/>
+      <c r="G222"/>
+      <c r="H222"/>
+      <c r="I222"/>
+      <c r="J222"/>
+      <c r="K222"/>
       <c r="L222"/>
       <c r="M222"/>
       <c r="N222"/>
@@ -18355,28 +17490,17 @@
       <c r="S222"/>
       <c r="T222"/>
     </row>
-    <row r="223" spans="1:20">
-      <c r="A223" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B223" s="13"/>
-      <c r="C223" s="13"/>
-      <c r="D223" s="13">
-        <v>2787</v>
-      </c>
-      <c r="E223" s="13"/>
-      <c r="F223" s="24"/>
-      <c r="G223" s="25"/>
-      <c r="H223" s="25">
-        <v>1</v>
-      </c>
-      <c r="I223" s="25"/>
-      <c r="J223" s="18">
-        <v>2787</v>
-      </c>
-      <c r="K223" s="13">
-        <v>1</v>
-      </c>
+    <row r="223" spans="2:20">
+      <c r="B223"/>
+      <c r="C223"/>
+      <c r="D223"/>
+      <c r="E223"/>
+      <c r="F223"/>
+      <c r="G223"/>
+      <c r="H223"/>
+      <c r="I223"/>
+      <c r="J223"/>
+      <c r="K223"/>
       <c r="L223"/>
       <c r="M223"/>
       <c r="N223"/>
@@ -18387,28 +17511,17 @@
       <c r="S223"/>
       <c r="T223"/>
     </row>
-    <row r="224" spans="1:20">
-      <c r="A224" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B224" s="13"/>
-      <c r="C224" s="13"/>
-      <c r="D224" s="13">
-        <v>1782</v>
-      </c>
-      <c r="E224" s="13"/>
-      <c r="F224" s="24"/>
-      <c r="G224" s="25"/>
-      <c r="H224" s="25">
-        <v>1</v>
-      </c>
-      <c r="I224" s="25"/>
-      <c r="J224" s="18">
-        <v>1782</v>
-      </c>
-      <c r="K224" s="13">
-        <v>1</v>
-      </c>
+    <row r="224" spans="2:20">
+      <c r="B224"/>
+      <c r="C224"/>
+      <c r="D224"/>
+      <c r="E224"/>
+      <c r="F224"/>
+      <c r="G224"/>
+      <c r="H224"/>
+      <c r="I224"/>
+      <c r="J224"/>
+      <c r="K224"/>
       <c r="L224"/>
       <c r="M224"/>
       <c r="N224"/>
@@ -18419,28 +17532,17 @@
       <c r="S224"/>
       <c r="T224"/>
     </row>
-    <row r="225" spans="1:20">
-      <c r="A225" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B225" s="13"/>
-      <c r="C225" s="13"/>
-      <c r="D225" s="13">
-        <v>1782</v>
-      </c>
-      <c r="E225" s="13"/>
-      <c r="F225" s="24"/>
-      <c r="G225" s="25"/>
-      <c r="H225" s="25">
-        <v>1</v>
-      </c>
-      <c r="I225" s="25"/>
-      <c r="J225" s="18">
-        <v>1782</v>
-      </c>
-      <c r="K225" s="13">
-        <v>1</v>
-      </c>
+    <row r="225" spans="2:20">
+      <c r="B225"/>
+      <c r="C225"/>
+      <c r="D225"/>
+      <c r="E225"/>
+      <c r="F225"/>
+      <c r="G225"/>
+      <c r="H225"/>
+      <c r="I225"/>
+      <c r="J225"/>
+      <c r="K225"/>
       <c r="L225"/>
       <c r="M225"/>
       <c r="N225"/>
@@ -18451,28 +17553,17 @@
       <c r="S225"/>
       <c r="T225"/>
     </row>
-    <row r="226" spans="1:20">
-      <c r="A226" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B226" s="13"/>
-      <c r="C226" s="13"/>
-      <c r="D226" s="13">
-        <v>5031</v>
-      </c>
-      <c r="E226" s="13"/>
-      <c r="F226" s="24"/>
-      <c r="G226" s="25"/>
-      <c r="H226" s="25">
-        <v>1</v>
-      </c>
-      <c r="I226" s="25"/>
-      <c r="J226" s="18">
-        <v>5031</v>
-      </c>
-      <c r="K226" s="13">
-        <v>1</v>
-      </c>
+    <row r="226" spans="2:20">
+      <c r="B226"/>
+      <c r="C226"/>
+      <c r="D226"/>
+      <c r="E226"/>
+      <c r="F226"/>
+      <c r="G226"/>
+      <c r="H226"/>
+      <c r="I226"/>
+      <c r="J226"/>
+      <c r="K226"/>
       <c r="L226"/>
       <c r="M226"/>
       <c r="N226"/>
@@ -18483,28 +17574,17 @@
       <c r="S226"/>
       <c r="T226"/>
     </row>
-    <row r="227" spans="1:20">
-      <c r="A227" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B227" s="13"/>
-      <c r="C227" s="13"/>
-      <c r="D227" s="13">
-        <v>5031</v>
-      </c>
-      <c r="E227" s="13"/>
-      <c r="F227" s="24"/>
-      <c r="G227" s="25"/>
-      <c r="H227" s="25">
-        <v>1</v>
-      </c>
-      <c r="I227" s="25"/>
-      <c r="J227" s="18">
-        <v>5031</v>
-      </c>
-      <c r="K227" s="13">
-        <v>1</v>
-      </c>
+    <row r="227" spans="2:20">
+      <c r="B227"/>
+      <c r="C227"/>
+      <c r="D227"/>
+      <c r="E227"/>
+      <c r="F227"/>
+      <c r="G227"/>
+      <c r="H227"/>
+      <c r="I227"/>
+      <c r="J227"/>
+      <c r="K227"/>
       <c r="L227"/>
       <c r="M227"/>
       <c r="N227"/>
@@ -18515,32 +17595,17 @@
       <c r="S227"/>
       <c r="T227"/>
     </row>
-    <row r="228" spans="1:20">
-      <c r="A228" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B228" s="13"/>
-      <c r="C228" s="13">
-        <v>10098</v>
-      </c>
-      <c r="D228" s="13">
-        <v>26955</v>
-      </c>
-      <c r="E228" s="13"/>
-      <c r="F228" s="24"/>
-      <c r="G228" s="25">
-        <v>4</v>
-      </c>
-      <c r="H228" s="25">
-        <v>5</v>
-      </c>
-      <c r="I228" s="25"/>
-      <c r="J228" s="18">
-        <v>37053</v>
-      </c>
-      <c r="K228" s="13">
-        <v>9</v>
-      </c>
+    <row r="228" spans="2:20">
+      <c r="B228"/>
+      <c r="C228"/>
+      <c r="D228"/>
+      <c r="E228"/>
+      <c r="F228"/>
+      <c r="G228"/>
+      <c r="H228"/>
+      <c r="I228"/>
+      <c r="J228"/>
+      <c r="K228"/>
       <c r="L228"/>
       <c r="M228"/>
       <c r="N228"/>
@@ -18551,28 +17616,17 @@
       <c r="S228"/>
       <c r="T228"/>
     </row>
-    <row r="229" spans="1:20">
-      <c r="A229" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B229" s="13"/>
-      <c r="C229" s="13">
-        <v>2685</v>
-      </c>
-      <c r="D229" s="13"/>
-      <c r="E229" s="13"/>
-      <c r="F229" s="24"/>
-      <c r="G229" s="25">
-        <v>2</v>
-      </c>
-      <c r="H229" s="25"/>
-      <c r="I229" s="25"/>
-      <c r="J229" s="18">
-        <v>2685</v>
-      </c>
-      <c r="K229" s="13">
-        <v>2</v>
-      </c>
+    <row r="229" spans="2:20">
+      <c r="B229"/>
+      <c r="C229"/>
+      <c r="D229"/>
+      <c r="E229"/>
+      <c r="F229"/>
+      <c r="G229"/>
+      <c r="H229"/>
+      <c r="I229"/>
+      <c r="J229"/>
+      <c r="K229"/>
       <c r="L229"/>
       <c r="M229"/>
       <c r="N229"/>
@@ -18583,28 +17637,17 @@
       <c r="S229"/>
       <c r="T229"/>
     </row>
-    <row r="230" spans="1:20">
-      <c r="A230" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B230" s="13"/>
-      <c r="C230" s="13">
-        <v>999</v>
-      </c>
-      <c r="D230" s="13"/>
-      <c r="E230" s="13"/>
-      <c r="F230" s="24"/>
-      <c r="G230" s="25">
-        <v>1</v>
-      </c>
-      <c r="H230" s="25"/>
-      <c r="I230" s="25"/>
-      <c r="J230" s="18">
-        <v>999</v>
-      </c>
-      <c r="K230" s="13">
-        <v>1</v>
-      </c>
+    <row r="230" spans="2:20">
+      <c r="B230"/>
+      <c r="C230"/>
+      <c r="D230"/>
+      <c r="E230"/>
+      <c r="F230"/>
+      <c r="G230"/>
+      <c r="H230"/>
+      <c r="I230"/>
+      <c r="J230"/>
+      <c r="K230"/>
       <c r="L230"/>
       <c r="M230"/>
       <c r="N230"/>
@@ -18615,28 +17658,17 @@
       <c r="S230"/>
       <c r="T230"/>
     </row>
-    <row r="231" spans="1:20">
-      <c r="A231" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B231" s="13"/>
-      <c r="C231" s="13">
-        <v>999</v>
-      </c>
-      <c r="D231" s="13"/>
-      <c r="E231" s="13"/>
-      <c r="F231" s="24"/>
-      <c r="G231" s="25">
-        <v>1</v>
-      </c>
-      <c r="H231" s="25"/>
-      <c r="I231" s="25"/>
-      <c r="J231" s="18">
-        <v>999</v>
-      </c>
-      <c r="K231" s="13">
-        <v>1</v>
-      </c>
+    <row r="231" spans="2:20">
+      <c r="B231"/>
+      <c r="C231"/>
+      <c r="D231"/>
+      <c r="E231"/>
+      <c r="F231"/>
+      <c r="G231"/>
+      <c r="H231"/>
+      <c r="I231"/>
+      <c r="J231"/>
+      <c r="K231"/>
       <c r="L231"/>
       <c r="M231"/>
       <c r="N231"/>
@@ -18647,28 +17679,17 @@
       <c r="S231"/>
       <c r="T231"/>
     </row>
-    <row r="232" spans="1:20">
-      <c r="A232" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="B232" s="13"/>
-      <c r="C232" s="13">
-        <v>999</v>
-      </c>
-      <c r="D232" s="13"/>
-      <c r="E232" s="13"/>
-      <c r="F232" s="24"/>
-      <c r="G232" s="25">
-        <v>1</v>
-      </c>
-      <c r="H232" s="25"/>
-      <c r="I232" s="25"/>
-      <c r="J232" s="18">
-        <v>999</v>
-      </c>
-      <c r="K232" s="13">
-        <v>1</v>
-      </c>
+    <row r="232" spans="2:20">
+      <c r="B232"/>
+      <c r="C232"/>
+      <c r="D232"/>
+      <c r="E232"/>
+      <c r="F232"/>
+      <c r="G232"/>
+      <c r="H232"/>
+      <c r="I232"/>
+      <c r="J232"/>
+      <c r="K232"/>
       <c r="L232"/>
       <c r="M232"/>
       <c r="N232"/>
@@ -18679,28 +17700,17 @@
       <c r="S232"/>
       <c r="T232"/>
     </row>
-    <row r="233" spans="1:20">
-      <c r="A233" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B233" s="13"/>
-      <c r="C233" s="13">
-        <v>1686</v>
-      </c>
-      <c r="D233" s="13"/>
-      <c r="E233" s="13"/>
-      <c r="F233" s="24"/>
-      <c r="G233" s="25">
-        <v>1</v>
-      </c>
-      <c r="H233" s="25"/>
-      <c r="I233" s="25"/>
-      <c r="J233" s="18">
-        <v>1686</v>
-      </c>
-      <c r="K233" s="13">
-        <v>1</v>
-      </c>
+    <row r="233" spans="2:20">
+      <c r="B233"/>
+      <c r="C233"/>
+      <c r="D233"/>
+      <c r="E233"/>
+      <c r="F233"/>
+      <c r="G233"/>
+      <c r="H233"/>
+      <c r="I233"/>
+      <c r="J233"/>
+      <c r="K233"/>
       <c r="L233"/>
       <c r="M233"/>
       <c r="N233"/>
@@ -18711,28 +17721,17 @@
       <c r="S233"/>
       <c r="T233"/>
     </row>
-    <row r="234" spans="1:20">
-      <c r="A234" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B234" s="13"/>
-      <c r="C234" s="13">
-        <v>1686</v>
-      </c>
-      <c r="D234" s="13"/>
-      <c r="E234" s="13"/>
-      <c r="F234" s="24"/>
-      <c r="G234" s="25">
-        <v>1</v>
-      </c>
-      <c r="H234" s="25"/>
-      <c r="I234" s="25"/>
-      <c r="J234" s="18">
-        <v>1686</v>
-      </c>
-      <c r="K234" s="13">
-        <v>1</v>
-      </c>
+    <row r="234" spans="2:20">
+      <c r="B234"/>
+      <c r="C234"/>
+      <c r="D234"/>
+      <c r="E234"/>
+      <c r="F234"/>
+      <c r="G234"/>
+      <c r="H234"/>
+      <c r="I234"/>
+      <c r="J234"/>
+      <c r="K234"/>
       <c r="L234"/>
       <c r="M234"/>
       <c r="N234"/>
@@ -18743,550 +17742,307 @@
       <c r="S234"/>
       <c r="T234"/>
     </row>
-    <row r="235" spans="1:20">
-      <c r="A235" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="B235" s="13"/>
-      <c r="C235" s="13">
-        <v>1686</v>
-      </c>
-      <c r="D235" s="13"/>
-      <c r="E235" s="13"/>
-      <c r="F235" s="24"/>
-      <c r="G235" s="25">
-        <v>1</v>
-      </c>
-      <c r="H235" s="25"/>
-      <c r="I235" s="25"/>
-      <c r="J235" s="18">
-        <v>1686</v>
-      </c>
-      <c r="K235" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:20">
-      <c r="A236" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="B236" s="13"/>
-      <c r="C236" s="13">
-        <v>7413</v>
-      </c>
-      <c r="D236" s="13">
-        <v>26955</v>
-      </c>
-      <c r="E236" s="13"/>
-      <c r="F236" s="24"/>
-      <c r="G236" s="25">
-        <v>2</v>
-      </c>
-      <c r="H236" s="25">
-        <v>5</v>
-      </c>
-      <c r="I236" s="25"/>
-      <c r="J236" s="18">
-        <v>34368</v>
-      </c>
-      <c r="K236" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="237" spans="1:20">
-      <c r="A237" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B237" s="13"/>
-      <c r="C237" s="13">
-        <v>3633</v>
-      </c>
-      <c r="D237" s="13">
-        <v>26955</v>
-      </c>
-      <c r="E237" s="13"/>
-      <c r="F237" s="24"/>
-      <c r="G237" s="25">
-        <v>1</v>
-      </c>
-      <c r="H237" s="25">
-        <v>5</v>
-      </c>
-      <c r="I237" s="25"/>
-      <c r="J237" s="18">
-        <v>30588</v>
-      </c>
-      <c r="K237" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="238" spans="1:20">
-      <c r="A238" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="B238" s="13"/>
-      <c r="C238" s="13"/>
-      <c r="D238" s="13">
-        <v>3390</v>
-      </c>
-      <c r="E238" s="13"/>
-      <c r="F238" s="24"/>
-      <c r="G238" s="25"/>
-      <c r="H238" s="25">
-        <v>1</v>
-      </c>
-      <c r="I238" s="25"/>
-      <c r="J238" s="18">
-        <v>3390</v>
-      </c>
-      <c r="K238" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:20">
-      <c r="A239" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="B239" s="13"/>
-      <c r="C239" s="13"/>
-      <c r="D239" s="13">
-        <v>3390</v>
-      </c>
-      <c r="E239" s="13"/>
-      <c r="F239" s="24"/>
-      <c r="G239" s="25"/>
-      <c r="H239" s="25">
-        <v>1</v>
-      </c>
-      <c r="I239" s="25"/>
-      <c r="J239" s="18">
-        <v>3390</v>
-      </c>
-      <c r="K239" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:20">
-      <c r="A240" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B240" s="13"/>
-      <c r="C240" s="13">
-        <v>3633</v>
-      </c>
-      <c r="D240" s="13"/>
-      <c r="E240" s="13"/>
-      <c r="F240" s="24"/>
-      <c r="G240" s="25">
-        <v>1</v>
-      </c>
-      <c r="H240" s="25"/>
-      <c r="I240" s="25"/>
-      <c r="J240" s="18">
-        <v>3633</v>
-      </c>
-      <c r="K240" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11">
-      <c r="A241" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="B241" s="13"/>
-      <c r="C241" s="13">
-        <v>3633</v>
-      </c>
-      <c r="D241" s="13"/>
-      <c r="E241" s="13"/>
-      <c r="F241" s="24"/>
-      <c r="G241" s="25">
-        <v>1</v>
-      </c>
-      <c r="H241" s="25"/>
-      <c r="I241" s="25"/>
-      <c r="J241" s="18">
-        <v>3633</v>
-      </c>
-      <c r="K241" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11">
-      <c r="A242" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="B242" s="13"/>
-      <c r="C242" s="13"/>
-      <c r="D242" s="13">
-        <v>4866</v>
-      </c>
-      <c r="E242" s="13"/>
-      <c r="F242" s="24"/>
-      <c r="G242" s="25"/>
-      <c r="H242" s="25">
-        <v>1</v>
-      </c>
-      <c r="I242" s="25"/>
-      <c r="J242" s="18">
-        <v>4866</v>
-      </c>
-      <c r="K242" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11">
-      <c r="A243" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="B243" s="13"/>
-      <c r="C243" s="13"/>
-      <c r="D243" s="13">
-        <v>4866</v>
-      </c>
-      <c r="E243" s="13"/>
-      <c r="F243" s="24"/>
-      <c r="G243" s="25"/>
-      <c r="H243" s="25">
-        <v>1</v>
-      </c>
-      <c r="I243" s="25"/>
-      <c r="J243" s="18">
-        <v>4866</v>
-      </c>
-      <c r="K243" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11">
-      <c r="A244" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="B244" s="13"/>
-      <c r="C244" s="13"/>
-      <c r="D244" s="13">
-        <v>10854</v>
-      </c>
-      <c r="E244" s="13"/>
-      <c r="F244" s="24"/>
-      <c r="G244" s="25"/>
-      <c r="H244" s="25">
-        <v>1</v>
-      </c>
-      <c r="I244" s="25"/>
-      <c r="J244" s="18">
-        <v>10854</v>
-      </c>
-      <c r="K244" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11">
-      <c r="A245" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="B245" s="13"/>
-      <c r="C245" s="13"/>
-      <c r="D245" s="13">
-        <v>10854</v>
-      </c>
-      <c r="E245" s="13"/>
-      <c r="F245" s="24"/>
-      <c r="G245" s="25"/>
-      <c r="H245" s="25">
-        <v>1</v>
-      </c>
-      <c r="I245" s="25"/>
-      <c r="J245" s="18">
-        <v>10854</v>
-      </c>
-      <c r="K245" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11">
-      <c r="A246" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B246" s="13"/>
-      <c r="C246" s="13"/>
-      <c r="D246" s="13">
-        <v>138</v>
-      </c>
-      <c r="E246" s="13"/>
-      <c r="F246" s="24"/>
-      <c r="G246" s="25"/>
-      <c r="H246" s="25">
-        <v>1</v>
-      </c>
-      <c r="I246" s="25"/>
-      <c r="J246" s="18">
-        <v>138</v>
-      </c>
-      <c r="K246" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11">
-      <c r="A247" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="B247" s="13"/>
-      <c r="C247" s="13"/>
-      <c r="D247" s="13">
-        <v>138</v>
-      </c>
-      <c r="E247" s="13"/>
-      <c r="F247" s="24"/>
-      <c r="G247" s="25"/>
-      <c r="H247" s="25">
-        <v>1</v>
-      </c>
-      <c r="I247" s="25"/>
-      <c r="J247" s="18">
-        <v>138</v>
-      </c>
-      <c r="K247" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11">
-      <c r="A248" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B248" s="13"/>
-      <c r="C248" s="13"/>
-      <c r="D248" s="13">
-        <v>7707</v>
-      </c>
-      <c r="E248" s="13"/>
-      <c r="F248" s="24"/>
-      <c r="G248" s="25"/>
-      <c r="H248" s="25">
-        <v>1</v>
-      </c>
-      <c r="I248" s="25"/>
-      <c r="J248" s="18">
-        <v>7707</v>
-      </c>
-      <c r="K248" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11">
-      <c r="A249" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="B249" s="13"/>
-      <c r="C249" s="13"/>
-      <c r="D249" s="13">
-        <v>7707</v>
-      </c>
-      <c r="E249" s="13"/>
-      <c r="F249" s="24"/>
-      <c r="G249" s="25"/>
-      <c r="H249" s="25">
-        <v>1</v>
-      </c>
-      <c r="I249" s="25"/>
-      <c r="J249" s="18">
-        <v>7707</v>
-      </c>
-      <c r="K249" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11">
-      <c r="A250" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B250" s="13"/>
-      <c r="C250" s="13">
-        <v>3780</v>
-      </c>
-      <c r="D250" s="13"/>
-      <c r="E250" s="13"/>
-      <c r="F250" s="24"/>
-      <c r="G250" s="25">
-        <v>1</v>
-      </c>
-      <c r="H250" s="25"/>
-      <c r="I250" s="25"/>
-      <c r="J250" s="18">
-        <v>3780</v>
-      </c>
-      <c r="K250" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11">
-      <c r="A251" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B251" s="13"/>
-      <c r="C251" s="13">
-        <v>3780</v>
-      </c>
-      <c r="D251" s="13"/>
-      <c r="E251" s="13"/>
-      <c r="F251" s="24"/>
-      <c r="G251" s="25">
-        <v>1</v>
-      </c>
-      <c r="H251" s="25"/>
-      <c r="I251" s="25"/>
-      <c r="J251" s="18">
-        <v>3780</v>
-      </c>
-      <c r="K251" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11">
-      <c r="A252" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="B252" s="13"/>
-      <c r="C252" s="13">
-        <v>3780</v>
-      </c>
-      <c r="D252" s="13"/>
-      <c r="E252" s="13"/>
-      <c r="F252" s="24"/>
-      <c r="G252" s="25">
-        <v>1</v>
-      </c>
-      <c r="H252" s="25"/>
-      <c r="I252" s="25"/>
-      <c r="J252" s="18">
-        <v>3780</v>
-      </c>
-      <c r="K252" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11">
-      <c r="A253" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B253" s="13"/>
-      <c r="C253" s="13"/>
-      <c r="D253" s="13"/>
-      <c r="E253" s="13"/>
-      <c r="F253" s="24"/>
-      <c r="G253" s="25"/>
-      <c r="H253" s="25"/>
-      <c r="I253" s="25"/>
-      <c r="J253" s="18"/>
-      <c r="K253" s="13"/>
-    </row>
-    <row r="254" spans="1:11">
-      <c r="A254" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B254" s="13"/>
-      <c r="C254" s="13"/>
-      <c r="D254" s="13"/>
-      <c r="E254" s="13"/>
-      <c r="F254" s="24"/>
-      <c r="G254" s="25"/>
-      <c r="H254" s="25"/>
-      <c r="I254" s="25"/>
-      <c r="J254" s="18"/>
-      <c r="K254" s="13"/>
-    </row>
-    <row r="255" spans="1:11">
-      <c r="A255" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B255" s="13"/>
-      <c r="C255" s="13"/>
-      <c r="D255" s="13"/>
-      <c r="E255" s="13"/>
-      <c r="F255" s="24"/>
-      <c r="G255" s="25"/>
-      <c r="H255" s="25"/>
-      <c r="I255" s="25"/>
-      <c r="J255" s="18"/>
-      <c r="K255" s="13"/>
-    </row>
-    <row r="256" spans="1:11">
-      <c r="A256" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="B256" s="13"/>
-      <c r="C256" s="13"/>
-      <c r="D256" s="13"/>
-      <c r="E256" s="13"/>
-      <c r="F256" s="24"/>
-      <c r="G256" s="25"/>
-      <c r="H256" s="25"/>
-      <c r="I256" s="25"/>
-      <c r="J256" s="18"/>
-      <c r="K256" s="13"/>
-    </row>
-    <row r="257" spans="1:11">
-      <c r="A257" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="B257" s="13"/>
-      <c r="C257" s="13"/>
-      <c r="D257" s="13"/>
-      <c r="E257" s="13"/>
-      <c r="F257" s="24"/>
-      <c r="G257" s="25"/>
-      <c r="H257" s="25"/>
-      <c r="I257" s="25"/>
-      <c r="J257" s="18"/>
-      <c r="K257" s="13"/>
-    </row>
-    <row r="258" spans="1:11">
-      <c r="A258" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="B258" s="13"/>
-      <c r="C258" s="13"/>
-      <c r="D258" s="13"/>
-      <c r="E258" s="13"/>
-      <c r="F258" s="24"/>
-      <c r="G258" s="25"/>
-      <c r="H258" s="25"/>
-      <c r="I258" s="25"/>
-      <c r="J258" s="18"/>
-      <c r="K258" s="13"/>
-    </row>
-    <row r="259" spans="1:11">
-      <c r="A259" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="B259" s="13">
-        <v>7338</v>
-      </c>
-      <c r="C259" s="13">
-        <v>172635</v>
-      </c>
-      <c r="D259" s="13">
-        <v>310950</v>
-      </c>
-      <c r="E259" s="13"/>
-      <c r="F259" s="24">
-        <v>3</v>
-      </c>
-      <c r="G259" s="25">
-        <v>39</v>
-      </c>
-      <c r="H259" s="25">
-        <v>57</v>
-      </c>
-      <c r="I259" s="25"/>
-      <c r="J259" s="18">
-        <v>490923</v>
-      </c>
-      <c r="K259" s="13">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11">
+    <row r="235" spans="2:20">
+      <c r="B235"/>
+      <c r="C235"/>
+      <c r="D235"/>
+      <c r="E235"/>
+      <c r="F235"/>
+      <c r="G235"/>
+      <c r="H235"/>
+      <c r="I235"/>
+      <c r="J235"/>
+      <c r="K235"/>
+    </row>
+    <row r="236" spans="2:20">
+      <c r="B236"/>
+      <c r="C236"/>
+      <c r="D236"/>
+      <c r="E236"/>
+      <c r="F236"/>
+      <c r="G236"/>
+      <c r="H236"/>
+      <c r="I236"/>
+      <c r="J236"/>
+      <c r="K236"/>
+    </row>
+    <row r="237" spans="2:20">
+      <c r="B237"/>
+      <c r="C237"/>
+      <c r="D237"/>
+      <c r="E237"/>
+      <c r="F237"/>
+      <c r="G237"/>
+      <c r="H237"/>
+      <c r="I237"/>
+      <c r="J237"/>
+      <c r="K237"/>
+    </row>
+    <row r="238" spans="2:20">
+      <c r="B238"/>
+      <c r="C238"/>
+      <c r="D238"/>
+      <c r="E238"/>
+      <c r="F238"/>
+      <c r="G238"/>
+      <c r="H238"/>
+      <c r="I238"/>
+      <c r="J238"/>
+      <c r="K238"/>
+    </row>
+    <row r="239" spans="2:20">
+      <c r="B239"/>
+      <c r="C239"/>
+      <c r="D239"/>
+      <c r="E239"/>
+      <c r="F239"/>
+      <c r="G239"/>
+      <c r="H239"/>
+      <c r="I239"/>
+      <c r="J239"/>
+      <c r="K239"/>
+    </row>
+    <row r="240" spans="2:20">
+      <c r="B240"/>
+      <c r="C240"/>
+      <c r="D240"/>
+      <c r="E240"/>
+      <c r="F240"/>
+      <c r="G240"/>
+      <c r="H240"/>
+      <c r="I240"/>
+      <c r="J240"/>
+      <c r="K240"/>
+    </row>
+    <row r="241" spans="2:11">
+      <c r="B241"/>
+      <c r="C241"/>
+      <c r="D241"/>
+      <c r="E241"/>
+      <c r="F241"/>
+      <c r="G241"/>
+      <c r="H241"/>
+      <c r="I241"/>
+      <c r="J241"/>
+      <c r="K241"/>
+    </row>
+    <row r="242" spans="2:11">
+      <c r="B242"/>
+      <c r="C242"/>
+      <c r="D242"/>
+      <c r="E242"/>
+      <c r="F242"/>
+      <c r="G242"/>
+      <c r="H242"/>
+      <c r="I242"/>
+      <c r="J242"/>
+      <c r="K242"/>
+    </row>
+    <row r="243" spans="2:11">
+      <c r="B243"/>
+      <c r="C243"/>
+      <c r="D243"/>
+      <c r="E243"/>
+      <c r="F243"/>
+      <c r="G243"/>
+      <c r="H243"/>
+      <c r="I243"/>
+      <c r="J243"/>
+      <c r="K243"/>
+    </row>
+    <row r="244" spans="2:11">
+      <c r="B244"/>
+      <c r="C244"/>
+      <c r="D244"/>
+      <c r="E244"/>
+      <c r="F244"/>
+      <c r="G244"/>
+      <c r="H244"/>
+      <c r="I244"/>
+      <c r="J244"/>
+      <c r="K244"/>
+    </row>
+    <row r="245" spans="2:11">
+      <c r="B245"/>
+      <c r="C245"/>
+      <c r="D245"/>
+      <c r="E245"/>
+      <c r="F245"/>
+      <c r="G245"/>
+      <c r="H245"/>
+      <c r="I245"/>
+      <c r="J245"/>
+      <c r="K245"/>
+    </row>
+    <row r="246" spans="2:11">
+      <c r="B246"/>
+      <c r="C246"/>
+      <c r="D246"/>
+      <c r="E246"/>
+      <c r="F246"/>
+      <c r="G246"/>
+      <c r="H246"/>
+      <c r="I246"/>
+      <c r="J246"/>
+      <c r="K246"/>
+    </row>
+    <row r="247" spans="2:11">
+      <c r="B247"/>
+      <c r="C247"/>
+      <c r="D247"/>
+      <c r="E247"/>
+      <c r="F247"/>
+      <c r="G247"/>
+      <c r="H247"/>
+      <c r="I247"/>
+      <c r="J247"/>
+      <c r="K247"/>
+    </row>
+    <row r="248" spans="2:11">
+      <c r="B248"/>
+      <c r="C248"/>
+      <c r="D248"/>
+      <c r="E248"/>
+      <c r="F248"/>
+      <c r="G248"/>
+      <c r="H248"/>
+      <c r="I248"/>
+      <c r="J248"/>
+      <c r="K248"/>
+    </row>
+    <row r="249" spans="2:11">
+      <c r="B249"/>
+      <c r="C249"/>
+      <c r="D249"/>
+      <c r="E249"/>
+      <c r="F249"/>
+      <c r="G249"/>
+      <c r="H249"/>
+      <c r="I249"/>
+      <c r="J249"/>
+      <c r="K249"/>
+    </row>
+    <row r="250" spans="2:11">
+      <c r="B250"/>
+      <c r="C250"/>
+      <c r="D250"/>
+      <c r="E250"/>
+      <c r="F250"/>
+      <c r="G250"/>
+      <c r="H250"/>
+      <c r="I250"/>
+      <c r="J250"/>
+      <c r="K250"/>
+    </row>
+    <row r="251" spans="2:11">
+      <c r="B251"/>
+      <c r="C251"/>
+      <c r="D251"/>
+      <c r="E251"/>
+      <c r="F251"/>
+      <c r="G251"/>
+      <c r="H251"/>
+      <c r="I251"/>
+      <c r="J251"/>
+      <c r="K251"/>
+    </row>
+    <row r="252" spans="2:11">
+      <c r="B252"/>
+      <c r="C252"/>
+      <c r="D252"/>
+      <c r="E252"/>
+      <c r="F252"/>
+      <c r="G252"/>
+      <c r="H252"/>
+      <c r="I252"/>
+      <c r="J252"/>
+      <c r="K252"/>
+    </row>
+    <row r="253" spans="2:11">
+      <c r="B253"/>
+      <c r="C253"/>
+      <c r="D253"/>
+      <c r="E253"/>
+      <c r="F253"/>
+      <c r="G253"/>
+      <c r="H253"/>
+      <c r="I253"/>
+      <c r="J253"/>
+      <c r="K253"/>
+    </row>
+    <row r="254" spans="2:11">
+      <c r="B254"/>
+      <c r="C254"/>
+      <c r="D254"/>
+      <c r="E254"/>
+      <c r="F254"/>
+      <c r="G254"/>
+      <c r="H254"/>
+      <c r="I254"/>
+      <c r="J254"/>
+      <c r="K254"/>
+    </row>
+    <row r="255" spans="2:11">
+      <c r="B255"/>
+      <c r="C255"/>
+      <c r="D255"/>
+      <c r="E255"/>
+      <c r="F255"/>
+      <c r="G255"/>
+      <c r="H255"/>
+      <c r="I255"/>
+      <c r="J255"/>
+      <c r="K255"/>
+    </row>
+    <row r="256" spans="2:11">
+      <c r="B256"/>
+      <c r="C256"/>
+      <c r="D256"/>
+      <c r="E256"/>
+      <c r="F256"/>
+      <c r="G256"/>
+      <c r="H256"/>
+      <c r="I256"/>
+      <c r="J256"/>
+      <c r="K256"/>
+    </row>
+    <row r="257" spans="2:11">
+      <c r="B257"/>
+      <c r="C257"/>
+      <c r="D257"/>
+      <c r="E257"/>
+      <c r="F257"/>
+      <c r="G257"/>
+      <c r="H257"/>
+      <c r="I257"/>
+      <c r="J257"/>
+      <c r="K257"/>
+    </row>
+    <row r="258" spans="2:11">
+      <c r="B258"/>
+      <c r="C258"/>
+      <c r="D258"/>
+      <c r="E258"/>
+      <c r="F258"/>
+      <c r="G258"/>
+      <c r="H258"/>
+      <c r="I258"/>
+      <c r="J258"/>
+      <c r="K258"/>
+    </row>
+    <row r="259" spans="2:11">
+      <c r="B259"/>
+      <c r="C259"/>
+      <c r="D259"/>
+      <c r="E259"/>
+      <c r="F259"/>
+      <c r="G259"/>
+      <c r="H259"/>
+      <c r="I259"/>
+      <c r="J259"/>
+      <c r="K259"/>
+    </row>
+    <row r="260" spans="2:11">
       <c r="B260"/>
       <c r="C260"/>
       <c r="D260"/>

--- a/sampling/sampled_villages.xlsx
+++ b/sampling/sampled_villages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="17000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="455">
   <si>
     <t>lz</t>
   </si>
@@ -4041,7 +4041,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A1:K173" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <location ref="A1:K62" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
@@ -4066,7 +4066,7 @@
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
-        <item sd="0" x="0"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -4089,25 +4089,25 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="21">
-        <item x="14"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item x="17"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="12"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="7"/>
-        <item x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="13"/>
         <item x="19"/>
         <item t="default"/>
       </items>
@@ -4337,12 +4337,18 @@
     <field x="9"/>
     <field x="16"/>
   </rowFields>
-  <rowItems count="170">
+  <rowItems count="59">
     <i>
       <x/>
     </i>
     <i r="1">
       <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="1"/>
@@ -4353,140 +4359,14 @@
     <i r="3">
       <x v="2"/>
     </i>
-    <i r="4">
-      <x v="7"/>
-    </i>
-    <i r="5">
-      <x v="45"/>
-    </i>
-    <i r="4">
-      <x v="22"/>
-    </i>
-    <i r="5">
-      <x v="52"/>
-    </i>
-    <i r="4">
-      <x v="31"/>
-    </i>
-    <i r="5">
-      <x v="16"/>
-    </i>
-    <i r="4">
-      <x v="60"/>
-    </i>
-    <i r="5">
-      <x v="73"/>
-    </i>
-    <i r="4">
-      <x v="72"/>
-    </i>
-    <i r="5">
-      <x v="80"/>
-    </i>
-    <i r="4">
-      <x v="86"/>
-    </i>
-    <i r="5">
-      <x v="36"/>
-    </i>
-    <i r="4">
-      <x v="95"/>
-    </i>
-    <i r="5">
-      <x v="96"/>
-    </i>
-    <i r="4">
-      <x v="97"/>
-    </i>
-    <i r="5">
-      <x v="98"/>
-    </i>
     <i r="3">
       <x v="10"/>
-    </i>
-    <i r="4">
-      <x v="24"/>
-    </i>
-    <i r="5">
-      <x v="14"/>
-    </i>
-    <i r="4">
-      <x v="32"/>
-    </i>
-    <i r="5">
-      <x v="17"/>
-    </i>
-    <i r="4">
-      <x v="42"/>
-    </i>
-    <i r="5">
-      <x v="22"/>
-    </i>
-    <i r="4">
-      <x v="49"/>
-    </i>
-    <i r="5">
-      <x v="25"/>
-    </i>
-    <i r="4">
-      <x v="54"/>
-    </i>
-    <i r="5">
-      <x v="69"/>
-    </i>
-    <i r="4">
-      <x v="70"/>
-    </i>
-    <i r="5">
-      <x v="31"/>
-    </i>
-    <i r="4">
-      <x v="77"/>
-    </i>
-    <i r="5">
-      <x v="83"/>
     </i>
     <i r="3">
       <x v="14"/>
     </i>
-    <i r="4">
-      <x v="37"/>
-    </i>
-    <i r="5">
-      <x v="20"/>
-    </i>
-    <i r="4">
-      <x v="43"/>
-    </i>
-    <i r="5">
-      <x v="65"/>
-    </i>
-    <i r="4">
-      <x v="46"/>
-    </i>
-    <i r="5">
-      <x v="67"/>
-    </i>
-    <i r="4">
-      <x v="65"/>
-    </i>
-    <i r="5">
-      <x v="77"/>
-    </i>
-    <i r="4">
-      <x v="75"/>
-    </i>
-    <i r="5">
-      <x v="33"/>
-    </i>
     <i r="3">
       <x v="18"/>
-    </i>
-    <i r="4">
-      <x v="4"/>
-    </i>
-    <i r="5">
-      <x v="5"/>
     </i>
     <i>
       <x v="1"/>
@@ -4500,89 +4380,44 @@
     <i r="3">
       <x/>
     </i>
-    <i r="4">
-      <x v="2"/>
-    </i>
-    <i r="5">
-      <x v="43"/>
-    </i>
-    <i r="4">
-      <x v="12"/>
-    </i>
-    <i r="5">
-      <x v="48"/>
-    </i>
-    <i r="4">
-      <x v="14"/>
-    </i>
-    <i r="5">
-      <x v="10"/>
-    </i>
-    <i r="4">
-      <x v="15"/>
-    </i>
-    <i r="5">
-      <x v="49"/>
-    </i>
-    <i r="4">
-      <x v="16"/>
-    </i>
-    <i r="5">
-      <x v="50"/>
-    </i>
-    <i r="4">
-      <x v="17"/>
-    </i>
-    <i r="5">
-      <x v="51"/>
-    </i>
-    <i r="4">
-      <x v="23"/>
-    </i>
-    <i r="5">
-      <x/>
-    </i>
-    <i r="4">
-      <x v="26"/>
-    </i>
-    <i r="5">
-      <x v="55"/>
-    </i>
-    <i r="4">
-      <x v="45"/>
-    </i>
-    <i r="5">
-      <x v="66"/>
-    </i>
-    <i r="4">
-      <x v="52"/>
-    </i>
-    <i r="5">
-      <x v="68"/>
-    </i>
-    <i r="4">
-      <x v="62"/>
-    </i>
-    <i r="5">
-      <x v="74"/>
-    </i>
-    <i r="4">
-      <x v="73"/>
-    </i>
-    <i r="5">
-      <x v="81"/>
-    </i>
-    <i r="4">
-      <x v="89"/>
-    </i>
-    <i r="5">
-      <x v="63"/>
-    </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
       <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="9"/>
+    </i>
+    <i r="3">
+      <x v="13"/>
+    </i>
+    <i r="3">
+      <x v="17"/>
     </i>
     <i r="1">
       <x v="1"/>
@@ -4593,77 +4428,26 @@
     <i r="3">
       <x v="2"/>
     </i>
-    <i r="4">
-      <x v="10"/>
-    </i>
-    <i r="5">
-      <x v="46"/>
-    </i>
-    <i r="4">
-      <x v="13"/>
-    </i>
-    <i r="5">
-      <x v="9"/>
-    </i>
-    <i r="4">
-      <x v="20"/>
-    </i>
-    <i r="5">
-      <x v="12"/>
-    </i>
-    <i r="4">
-      <x v="41"/>
-    </i>
-    <i r="5">
-      <x v="64"/>
-    </i>
-    <i r="4">
-      <x v="48"/>
-    </i>
-    <i r="5">
-      <x v="90"/>
-    </i>
-    <i r="4">
-      <x v="90"/>
-    </i>
-    <i r="5">
-      <x v="38"/>
-    </i>
     <i r="3">
       <x v="10"/>
     </i>
-    <i r="4">
-      <x v="74"/>
-    </i>
-    <i r="5">
-      <x v="2"/>
-    </i>
     <i r="3">
       <x v="14"/>
-    </i>
-    <i r="4">
-      <x v="55"/>
-    </i>
-    <i r="5">
-      <x v="27"/>
-    </i>
-    <i r="4">
-      <x v="63"/>
-    </i>
-    <i r="5">
-      <x v="75"/>
-    </i>
-    <i r="4">
-      <x v="64"/>
-    </i>
-    <i r="5">
-      <x v="76"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i r="1">
       <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
     </i>
     <i r="1">
       <x v="1"/>
@@ -4674,83 +4458,20 @@
     <i r="3">
       <x v="3"/>
     </i>
-    <i r="4">
-      <x/>
-    </i>
-    <i r="5">
-      <x v="42"/>
-    </i>
-    <i r="4">
-      <x v="29"/>
-    </i>
-    <i r="5">
-      <x v="57"/>
-    </i>
-    <i r="4">
-      <x v="40"/>
-    </i>
-    <i r="5">
-      <x v="62"/>
-    </i>
-    <i r="4">
-      <x v="44"/>
-    </i>
-    <i r="5">
-      <x v="23"/>
-    </i>
-    <i r="4">
-      <x v="66"/>
-    </i>
-    <i r="5">
-      <x v="78"/>
-    </i>
-    <i r="4">
-      <x v="76"/>
-    </i>
-    <i r="5">
-      <x v="82"/>
-    </i>
-    <i r="4">
-      <x v="80"/>
-    </i>
-    <i r="5">
-      <x v="85"/>
-    </i>
-    <i r="4">
-      <x v="88"/>
-    </i>
-    <i r="5">
-      <x v="37"/>
-    </i>
-    <i r="4">
-      <x v="96"/>
-    </i>
-    <i r="5">
-      <x v="97"/>
-    </i>
     <i r="3">
       <x v="16"/>
-    </i>
-    <i r="4">
-      <x v="34"/>
-    </i>
-    <i r="5">
-      <x v="18"/>
-    </i>
-    <i r="5">
-      <x v="60"/>
-    </i>
-    <i r="4">
-      <x v="35"/>
-    </i>
-    <i r="5">
-      <x v="41"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i r="1">
       <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
     </i>
     <i r="1">
       <x v="1"/>
@@ -4761,20 +4482,8 @@
     <i r="3">
       <x v="11"/>
     </i>
-    <i r="4">
-      <x v="36"/>
-    </i>
-    <i r="5">
-      <x v="19"/>
-    </i>
     <i r="3">
       <x v="15"/>
-    </i>
-    <i r="4">
-      <x v="9"/>
-    </i>
-    <i r="5">
-      <x v="8"/>
     </i>
     <i r="2">
       <x v="5"/>
@@ -4782,50 +4491,8 @@
     <i r="3">
       <x v="3"/>
     </i>
-    <i r="4">
-      <x v="33"/>
-    </i>
-    <i r="5">
-      <x v="59"/>
-    </i>
-    <i r="4">
-      <x v="38"/>
-    </i>
-    <i r="5">
-      <x v="21"/>
-    </i>
-    <i r="4">
-      <x v="39"/>
-    </i>
-    <i r="5">
-      <x v="61"/>
-    </i>
-    <i r="4">
-      <x v="56"/>
-    </i>
-    <i r="5">
-      <x v="70"/>
-    </i>
-    <i r="4">
-      <x v="81"/>
-    </i>
-    <i r="5">
-      <x v="86"/>
-    </i>
-    <i r="4">
-      <x v="83"/>
-    </i>
-    <i r="5">
-      <x v="88"/>
-    </i>
     <i r="3">
       <x v="16"/>
-    </i>
-    <i r="4">
-      <x v="3"/>
-    </i>
-    <i r="5">
-      <x v="4"/>
     </i>
     <i>
       <x v="5"/>
@@ -10788,12 +10455,12 @@
   <dimension ref="A1:AM260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="9" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="14" customWidth="1"/>
@@ -10990,30 +10657,30 @@
       <c r="T5"/>
     </row>
     <row r="6" spans="1:39">
-      <c r="A6" s="5" t="s">
-        <v>174</v>
+      <c r="A6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13">
-        <v>59208</v>
+        <v>2325</v>
       </c>
       <c r="D6" s="13">
-        <v>84705</v>
+        <v>25728</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H6" s="25">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="18">
-        <v>143913</v>
+        <v>28053</v>
       </c>
       <c r="K6" s="13">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -11026,30 +10693,30 @@
       <c r="T6"/>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
-        <v>175</v>
+      <c r="A7" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13">
-        <v>59208</v>
+        <v>2325</v>
       </c>
       <c r="D7" s="13">
-        <v>84705</v>
+        <v>25728</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="24"/>
       <c r="G7" s="25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H7" s="25">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="18">
-        <v>143913</v>
+        <v>28053</v>
       </c>
       <c r="K7" s="13">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -11062,30 +10729,30 @@
       <c r="T7"/>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="7" t="s">
-        <v>176</v>
+      <c r="A8" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13">
-        <v>10962</v>
+        <v>59208</v>
       </c>
       <c r="D8" s="13">
-        <v>43941</v>
+        <v>84705</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H8" s="25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="18">
-        <v>54903</v>
+        <v>143913</v>
       </c>
       <c r="K8" s="13">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -11098,26 +10765,30 @@
       <c r="T8"/>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="8" t="s">
-        <v>177</v>
+      <c r="A9" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="13">
+        <v>59208</v>
+      </c>
       <c r="D9" s="13">
-        <v>10467</v>
+        <v>84705</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="G9" s="25">
+        <v>10</v>
+      </c>
       <c r="H9" s="25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="18">
-        <v>10467</v>
+        <v>143913</v>
       </c>
       <c r="K9" s="13">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -11130,26 +10801,30 @@
       <c r="T9"/>
     </row>
     <row r="10" spans="1:39">
-      <c r="A10" s="16" t="s">
-        <v>180</v>
+      <c r="A10" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="C10" s="13">
+        <v>10962</v>
+      </c>
       <c r="D10" s="13">
-        <v>10467</v>
+        <v>43941</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="25">
+        <v>2</v>
+      </c>
       <c r="H10" s="25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="18">
-        <v>10467</v>
+        <v>54903</v>
       </c>
       <c r="K10" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -11162,26 +10837,30 @@
       <c r="T10"/>
     </row>
     <row r="11" spans="1:39">
-      <c r="A11" s="8" t="s">
-        <v>181</v>
+      <c r="A11" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>37902</v>
+      </c>
       <c r="D11" s="13">
-        <v>21540</v>
+        <v>24024</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="25">
+        <v>5</v>
+      </c>
       <c r="H11" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="18">
-        <v>21540</v>
+        <v>61926</v>
       </c>
       <c r="K11" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
@@ -11194,26 +10873,30 @@
       <c r="T11"/>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="16" t="s">
-        <v>184</v>
+      <c r="A12" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>8727</v>
+      </c>
       <c r="D12" s="13">
-        <v>21540</v>
+        <v>16740</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="25">
+        <v>2</v>
+      </c>
       <c r="H12" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="18">
-        <v>21540</v>
+        <v>25467</v>
       </c>
       <c r="K12" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
@@ -11226,12 +10909,12 @@
       <c r="T12"/>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" s="8" t="s">
-        <v>185</v>
+      <c r="A13" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13">
-        <v>5049</v>
+        <v>1617</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -11242,7 +10925,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="18">
-        <v>5049</v>
+        <v>1617</v>
       </c>
       <c r="K13" s="13">
         <v>1</v>
@@ -11258,26 +10941,34 @@
       <c r="T13"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13">
-        <v>5049</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25">
+      <c r="A14" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="15">
+        <v>2514</v>
+      </c>
+      <c r="C14" s="15">
+        <v>588</v>
+      </c>
+      <c r="D14" s="15">
+        <v>29181</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="26">
         <v>1</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="18">
-        <v>5049</v>
-      </c>
-      <c r="K14" s="13">
+      <c r="G14" s="27">
         <v>1</v>
+      </c>
+      <c r="H14" s="27">
+        <v>11</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="19">
+        <v>32283</v>
+      </c>
+      <c r="K14" s="15">
+        <v>13</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
@@ -11290,26 +10981,34 @@
       <c r="T14"/>
     </row>
     <row r="15" spans="1:39">
-      <c r="A15" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="13">
+        <v>2514</v>
+      </c>
+      <c r="C15" s="13">
+        <v>588</v>
+      </c>
       <c r="D15" s="13">
-        <v>5157</v>
+        <v>29181</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
+      <c r="F15" s="24">
+        <v>1</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1</v>
+      </c>
       <c r="H15" s="25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="18">
-        <v>5157</v>
+        <v>32283</v>
       </c>
       <c r="K15" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
@@ -11322,26 +11021,34 @@
       <c r="T15"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="13">
+        <v>2514</v>
+      </c>
+      <c r="C16" s="13">
+        <v>588</v>
+      </c>
       <c r="D16" s="13">
-        <v>5157</v>
+        <v>29181</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
+      <c r="F16" s="24">
+        <v>1</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1</v>
+      </c>
       <c r="H16" s="25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="18">
-        <v>5157</v>
+        <v>32283</v>
       </c>
       <c r="K16" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>
@@ -11354,26 +11061,34 @@
       <c r="T16"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="13">
+        <v>2514</v>
+      </c>
+      <c r="C17" s="13">
+        <v>588</v>
+      </c>
       <c r="D17" s="13">
-        <v>1836</v>
+        <v>29181</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
+      <c r="F17" s="24">
+        <v>1</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1</v>
+      </c>
       <c r="H17" s="25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="18">
-        <v>1836</v>
+        <v>32283</v>
       </c>
       <c r="K17" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
@@ -11386,26 +11101,34 @@
       <c r="T17"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="13">
+        <v>777</v>
+      </c>
+      <c r="C18" s="13">
+        <v>81990</v>
+      </c>
       <c r="D18" s="13">
-        <v>1836</v>
+        <v>47031</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
+      <c r="G18" s="25">
+        <v>19</v>
+      </c>
       <c r="H18" s="25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="18">
-        <v>1836</v>
+        <v>129798</v>
       </c>
       <c r="K18" s="13">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -11418,26 +11141,30 @@
       <c r="T18"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="8" t="s">
-        <v>197</v>
+      <c r="A19" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13">
-        <v>5913</v>
-      </c>
-      <c r="D19" s="13"/>
+        <v>58203</v>
+      </c>
+      <c r="D19" s="13">
+        <v>13869</v>
+      </c>
       <c r="E19" s="13"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25">
-        <v>1</v>
-      </c>
-      <c r="H19" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="H19" s="25">
+        <v>6</v>
+      </c>
       <c r="I19" s="25"/>
       <c r="J19" s="18">
-        <v>5913</v>
+        <v>72072</v>
       </c>
       <c r="K19" s="13">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="L19"/>
       <c r="M19"/>
@@ -11450,12 +11177,12 @@
       <c r="T19"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="16" t="s">
-        <v>200</v>
+      <c r="A20" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13">
-        <v>5913</v>
+        <v>657</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -11466,7 +11193,7 @@
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="18">
-        <v>5913</v>
+        <v>657</v>
       </c>
       <c r="K20" s="13">
         <v>1</v>
@@ -11482,23 +11209,23 @@
       <c r="T20"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="8" t="s">
-        <v>201</v>
+      <c r="A21" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13">
-        <v>876</v>
-      </c>
+      <c r="C21" s="13">
+        <v>657</v>
+      </c>
+      <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25">
+      <c r="G21" s="25">
         <v>1</v>
       </c>
+      <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="18">
-        <v>876</v>
+        <v>657</v>
       </c>
       <c r="K21" s="13">
         <v>1</v>
@@ -11514,26 +11241,30 @@
       <c r="T21"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="16" t="s">
-        <v>204</v>
+      <c r="A22" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13">
+        <v>23832</v>
+      </c>
       <c r="D22" s="13">
-        <v>876</v>
+        <v>11157</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
+      <c r="G22" s="25">
+        <v>7</v>
+      </c>
       <c r="H22" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="18">
-        <v>876</v>
+        <v>34989</v>
       </c>
       <c r="K22" s="13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L22"/>
       <c r="M22"/>
@@ -11546,23 +11277,23 @@
       <c r="T22"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="8" t="s">
-        <v>205</v>
+      <c r="A23" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13">
-        <v>4065</v>
-      </c>
+      <c r="C23" s="13">
+        <v>1821</v>
+      </c>
+      <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25">
+      <c r="G23" s="25">
         <v>1</v>
       </c>
+      <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="18">
-        <v>4065</v>
+        <v>1821</v>
       </c>
       <c r="K23" s="13">
         <v>1</v>
@@ -11578,26 +11309,30 @@
       <c r="T23"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="16" t="s">
-        <v>208</v>
+      <c r="A24" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13">
+        <v>6654</v>
+      </c>
       <c r="D24" s="13">
-        <v>4065</v>
+        <v>6513</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
+      <c r="G24" s="25">
+        <v>2</v>
+      </c>
       <c r="H24" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" s="25"/>
       <c r="J24" s="18">
-        <v>4065</v>
+        <v>13167</v>
       </c>
       <c r="K24" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -11611,29 +11346,25 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="7" t="s">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13">
-        <v>37902</v>
-      </c>
-      <c r="D25" s="13">
-        <v>24024</v>
-      </c>
+        <v>3582</v>
+      </c>
+      <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="24"/>
       <c r="G25" s="25">
-        <v>5</v>
-      </c>
-      <c r="H25" s="25">
         <v>2</v>
       </c>
+      <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="18">
-        <v>61926</v>
+        <v>3582</v>
       </c>
       <c r="K25" s="13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -11646,26 +11377,30 @@
       <c r="T25"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="8" t="s">
-        <v>210</v>
+      <c r="A26" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13">
-        <v>8853</v>
-      </c>
-      <c r="D26" s="13"/>
+        <v>11775</v>
+      </c>
+      <c r="D26" s="13">
+        <v>4644</v>
+      </c>
       <c r="E26" s="13"/>
       <c r="F26" s="24"/>
       <c r="G26" s="25">
+        <v>2</v>
+      </c>
+      <c r="H26" s="25">
         <v>1</v>
       </c>
-      <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="18">
-        <v>8853</v>
+        <v>16419</v>
       </c>
       <c r="K26" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -11678,26 +11413,30 @@
       <c r="T26"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="16" t="s">
-        <v>213</v>
+      <c r="A27" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13">
-        <v>8853</v>
-      </c>
-      <c r="D27" s="13"/>
+        <v>33714</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2712</v>
+      </c>
       <c r="E27" s="13"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25">
-        <v>1</v>
-      </c>
-      <c r="H27" s="25"/>
+        <v>7</v>
+      </c>
+      <c r="H27" s="25">
+        <v>2</v>
+      </c>
       <c r="I27" s="25"/>
       <c r="J27" s="18">
-        <v>8853</v>
+        <v>36426</v>
       </c>
       <c r="K27" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L27"/>
       <c r="M27"/>
@@ -11710,26 +11449,30 @@
       <c r="T27"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="8" t="s">
-        <v>214</v>
+      <c r="A28" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13">
-        <v>6729</v>
-      </c>
-      <c r="D28" s="13"/>
+        <v>21552</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1665</v>
+      </c>
       <c r="E28" s="13"/>
       <c r="F28" s="24"/>
       <c r="G28" s="25">
+        <v>3</v>
+      </c>
+      <c r="H28" s="25">
         <v>1</v>
       </c>
-      <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="18">
-        <v>6729</v>
+        <v>23217</v>
       </c>
       <c r="K28" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -11742,26 +11485,30 @@
       <c r="T28"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="16" t="s">
-        <v>217</v>
+      <c r="A29" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13">
-        <v>6729</v>
-      </c>
-      <c r="D29" s="13"/>
+        <v>2793</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1047</v>
+      </c>
       <c r="E29" s="13"/>
       <c r="F29" s="24"/>
       <c r="G29" s="25">
         <v>1</v>
       </c>
-      <c r="H29" s="25"/>
+      <c r="H29" s="25">
+        <v>1</v>
+      </c>
       <c r="I29" s="25"/>
       <c r="J29" s="18">
-        <v>6729</v>
+        <v>3840</v>
       </c>
       <c r="K29" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29"/>
       <c r="M29"/>
@@ -11774,26 +11521,26 @@
       <c r="T29"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="8" t="s">
-        <v>218</v>
+      <c r="A30" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13">
-        <v>4509</v>
+        <v>9369</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="24"/>
       <c r="G30" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="18">
-        <v>4509</v>
+        <v>9369</v>
       </c>
       <c r="K30" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -11806,26 +11553,34 @@
       <c r="T30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B31" s="13"/>
+      <c r="A31" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="13">
+        <v>777</v>
+      </c>
       <c r="C31" s="13">
-        <v>4509</v>
-      </c>
-      <c r="D31" s="13"/>
+        <v>23787</v>
+      </c>
+      <c r="D31" s="13">
+        <v>33162</v>
+      </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="24">
+        <v>1</v>
+      </c>
       <c r="G31" s="25">
-        <v>1</v>
-      </c>
-      <c r="H31" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="H31" s="25">
+        <v>5</v>
+      </c>
       <c r="I31" s="25"/>
       <c r="J31" s="18">
-        <v>4509</v>
+        <v>57726</v>
       </c>
       <c r="K31" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -11838,26 +11593,34 @@
       <c r="T31"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B32" s="13"/>
+      <c r="A32" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="13">
+        <v>777</v>
+      </c>
       <c r="C32" s="13">
-        <v>234</v>
-      </c>
-      <c r="D32" s="13"/>
+        <v>23787</v>
+      </c>
+      <c r="D32" s="13">
+        <v>33162</v>
+      </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="24"/>
+      <c r="F32" s="24">
+        <v>1</v>
+      </c>
       <c r="G32" s="25">
-        <v>1</v>
-      </c>
-      <c r="H32" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="H32" s="25">
+        <v>5</v>
+      </c>
       <c r="I32" s="25"/>
       <c r="J32" s="18">
-        <v>234</v>
+        <v>57726</v>
       </c>
       <c r="K32" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -11870,26 +11633,30 @@
       <c r="T32"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="16" t="s">
-        <v>225</v>
+      <c r="A33" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13">
-        <v>234</v>
-      </c>
-      <c r="D33" s="13"/>
+        <v>21345</v>
+      </c>
+      <c r="D33" s="13">
+        <v>13086</v>
+      </c>
       <c r="E33" s="13"/>
       <c r="F33" s="24"/>
       <c r="G33" s="25">
-        <v>1</v>
-      </c>
-      <c r="H33" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="H33" s="25">
+        <v>3</v>
+      </c>
       <c r="I33" s="25"/>
       <c r="J33" s="18">
-        <v>234</v>
+        <v>34431</v>
       </c>
       <c r="K33" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -11902,23 +11669,23 @@
       <c r="T33"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B34" s="13"/>
+      <c r="A34" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="13">
+        <v>777</v>
+      </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="13">
-        <v>7539</v>
-      </c>
+      <c r="D34" s="13"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="24"/>
+      <c r="F34" s="24">
+        <v>1</v>
+      </c>
       <c r="G34" s="25"/>
-      <c r="H34" s="25">
-        <v>1</v>
-      </c>
+      <c r="H34" s="25"/>
       <c r="I34" s="25"/>
       <c r="J34" s="18">
-        <v>7539</v>
+        <v>777</v>
       </c>
       <c r="K34" s="13">
         <v>1</v>
@@ -11934,26 +11701,30 @@
       <c r="T34"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="16" t="s">
-        <v>229</v>
+      <c r="A35" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="13">
+        <v>2442</v>
+      </c>
       <c r="D35" s="13">
-        <v>7539</v>
+        <v>20076</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
+      <c r="G35" s="25">
+        <v>1</v>
+      </c>
       <c r="H35" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="25"/>
       <c r="J35" s="18">
-        <v>7539</v>
+        <v>22518</v>
       </c>
       <c r="K35" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35"/>
       <c r="M35"/>
@@ -11966,26 +11737,30 @@
       <c r="T35"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="8" t="s">
-        <v>230</v>
+      <c r="A36" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13">
-        <v>17577</v>
-      </c>
-      <c r="D36" s="13"/>
+        <v>18426</v>
+      </c>
+      <c r="D36" s="13">
+        <v>75972</v>
+      </c>
       <c r="E36" s="13"/>
       <c r="F36" s="24"/>
       <c r="G36" s="25">
-        <v>1</v>
-      </c>
-      <c r="H36" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="H36" s="25">
+        <v>12</v>
+      </c>
       <c r="I36" s="25"/>
       <c r="J36" s="18">
-        <v>17577</v>
+        <v>94398</v>
       </c>
       <c r="K36" s="13">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L36"/>
       <c r="M36"/>
@@ -11998,26 +11773,26 @@
       <c r="T36"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="16" t="s">
-        <v>233</v>
+      <c r="A37" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B37" s="13"/>
-      <c r="C37" s="13">
-        <v>17577</v>
-      </c>
-      <c r="D37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13">
+        <v>21006</v>
+      </c>
       <c r="E37" s="13"/>
       <c r="F37" s="24"/>
-      <c r="G37" s="25">
-        <v>1</v>
-      </c>
-      <c r="H37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25">
+        <v>4</v>
+      </c>
       <c r="I37" s="25"/>
       <c r="J37" s="18">
-        <v>17577</v>
+        <v>21006</v>
       </c>
       <c r="K37" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L37"/>
       <c r="M37"/>
@@ -12030,26 +11805,26 @@
       <c r="T37"/>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="8" t="s">
-        <v>234</v>
+      <c r="A38" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13">
-        <v>16485</v>
+        <v>21006</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="24"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38" s="25"/>
       <c r="J38" s="18">
-        <v>16485</v>
+        <v>21006</v>
       </c>
       <c r="K38" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L38"/>
       <c r="M38"/>
@@ -12062,26 +11837,26 @@
       <c r="T38"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="16" t="s">
-        <v>237</v>
+      <c r="A39" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13">
-        <v>16485</v>
+        <v>17196</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="24"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39" s="25"/>
       <c r="J39" s="18">
-        <v>16485</v>
+        <v>17196</v>
       </c>
       <c r="K39" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L39"/>
       <c r="M39"/>
@@ -12095,29 +11870,25 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="7" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="B40" s="13"/>
-      <c r="C40" s="13">
-        <v>8727</v>
-      </c>
+      <c r="C40" s="13"/>
       <c r="D40" s="13">
-        <v>16740</v>
+        <v>3810</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="24"/>
-      <c r="G40" s="25">
-        <v>2</v>
-      </c>
+      <c r="G40" s="25"/>
       <c r="H40" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" s="25"/>
       <c r="J40" s="18">
-        <v>25467</v>
+        <v>3810</v>
       </c>
       <c r="K40" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L40"/>
       <c r="M40"/>
@@ -12130,26 +11901,30 @@
       <c r="T40"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="8" t="s">
-        <v>239</v>
+      <c r="A41" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13">
-        <v>5298</v>
-      </c>
-      <c r="D41" s="13"/>
+        <v>18426</v>
+      </c>
+      <c r="D41" s="13">
+        <v>54966</v>
+      </c>
       <c r="E41" s="13"/>
       <c r="F41" s="24"/>
       <c r="G41" s="25">
-        <v>1</v>
-      </c>
-      <c r="H41" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="H41" s="25">
+        <v>8</v>
+      </c>
       <c r="I41" s="25"/>
       <c r="J41" s="18">
-        <v>5298</v>
+        <v>73392</v>
       </c>
       <c r="K41" s="13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -12162,26 +11937,30 @@
       <c r="T41"/>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="16" t="s">
-        <v>242</v>
+      <c r="A42" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="13">
-        <v>5298</v>
-      </c>
-      <c r="D42" s="13"/>
+        <v>18426</v>
+      </c>
+      <c r="D42" s="13">
+        <v>54966</v>
+      </c>
       <c r="E42" s="13"/>
       <c r="F42" s="24"/>
       <c r="G42" s="25">
-        <v>1</v>
-      </c>
-      <c r="H42" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="H42" s="25">
+        <v>8</v>
+      </c>
       <c r="I42" s="25"/>
       <c r="J42" s="18">
-        <v>5298</v>
+        <v>73392</v>
       </c>
       <c r="K42" s="13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L42"/>
       <c r="M42"/>
@@ -12194,26 +11973,30 @@
       <c r="T42"/>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="8" t="s">
-        <v>243</v>
+      <c r="A43" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+      <c r="C43" s="13">
+        <v>9552</v>
+      </c>
       <c r="D43" s="13">
-        <v>4989</v>
+        <v>33306</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="24"/>
-      <c r="G43" s="25"/>
+      <c r="G43" s="25">
+        <v>2</v>
+      </c>
       <c r="H43" s="25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I43" s="25"/>
       <c r="J43" s="18">
-        <v>4989</v>
+        <v>42858</v>
       </c>
       <c r="K43" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -12226,26 +12009,30 @@
       <c r="T43"/>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" s="16" t="s">
-        <v>246</v>
+      <c r="A44" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="C44" s="13">
+        <v>8874</v>
+      </c>
       <c r="D44" s="13">
-        <v>4989</v>
+        <v>21660</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
+      <c r="G44" s="25">
+        <v>2</v>
+      </c>
       <c r="H44" s="25">
         <v>1</v>
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="18">
-        <v>4989</v>
+        <v>30534</v>
       </c>
       <c r="K44" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L44"/>
       <c r="M44"/>
@@ -12258,26 +12045,34 @@
       <c r="T44"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="13">
+        <v>4047</v>
+      </c>
+      <c r="C45" s="13">
+        <v>10098</v>
+      </c>
       <c r="D45" s="13">
-        <v>7386</v>
+        <v>48333</v>
       </c>
       <c r="E45" s="13"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
+      <c r="F45" s="24">
+        <v>1</v>
+      </c>
+      <c r="G45" s="25">
+        <v>4</v>
+      </c>
       <c r="H45" s="25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I45" s="25"/>
       <c r="J45" s="18">
-        <v>7386</v>
+        <v>62478</v>
       </c>
       <c r="K45" s="13">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L45"/>
       <c r="M45"/>
@@ -12290,26 +12085,30 @@
       <c r="T45"/>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="B46" s="13"/>
+      <c r="A46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="13">
+        <v>4047</v>
+      </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13">
-        <v>7386</v>
+        <v>21378</v>
       </c>
       <c r="E46" s="13"/>
-      <c r="F46" s="24"/>
+      <c r="F46" s="24">
+        <v>1</v>
+      </c>
       <c r="G46" s="25"/>
       <c r="H46" s="25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I46" s="25"/>
       <c r="J46" s="18">
-        <v>7386</v>
+        <v>25425</v>
       </c>
       <c r="K46" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L46"/>
       <c r="M46"/>
@@ -12322,26 +12121,30 @@
       <c r="T46"/>
     </row>
     <row r="47" spans="1:20">
-      <c r="A47" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B47" s="13"/>
+      <c r="A47" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="13">
+        <v>4047</v>
+      </c>
       <c r="C47" s="13"/>
       <c r="D47" s="13">
-        <v>4365</v>
+        <v>21378</v>
       </c>
       <c r="E47" s="13"/>
-      <c r="F47" s="24"/>
+      <c r="F47" s="24">
+        <v>1</v>
+      </c>
       <c r="G47" s="25"/>
       <c r="H47" s="25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I47" s="25"/>
       <c r="J47" s="18">
-        <v>4365</v>
+        <v>25425</v>
       </c>
       <c r="K47" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L47"/>
       <c r="M47"/>
@@ -12354,26 +12157,30 @@
       <c r="T47"/>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B48" s="13"/>
+      <c r="A48" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="13">
+        <v>4047</v>
+      </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13">
-        <v>4365</v>
+        <v>21378</v>
       </c>
       <c r="E48" s="13"/>
-      <c r="F48" s="24"/>
+      <c r="F48" s="24">
+        <v>1</v>
+      </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I48" s="25"/>
       <c r="J48" s="18">
-        <v>4365</v>
+        <v>25425</v>
       </c>
       <c r="K48" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L48"/>
       <c r="M48"/>
@@ -12386,26 +12193,30 @@
       <c r="T48"/>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="8" t="s">
-        <v>255</v>
+      <c r="A49" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13">
-        <v>3429</v>
-      </c>
-      <c r="D49" s="13"/>
+        <v>10098</v>
+      </c>
+      <c r="D49" s="13">
+        <v>26955</v>
+      </c>
       <c r="E49" s="13"/>
       <c r="F49" s="24"/>
       <c r="G49" s="25">
-        <v>1</v>
-      </c>
-      <c r="H49" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="H49" s="25">
+        <v>5</v>
+      </c>
       <c r="I49" s="25"/>
       <c r="J49" s="18">
-        <v>3429</v>
+        <v>37053</v>
       </c>
       <c r="K49" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L49"/>
       <c r="M49"/>
@@ -12418,26 +12229,26 @@
       <c r="T49"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="16" t="s">
-        <v>258</v>
+      <c r="A50" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="13">
-        <v>3429</v>
+        <v>2685</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="24"/>
       <c r="G50" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="18">
-        <v>3429</v>
+        <v>2685</v>
       </c>
       <c r="K50" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50"/>
       <c r="M50"/>
@@ -12451,11 +12262,11 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="7" t="s">
-        <v>259</v>
+        <v>409</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13">
-        <v>1617</v>
+        <v>999</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -12466,7 +12277,7 @@
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="18">
-        <v>1617</v>
+        <v>999</v>
       </c>
       <c r="K51" s="13">
         <v>1</v>
@@ -12482,12 +12293,12 @@
       <c r="T51"/>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="8" t="s">
-        <v>260</v>
+      <c r="A52" s="7" t="s">
+        <v>414</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13">
-        <v>1617</v>
+        <v>1686</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -12498,7 +12309,7 @@
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="18">
-        <v>1617</v>
+        <v>1686</v>
       </c>
       <c r="K52" s="13">
         <v>1</v>
@@ -12514,26 +12325,30 @@
       <c r="T52"/>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="16" t="s">
-        <v>263</v>
+      <c r="A53" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="13">
-        <v>1617</v>
-      </c>
-      <c r="D53" s="13"/>
+        <v>7413</v>
+      </c>
+      <c r="D53" s="13">
+        <v>26955</v>
+      </c>
       <c r="E53" s="13"/>
       <c r="F53" s="24"/>
       <c r="G53" s="25">
-        <v>1</v>
-      </c>
-      <c r="H53" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="H53" s="25">
+        <v>5</v>
+      </c>
       <c r="I53" s="25"/>
       <c r="J53" s="18">
-        <v>1617</v>
+        <v>34368</v>
       </c>
       <c r="K53" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L53"/>
       <c r="M53"/>
@@ -12546,34 +12361,30 @@
       <c r="T53"/>
     </row>
     <row r="54" spans="1:20">
-      <c r="A54" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="B54" s="15">
-        <v>2514</v>
-      </c>
-      <c r="C54" s="15">
-        <v>588</v>
-      </c>
-      <c r="D54" s="15">
-        <v>29181</v>
-      </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="26">
+      <c r="A54" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13">
+        <v>3633</v>
+      </c>
+      <c r="D54" s="13">
+        <v>26955</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25">
         <v>1</v>
       </c>
-      <c r="G54" s="27">
-        <v>1</v>
-      </c>
-      <c r="H54" s="27">
-        <v>11</v>
-      </c>
-      <c r="I54" s="27"/>
-      <c r="J54" s="19">
-        <v>32283</v>
-      </c>
-      <c r="K54" s="15">
-        <v>13</v>
+      <c r="H54" s="25">
+        <v>5</v>
+      </c>
+      <c r="I54" s="25"/>
+      <c r="J54" s="18">
+        <v>30588</v>
+      </c>
+      <c r="K54" s="13">
+        <v>6</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
@@ -12586,34 +12397,26 @@
       <c r="T54"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B55" s="13">
-        <v>2514</v>
-      </c>
+      <c r="A55" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B55" s="13"/>
       <c r="C55" s="13">
-        <v>588</v>
-      </c>
-      <c r="D55" s="13">
-        <v>29181</v>
-      </c>
+        <v>3780</v>
+      </c>
+      <c r="D55" s="13"/>
       <c r="E55" s="13"/>
-      <c r="F55" s="24">
-        <v>1</v>
-      </c>
+      <c r="F55" s="24"/>
       <c r="G55" s="25">
         <v>1</v>
       </c>
-      <c r="H55" s="25">
-        <v>11</v>
-      </c>
+      <c r="H55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="18">
-        <v>32283</v>
+        <v>3780</v>
       </c>
       <c r="K55" s="13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L55"/>
       <c r="M55"/>
@@ -12626,35 +12429,19 @@
       <c r="T55"/>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B56" s="13">
-        <v>2514</v>
-      </c>
-      <c r="C56" s="13">
-        <v>588</v>
-      </c>
-      <c r="D56" s="13">
-        <v>29181</v>
-      </c>
+      <c r="A56" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
       <c r="E56" s="13"/>
-      <c r="F56" s="24">
-        <v>1</v>
-      </c>
-      <c r="G56" s="25">
-        <v>1</v>
-      </c>
-      <c r="H56" s="25">
-        <v>11</v>
-      </c>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
       <c r="I56" s="25"/>
-      <c r="J56" s="18">
-        <v>32283</v>
-      </c>
-      <c r="K56" s="13">
-        <v>13</v>
-      </c>
+      <c r="J56" s="18"/>
+      <c r="K56" s="13"/>
       <c r="L56"/>
       <c r="M56"/>
       <c r="N56"/>
@@ -12666,35 +12453,19 @@
       <c r="T56"/>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B57" s="13">
-        <v>2514</v>
-      </c>
-      <c r="C57" s="13">
-        <v>588</v>
-      </c>
-      <c r="D57" s="13">
-        <v>29181</v>
-      </c>
+      <c r="A57" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="13"/>
-      <c r="F57" s="24">
-        <v>1</v>
-      </c>
-      <c r="G57" s="25">
-        <v>1</v>
-      </c>
-      <c r="H57" s="25">
-        <v>11</v>
-      </c>
+      <c r="F57" s="24"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="18">
-        <v>32283</v>
-      </c>
-      <c r="K57" s="13">
-        <v>13</v>
-      </c>
+      <c r="J57" s="18"/>
+      <c r="K57" s="13"/>
       <c r="L57"/>
       <c r="M57"/>
       <c r="N57"/>
@@ -12706,27 +12477,19 @@
       <c r="T57"/>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" s="8" t="s">
-        <v>267</v>
+      <c r="A58" s="6" t="s">
+        <v>454</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
-      <c r="D58" s="13">
-        <v>1476</v>
-      </c>
+      <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="24"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="25">
-        <v>1</v>
-      </c>
+      <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="18">
-        <v>1476</v>
-      </c>
-      <c r="K58" s="13">
-        <v>1</v>
-      </c>
+      <c r="J58" s="18"/>
+      <c r="K58" s="13"/>
       <c r="L58"/>
       <c r="M58"/>
       <c r="N58"/>
@@ -12738,27 +12501,19 @@
       <c r="T58"/>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="16" t="s">
-        <v>270</v>
+      <c r="A59" s="7" t="s">
+        <v>454</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="13">
-        <v>1476</v>
-      </c>
+      <c r="D59" s="13"/>
       <c r="E59" s="13"/>
       <c r="F59" s="24"/>
       <c r="G59" s="25"/>
-      <c r="H59" s="25">
-        <v>1</v>
-      </c>
+      <c r="H59" s="25"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="18">
-        <v>1476</v>
-      </c>
-      <c r="K59" s="13">
-        <v>1</v>
-      </c>
+      <c r="J59" s="18"/>
+      <c r="K59" s="13"/>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
@@ -12771,26 +12526,18 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="8" t="s">
-        <v>271</v>
+        <v>454</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
-      <c r="D60" s="13">
-        <v>4770</v>
-      </c>
+      <c r="D60" s="13"/>
       <c r="E60" s="13"/>
       <c r="F60" s="24"/>
       <c r="G60" s="25"/>
-      <c r="H60" s="25">
-        <v>1</v>
-      </c>
+      <c r="H60" s="25"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="18">
-        <v>4770</v>
-      </c>
-      <c r="K60" s="13">
-        <v>1</v>
-      </c>
+      <c r="J60" s="18"/>
+      <c r="K60" s="13"/>
       <c r="L60"/>
       <c r="M60"/>
       <c r="N60"/>
@@ -12803,26 +12550,18 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="16" t="s">
-        <v>274</v>
+        <v>454</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
-      <c r="D61" s="13">
-        <v>4770</v>
-      </c>
+      <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="24"/>
       <c r="G61" s="25"/>
-      <c r="H61" s="25">
-        <v>1</v>
-      </c>
+      <c r="H61" s="25"/>
       <c r="I61" s="25"/>
-      <c r="J61" s="18">
-        <v>4770</v>
-      </c>
-      <c r="K61" s="13">
-        <v>1</v>
-      </c>
+      <c r="J61" s="18"/>
+      <c r="K61" s="13"/>
       <c r="L61"/>
       <c r="M61"/>
       <c r="N61"/>
@@ -12834,26 +12573,34 @@
       <c r="T61"/>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B62" s="13"/>
+      <c r="A62" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B62" s="13">
+        <v>7338</v>
+      </c>
       <c r="C62" s="13">
-        <v>588</v>
-      </c>
-      <c r="D62" s="13"/>
+        <v>172635</v>
+      </c>
+      <c r="D62" s="13">
+        <v>310950</v>
+      </c>
       <c r="E62" s="13"/>
-      <c r="F62" s="24"/>
+      <c r="F62" s="24">
+        <v>3</v>
+      </c>
       <c r="G62" s="25">
-        <v>1</v>
-      </c>
-      <c r="H62" s="25"/>
+        <v>39</v>
+      </c>
+      <c r="H62" s="25">
+        <v>57</v>
+      </c>
       <c r="I62" s="25"/>
       <c r="J62" s="18">
-        <v>588</v>
+        <v>490923</v>
       </c>
       <c r="K62" s="13">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="L62"/>
       <c r="M62"/>
@@ -12866,27 +12613,16 @@
       <c r="T62"/>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13">
-        <v>588</v>
-      </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="25">
-        <v>1</v>
-      </c>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="18">
-        <v>588</v>
-      </c>
-      <c r="K63" s="13">
-        <v>1</v>
-      </c>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
       <c r="N63"/>
@@ -12898,27 +12634,16 @@
       <c r="T63"/>
     </row>
     <row r="64" spans="1:20">
-      <c r="A64" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13">
-        <v>528</v>
-      </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25">
-        <v>1</v>
-      </c>
-      <c r="I64" s="25"/>
-      <c r="J64" s="18">
-        <v>528</v>
-      </c>
-      <c r="K64" s="13">
-        <v>1</v>
-      </c>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
       <c r="L64"/>
       <c r="M64"/>
       <c r="N64"/>
@@ -12929,28 +12654,17 @@
       <c r="S64"/>
       <c r="T64"/>
     </row>
-    <row r="65" spans="1:20">
-      <c r="A65" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13">
-        <v>528</v>
-      </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25">
-        <v>1</v>
-      </c>
-      <c r="I65" s="25"/>
-      <c r="J65" s="18">
-        <v>528</v>
-      </c>
-      <c r="K65" s="13">
-        <v>1</v>
-      </c>
+    <row r="65" spans="2:20">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
       <c r="N65"/>
@@ -12961,28 +12675,17 @@
       <c r="S65"/>
       <c r="T65"/>
     </row>
-    <row r="66" spans="1:20">
-      <c r="A66" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13">
-        <v>2172</v>
-      </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25">
-        <v>1</v>
-      </c>
-      <c r="I66" s="25"/>
-      <c r="J66" s="18">
-        <v>2172</v>
-      </c>
-      <c r="K66" s="13">
-        <v>1</v>
-      </c>
+    <row r="66" spans="2:20">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
       <c r="L66"/>
       <c r="M66"/>
       <c r="N66"/>
@@ -12993,28 +12696,17 @@
       <c r="S66"/>
       <c r="T66"/>
     </row>
-    <row r="67" spans="1:20">
-      <c r="A67" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13">
-        <v>2172</v>
-      </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25">
-        <v>1</v>
-      </c>
-      <c r="I67" s="25"/>
-      <c r="J67" s="18">
-        <v>2172</v>
-      </c>
-      <c r="K67" s="13">
-        <v>1</v>
-      </c>
+    <row r="67" spans="2:20">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
       <c r="L67"/>
       <c r="M67"/>
       <c r="N67"/>
@@ -13025,28 +12717,17 @@
       <c r="S67"/>
       <c r="T67"/>
     </row>
-    <row r="68" spans="1:20">
-      <c r="A68" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13">
-        <v>15693</v>
-      </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25">
-        <v>1</v>
-      </c>
-      <c r="I68" s="25"/>
-      <c r="J68" s="18">
-        <v>15693</v>
-      </c>
-      <c r="K68" s="13">
-        <v>1</v>
-      </c>
+    <row r="68" spans="2:20">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
       <c r="L68"/>
       <c r="M68"/>
       <c r="N68"/>
@@ -13057,28 +12738,17 @@
       <c r="S68"/>
       <c r="T68"/>
     </row>
-    <row r="69" spans="1:20">
-      <c r="A69" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13">
-        <v>15693</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25">
-        <v>1</v>
-      </c>
-      <c r="I69" s="25"/>
-      <c r="J69" s="18">
-        <v>15693</v>
-      </c>
-      <c r="K69" s="13">
-        <v>1</v>
-      </c>
+    <row r="69" spans="2:20">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69"/>
@@ -13089,28 +12759,17 @@
       <c r="S69"/>
       <c r="T69"/>
     </row>
-    <row r="70" spans="1:20">
-      <c r="A70" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B70" s="13">
-        <v>2514</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="24">
-        <v>1</v>
-      </c>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="18">
-        <v>2514</v>
-      </c>
-      <c r="K70" s="13">
-        <v>1</v>
-      </c>
+    <row r="70" spans="2:20">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
@@ -13121,28 +12780,17 @@
       <c r="S70"/>
       <c r="T70"/>
     </row>
-    <row r="71" spans="1:20">
-      <c r="A71" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="B71" s="13">
-        <v>2514</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="24">
-        <v>1</v>
-      </c>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="18">
-        <v>2514</v>
-      </c>
-      <c r="K71" s="13">
-        <v>1</v>
-      </c>
+    <row r="71" spans="2:20">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71"/>
@@ -13153,28 +12801,17 @@
       <c r="S71"/>
       <c r="T71"/>
     </row>
-    <row r="72" spans="1:20">
-      <c r="A72" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13">
-        <v>96</v>
-      </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25">
-        <v>1</v>
-      </c>
-      <c r="I72" s="25"/>
-      <c r="J72" s="18">
-        <v>96</v>
-      </c>
-      <c r="K72" s="13">
-        <v>1</v>
-      </c>
+    <row r="72" spans="2:20">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72"/>
@@ -13185,28 +12822,17 @@
       <c r="S72"/>
       <c r="T72"/>
     </row>
-    <row r="73" spans="1:20">
-      <c r="A73" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13">
-        <v>96</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25">
-        <v>1</v>
-      </c>
-      <c r="I73" s="25"/>
-      <c r="J73" s="18">
-        <v>96</v>
-      </c>
-      <c r="K73" s="13">
-        <v>1</v>
-      </c>
+    <row r="73" spans="2:20">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
@@ -13217,28 +12843,17 @@
       <c r="S73"/>
       <c r="T73"/>
     </row>
-    <row r="74" spans="1:20">
-      <c r="A74" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13">
-        <v>1074</v>
-      </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25">
-        <v>1</v>
-      </c>
-      <c r="I74" s="25"/>
-      <c r="J74" s="18">
-        <v>1074</v>
-      </c>
-      <c r="K74" s="13">
-        <v>1</v>
-      </c>
+    <row r="74" spans="2:20">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
@@ -13249,28 +12864,17 @@
       <c r="S74"/>
       <c r="T74"/>
     </row>
-    <row r="75" spans="1:20">
-      <c r="A75" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13">
-        <v>1074</v>
-      </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25">
-        <v>1</v>
-      </c>
-      <c r="I75" s="25"/>
-      <c r="J75" s="18">
-        <v>1074</v>
-      </c>
-      <c r="K75" s="13">
-        <v>1</v>
-      </c>
+    <row r="75" spans="2:20">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75"/>
@@ -13281,28 +12885,17 @@
       <c r="S75"/>
       <c r="T75"/>
     </row>
-    <row r="76" spans="1:20">
-      <c r="A76" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13">
-        <v>336</v>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25">
-        <v>1</v>
-      </c>
-      <c r="I76" s="25"/>
-      <c r="J76" s="18">
-        <v>336</v>
-      </c>
-      <c r="K76" s="13">
-        <v>1</v>
-      </c>
+    <row r="76" spans="2:20">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
       <c r="N76"/>
@@ -13313,28 +12906,17 @@
       <c r="S76"/>
       <c r="T76"/>
     </row>
-    <row r="77" spans="1:20">
-      <c r="A77" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13">
-        <v>336</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25">
-        <v>1</v>
-      </c>
-      <c r="I77" s="25"/>
-      <c r="J77" s="18">
-        <v>336</v>
-      </c>
-      <c r="K77" s="13">
-        <v>1</v>
-      </c>
+    <row r="77" spans="2:20">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
@@ -13345,28 +12927,17 @@
       <c r="S77"/>
       <c r="T77"/>
     </row>
-    <row r="78" spans="1:20">
-      <c r="A78" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13">
-        <v>384</v>
-      </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25">
-        <v>1</v>
-      </c>
-      <c r="I78" s="25"/>
-      <c r="J78" s="18">
-        <v>384</v>
-      </c>
-      <c r="K78" s="13">
-        <v>1</v>
-      </c>
+    <row r="78" spans="2:20">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
       <c r="N78"/>
@@ -13377,28 +12948,17 @@
       <c r="S78"/>
       <c r="T78"/>
     </row>
-    <row r="79" spans="1:20">
-      <c r="A79" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13">
-        <v>384</v>
-      </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25">
-        <v>1</v>
-      </c>
-      <c r="I79" s="25"/>
-      <c r="J79" s="18">
-        <v>384</v>
-      </c>
-      <c r="K79" s="13">
-        <v>1</v>
-      </c>
+    <row r="79" spans="2:20">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
       <c r="L79"/>
       <c r="M79"/>
       <c r="N79"/>
@@ -13409,28 +12969,17 @@
       <c r="S79"/>
       <c r="T79"/>
     </row>
-    <row r="80" spans="1:20">
-      <c r="A80" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13">
-        <v>786</v>
-      </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25">
-        <v>1</v>
-      </c>
-      <c r="I80" s="25"/>
-      <c r="J80" s="18">
-        <v>786</v>
-      </c>
-      <c r="K80" s="13">
-        <v>1</v>
-      </c>
+    <row r="80" spans="2:20">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
       <c r="L80"/>
       <c r="M80"/>
       <c r="N80"/>
@@ -13441,28 +12990,17 @@
       <c r="S80"/>
       <c r="T80"/>
     </row>
-    <row r="81" spans="1:20">
-      <c r="A81" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13">
-        <v>786</v>
-      </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25">
-        <v>1</v>
-      </c>
-      <c r="I81" s="25"/>
-      <c r="J81" s="18">
-        <v>786</v>
-      </c>
-      <c r="K81" s="13">
-        <v>1</v>
-      </c>
+    <row r="81" spans="2:20">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
       <c r="L81"/>
       <c r="M81"/>
       <c r="N81"/>
@@ -13473,28 +13011,17 @@
       <c r="S81"/>
       <c r="T81"/>
     </row>
-    <row r="82" spans="1:20">
-      <c r="A82" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13">
-        <v>1866</v>
-      </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25">
-        <v>1</v>
-      </c>
-      <c r="I82" s="25"/>
-      <c r="J82" s="18">
-        <v>1866</v>
-      </c>
-      <c r="K82" s="13">
-        <v>1</v>
-      </c>
+    <row r="82" spans="2:20">
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
       <c r="L82"/>
       <c r="M82"/>
       <c r="N82"/>
@@ -13505,28 +13032,17 @@
       <c r="S82"/>
       <c r="T82"/>
     </row>
-    <row r="83" spans="1:20">
-      <c r="A83" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13">
-        <v>1866</v>
-      </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25">
-        <v>1</v>
-      </c>
-      <c r="I83" s="25"/>
-      <c r="J83" s="18">
-        <v>1866</v>
-      </c>
-      <c r="K83" s="13">
-        <v>1</v>
-      </c>
+    <row r="83" spans="2:20">
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83"/>
@@ -13537,36 +13053,17 @@
       <c r="S83"/>
       <c r="T83"/>
     </row>
-    <row r="84" spans="1:20">
-      <c r="A84" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B84" s="13">
-        <v>777</v>
-      </c>
-      <c r="C84" s="13">
-        <v>81990</v>
-      </c>
-      <c r="D84" s="13">
-        <v>47031</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="24">
-        <v>1</v>
-      </c>
-      <c r="G84" s="25">
-        <v>19</v>
-      </c>
-      <c r="H84" s="25">
-        <v>11</v>
-      </c>
-      <c r="I84" s="25"/>
-      <c r="J84" s="18">
-        <v>129798</v>
-      </c>
-      <c r="K84" s="13">
-        <v>31</v>
-      </c>
+    <row r="84" spans="2:20">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
       <c r="L84"/>
       <c r="M84"/>
       <c r="N84"/>
@@ -13577,32 +13074,17 @@
       <c r="S84"/>
       <c r="T84"/>
     </row>
-    <row r="85" spans="1:20">
-      <c r="A85" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13">
-        <v>58203</v>
-      </c>
-      <c r="D85" s="13">
-        <v>13869</v>
-      </c>
-      <c r="E85" s="13"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="25">
-        <v>15</v>
-      </c>
-      <c r="H85" s="25">
-        <v>6</v>
-      </c>
-      <c r="I85" s="25"/>
-      <c r="J85" s="18">
-        <v>72072</v>
-      </c>
-      <c r="K85" s="13">
-        <v>21</v>
-      </c>
+    <row r="85" spans="2:20">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
       <c r="L85"/>
       <c r="M85"/>
       <c r="N85"/>
@@ -13613,36 +13095,17 @@
       <c r="S85"/>
       <c r="T85"/>
     </row>
-    <row r="86" spans="1:20">
-      <c r="A86" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B86" s="13">
-        <v>777</v>
-      </c>
-      <c r="C86" s="13">
-        <v>23787</v>
-      </c>
-      <c r="D86" s="13">
-        <v>33162</v>
-      </c>
-      <c r="E86" s="13"/>
-      <c r="F86" s="24">
-        <v>1</v>
-      </c>
-      <c r="G86" s="25">
-        <v>4</v>
-      </c>
-      <c r="H86" s="25">
-        <v>5</v>
-      </c>
-      <c r="I86" s="25"/>
-      <c r="J86" s="18">
-        <v>57726</v>
-      </c>
-      <c r="K86" s="13">
-        <v>10</v>
-      </c>
+    <row r="86" spans="2:20">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
       <c r="L86"/>
       <c r="M86"/>
       <c r="N86"/>
@@ -13653,36 +13116,17 @@
       <c r="S86"/>
       <c r="T86"/>
     </row>
-    <row r="87" spans="1:20">
-      <c r="A87" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B87" s="13">
-        <v>777</v>
-      </c>
-      <c r="C87" s="13">
-        <v>23787</v>
-      </c>
-      <c r="D87" s="13">
-        <v>33162</v>
-      </c>
-      <c r="E87" s="13"/>
-      <c r="F87" s="24">
-        <v>1</v>
-      </c>
-      <c r="G87" s="25">
-        <v>4</v>
-      </c>
-      <c r="H87" s="25">
-        <v>5</v>
-      </c>
-      <c r="I87" s="25"/>
-      <c r="J87" s="18">
-        <v>57726</v>
-      </c>
-      <c r="K87" s="13">
-        <v>10</v>
-      </c>
+    <row r="87" spans="2:20">
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
       <c r="L87"/>
       <c r="M87"/>
       <c r="N87"/>
@@ -13693,32 +13137,17 @@
       <c r="S87"/>
       <c r="T87"/>
     </row>
-    <row r="88" spans="1:20">
-      <c r="A88" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13">
-        <v>21345</v>
-      </c>
-      <c r="D88" s="13">
-        <v>13086</v>
-      </c>
-      <c r="E88" s="13"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="25">
-        <v>3</v>
-      </c>
-      <c r="H88" s="25">
-        <v>3</v>
-      </c>
-      <c r="I88" s="25"/>
-      <c r="J88" s="18">
-        <v>34431</v>
-      </c>
-      <c r="K88" s="13">
-        <v>6</v>
-      </c>
+    <row r="88" spans="2:20">
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
       <c r="L88"/>
       <c r="M88"/>
       <c r="N88"/>
@@ -13729,28 +13158,17 @@
       <c r="S88"/>
       <c r="T88"/>
     </row>
-    <row r="89" spans="1:20">
-      <c r="A89" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13">
-        <v>3396</v>
-      </c>
-      <c r="E89" s="13"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25">
-        <v>1</v>
-      </c>
-      <c r="I89" s="25"/>
-      <c r="J89" s="18">
-        <v>3396</v>
-      </c>
-      <c r="K89" s="13">
-        <v>1</v>
-      </c>
+    <row r="89" spans="2:20">
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
       <c r="L89"/>
       <c r="M89"/>
       <c r="N89"/>
@@ -13761,28 +13179,17 @@
       <c r="S89"/>
       <c r="T89"/>
     </row>
-    <row r="90" spans="1:20">
-      <c r="A90" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13">
-        <v>3396</v>
-      </c>
-      <c r="E90" s="13"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25">
-        <v>1</v>
-      </c>
-      <c r="I90" s="25"/>
-      <c r="J90" s="18">
-        <v>3396</v>
-      </c>
-      <c r="K90" s="13">
-        <v>1</v>
-      </c>
+    <row r="90" spans="2:20">
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
       <c r="L90"/>
       <c r="M90"/>
       <c r="N90"/>
@@ -13793,28 +13200,17 @@
       <c r="S90"/>
       <c r="T90"/>
     </row>
-    <row r="91" spans="1:20">
-      <c r="A91" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13">
-        <v>6126</v>
-      </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="25">
-        <v>1</v>
-      </c>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="18">
-        <v>6126</v>
-      </c>
-      <c r="K91" s="13">
-        <v>1</v>
-      </c>
+    <row r="91" spans="2:20">
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
       <c r="L91"/>
       <c r="M91"/>
       <c r="N91"/>
@@ -13825,28 +13221,17 @@
       <c r="S91"/>
       <c r="T91"/>
     </row>
-    <row r="92" spans="1:20">
-      <c r="A92" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13">
-        <v>6126</v>
-      </c>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="25">
-        <v>1</v>
-      </c>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="18">
-        <v>6126</v>
-      </c>
-      <c r="K92" s="13">
-        <v>1</v>
-      </c>
+    <row r="92" spans="2:20">
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
       <c r="L92"/>
       <c r="M92"/>
       <c r="N92"/>
@@ -13857,28 +13242,17 @@
       <c r="S92"/>
       <c r="T92"/>
     </row>
-    <row r="93" spans="1:20">
-      <c r="A93" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13">
-        <v>6309</v>
-      </c>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="25">
-        <v>1</v>
-      </c>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="18">
-        <v>6309</v>
-      </c>
-      <c r="K93" s="13">
-        <v>1</v>
-      </c>
+    <row r="93" spans="2:20">
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
       <c r="L93"/>
       <c r="M93"/>
       <c r="N93"/>
@@ -13889,28 +13263,17 @@
       <c r="S93"/>
       <c r="T93"/>
     </row>
-    <row r="94" spans="1:20">
-      <c r="A94" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13">
-        <v>6309</v>
-      </c>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="25">
-        <v>1</v>
-      </c>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="18">
-        <v>6309</v>
-      </c>
-      <c r="K94" s="13">
-        <v>1</v>
-      </c>
+    <row r="94" spans="2:20">
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
       <c r="L94"/>
       <c r="M94"/>
       <c r="N94"/>
@@ -13921,28 +13284,17 @@
       <c r="S94"/>
       <c r="T94"/>
     </row>
-    <row r="95" spans="1:20">
-      <c r="A95" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13">
-        <v>5790</v>
-      </c>
-      <c r="E95" s="13"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25">
-        <v>1</v>
-      </c>
-      <c r="I95" s="25"/>
-      <c r="J95" s="18">
-        <v>5790</v>
-      </c>
-      <c r="K95" s="13">
-        <v>1</v>
-      </c>
+    <row r="95" spans="2:20">
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
       <c r="L95"/>
       <c r="M95"/>
       <c r="N95"/>
@@ -13953,28 +13305,17 @@
       <c r="S95"/>
       <c r="T95"/>
     </row>
-    <row r="96" spans="1:20">
-      <c r="A96" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13">
-        <v>5790</v>
-      </c>
-      <c r="E96" s="13"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25">
-        <v>1</v>
-      </c>
-      <c r="I96" s="25"/>
-      <c r="J96" s="18">
-        <v>5790</v>
-      </c>
-      <c r="K96" s="13">
-        <v>1</v>
-      </c>
+    <row r="96" spans="2:20">
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
       <c r="L96"/>
       <c r="M96"/>
       <c r="N96"/>
@@ -13985,28 +13326,17 @@
       <c r="S96"/>
       <c r="T96"/>
     </row>
-    <row r="97" spans="1:20">
-      <c r="A97" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13">
-        <v>3900</v>
-      </c>
-      <c r="E97" s="13"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25">
-        <v>1</v>
-      </c>
-      <c r="I97" s="25"/>
-      <c r="J97" s="18">
-        <v>3900</v>
-      </c>
-      <c r="K97" s="13">
-        <v>1</v>
-      </c>
+    <row r="97" spans="2:20">
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
       <c r="L97"/>
       <c r="M97"/>
       <c r="N97"/>
@@ -14017,28 +13347,17 @@
       <c r="S97"/>
       <c r="T97"/>
     </row>
-    <row r="98" spans="1:20">
-      <c r="A98" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13">
-        <v>3900</v>
-      </c>
-      <c r="E98" s="13"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25">
-        <v>1</v>
-      </c>
-      <c r="I98" s="25"/>
-      <c r="J98" s="18">
-        <v>3900</v>
-      </c>
-      <c r="K98" s="13">
-        <v>1</v>
-      </c>
+    <row r="98" spans="2:20">
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
       <c r="L98"/>
       <c r="M98"/>
       <c r="N98"/>
@@ -14049,28 +13368,17 @@
       <c r="S98"/>
       <c r="T98"/>
     </row>
-    <row r="99" spans="1:20">
-      <c r="A99" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13">
-        <v>8910</v>
-      </c>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="25">
-        <v>1</v>
-      </c>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="18">
-        <v>8910</v>
-      </c>
-      <c r="K99" s="13">
-        <v>1</v>
-      </c>
+    <row r="99" spans="2:20">
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
       <c r="L99"/>
       <c r="M99"/>
       <c r="N99"/>
@@ -14081,28 +13389,17 @@
       <c r="S99"/>
       <c r="T99"/>
     </row>
-    <row r="100" spans="1:20">
-      <c r="A100" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13">
-        <v>8910</v>
-      </c>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="25">
-        <v>1</v>
-      </c>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="18">
-        <v>8910</v>
-      </c>
-      <c r="K100" s="13">
-        <v>1</v>
-      </c>
+    <row r="100" spans="2:20">
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
       <c r="L100"/>
       <c r="M100"/>
       <c r="N100"/>
@@ -14113,28 +13410,17 @@
       <c r="S100"/>
       <c r="T100"/>
     </row>
-    <row r="101" spans="1:20">
-      <c r="A101" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B101" s="13">
-        <v>777</v>
-      </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="24">
-        <v>1</v>
-      </c>
-      <c r="G101" s="25"/>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="18">
-        <v>777</v>
-      </c>
-      <c r="K101" s="13">
-        <v>1</v>
-      </c>
+    <row r="101" spans="2:20">
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
       <c r="L101"/>
       <c r="M101"/>
       <c r="N101"/>
@@ -14145,28 +13431,17 @@
       <c r="S101"/>
       <c r="T101"/>
     </row>
-    <row r="102" spans="1:20">
-      <c r="A102" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B102" s="13">
-        <v>777</v>
-      </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="24">
-        <v>1</v>
-      </c>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="18">
-        <v>777</v>
-      </c>
-      <c r="K102" s="13">
-        <v>1</v>
-      </c>
+    <row r="102" spans="2:20">
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
       <c r="L102"/>
       <c r="M102"/>
       <c r="N102"/>
@@ -14177,28 +13452,17 @@
       <c r="S102"/>
       <c r="T102"/>
     </row>
-    <row r="103" spans="1:20">
-      <c r="A103" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B103" s="13">
-        <v>777</v>
-      </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="24">
-        <v>1</v>
-      </c>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="18">
-        <v>777</v>
-      </c>
-      <c r="K103" s="13">
-        <v>1</v>
-      </c>
+    <row r="103" spans="2:20">
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
       <c r="L103"/>
       <c r="M103"/>
       <c r="N103"/>
@@ -14209,32 +13473,17 @@
       <c r="S103"/>
       <c r="T103"/>
     </row>
-    <row r="104" spans="1:20">
-      <c r="A104" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13">
-        <v>2442</v>
-      </c>
-      <c r="D104" s="13">
-        <v>20076</v>
-      </c>
-      <c r="E104" s="13"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="25">
-        <v>1</v>
-      </c>
-      <c r="H104" s="25">
-        <v>2</v>
-      </c>
-      <c r="I104" s="25"/>
-      <c r="J104" s="18">
-        <v>22518</v>
-      </c>
-      <c r="K104" s="13">
-        <v>3</v>
-      </c>
+    <row r="104" spans="2:20">
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
       <c r="L104"/>
       <c r="M104"/>
       <c r="N104"/>
@@ -14245,28 +13494,17 @@
       <c r="S104"/>
       <c r="T104"/>
     </row>
-    <row r="105" spans="1:20">
-      <c r="A105" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13">
-        <v>2442</v>
-      </c>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="25">
-        <v>1</v>
-      </c>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="18">
-        <v>2442</v>
-      </c>
-      <c r="K105" s="13">
-        <v>1</v>
-      </c>
+    <row r="105" spans="2:20">
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
       <c r="N105"/>
@@ -14277,28 +13515,17 @@
       <c r="S105"/>
       <c r="T105"/>
     </row>
-    <row r="106" spans="1:20">
-      <c r="A106" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13">
-        <v>2442</v>
-      </c>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="25">
-        <v>1</v>
-      </c>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="18">
-        <v>2442</v>
-      </c>
-      <c r="K106" s="13">
-        <v>1</v>
-      </c>
+    <row r="106" spans="2:20">
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
       <c r="L106"/>
       <c r="M106"/>
       <c r="N106"/>
@@ -14309,28 +13536,17 @@
       <c r="S106"/>
       <c r="T106"/>
     </row>
-    <row r="107" spans="1:20">
-      <c r="A107" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13">
-        <v>9951</v>
-      </c>
-      <c r="E107" s="13"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="25">
-        <v>1</v>
-      </c>
-      <c r="I107" s="25"/>
-      <c r="J107" s="18">
-        <v>9951</v>
-      </c>
-      <c r="K107" s="13">
-        <v>1</v>
-      </c>
+    <row r="107" spans="2:20">
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
       <c r="L107"/>
       <c r="M107"/>
       <c r="N107"/>
@@ -14341,28 +13557,17 @@
       <c r="S107"/>
       <c r="T107"/>
     </row>
-    <row r="108" spans="1:20">
-      <c r="A108" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13">
-        <v>9951</v>
-      </c>
-      <c r="E108" s="13"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25">
-        <v>1</v>
-      </c>
-      <c r="I108" s="25"/>
-      <c r="J108" s="18">
-        <v>9951</v>
-      </c>
-      <c r="K108" s="13">
-        <v>1</v>
-      </c>
+    <row r="108" spans="2:20">
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108"/>
@@ -14373,28 +13578,17 @@
       <c r="S108"/>
       <c r="T108"/>
     </row>
-    <row r="109" spans="1:20">
-      <c r="A109" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13">
-        <v>10125</v>
-      </c>
-      <c r="E109" s="13"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25">
-        <v>1</v>
-      </c>
-      <c r="I109" s="25"/>
-      <c r="J109" s="18">
-        <v>10125</v>
-      </c>
-      <c r="K109" s="13">
-        <v>1</v>
-      </c>
+    <row r="109" spans="2:20">
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
       <c r="L109"/>
       <c r="M109"/>
       <c r="N109"/>
@@ -14405,28 +13599,17 @@
       <c r="S109"/>
       <c r="T109"/>
     </row>
-    <row r="110" spans="1:20">
-      <c r="A110" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13">
-        <v>10125</v>
-      </c>
-      <c r="E110" s="13"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25">
-        <v>1</v>
-      </c>
-      <c r="I110" s="25"/>
-      <c r="J110" s="18">
-        <v>10125</v>
-      </c>
-      <c r="K110" s="13">
-        <v>1</v>
-      </c>
+    <row r="110" spans="2:20">
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
       <c r="L110"/>
       <c r="M110"/>
       <c r="N110"/>
@@ -14437,32 +13620,17 @@
       <c r="S110"/>
       <c r="T110"/>
     </row>
-    <row r="111" spans="1:20">
-      <c r="A111" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13">
-        <v>18426</v>
-      </c>
-      <c r="D111" s="13">
-        <v>75972</v>
-      </c>
-      <c r="E111" s="13"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="25">
-        <v>4</v>
-      </c>
-      <c r="H111" s="25">
-        <v>12</v>
-      </c>
-      <c r="I111" s="25"/>
-      <c r="J111" s="18">
-        <v>94398</v>
-      </c>
-      <c r="K111" s="13">
-        <v>16</v>
-      </c>
+    <row r="111" spans="2:20">
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
       <c r="N111"/>
@@ -14473,28 +13641,17 @@
       <c r="S111"/>
       <c r="T111"/>
     </row>
-    <row r="112" spans="1:20">
-      <c r="A112" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13">
-        <v>21006</v>
-      </c>
-      <c r="E112" s="13"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25">
-        <v>4</v>
-      </c>
-      <c r="I112" s="25"/>
-      <c r="J112" s="18">
-        <v>21006</v>
-      </c>
-      <c r="K112" s="13">
-        <v>4</v>
-      </c>
+    <row r="112" spans="2:20">
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
       <c r="L112"/>
       <c r="M112"/>
       <c r="N112"/>
@@ -14505,32 +13662,17 @@
       <c r="S112"/>
       <c r="T112"/>
     </row>
-    <row r="113" spans="1:20">
-      <c r="A113" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13">
-        <v>18426</v>
-      </c>
-      <c r="D113" s="13">
-        <v>54966</v>
-      </c>
-      <c r="E113" s="13"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="25">
-        <v>4</v>
-      </c>
-      <c r="H113" s="25">
-        <v>8</v>
-      </c>
-      <c r="I113" s="25"/>
-      <c r="J113" s="18">
-        <v>73392</v>
-      </c>
-      <c r="K113" s="13">
-        <v>12</v>
-      </c>
+    <row r="113" spans="2:20">
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
       <c r="L113"/>
       <c r="M113"/>
       <c r="N113"/>
@@ -14541,32 +13683,17 @@
       <c r="S113"/>
       <c r="T113"/>
     </row>
-    <row r="114" spans="1:20">
-      <c r="A114" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13">
-        <v>18426</v>
-      </c>
-      <c r="D114" s="13">
-        <v>54966</v>
-      </c>
-      <c r="E114" s="13"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="25">
-        <v>4</v>
-      </c>
-      <c r="H114" s="25">
-        <v>8</v>
-      </c>
-      <c r="I114" s="25"/>
-      <c r="J114" s="18">
-        <v>73392</v>
-      </c>
-      <c r="K114" s="13">
-        <v>12</v>
-      </c>
+    <row r="114" spans="2:20">
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
       <c r="L114"/>
       <c r="M114"/>
       <c r="N114"/>
@@ -14577,32 +13704,17 @@
       <c r="S114"/>
       <c r="T114"/>
     </row>
-    <row r="115" spans="1:20">
-      <c r="A115" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13">
-        <v>9552</v>
-      </c>
-      <c r="D115" s="13">
-        <v>33306</v>
-      </c>
-      <c r="E115" s="13"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="25">
-        <v>2</v>
-      </c>
-      <c r="H115" s="25">
-        <v>7</v>
-      </c>
-      <c r="I115" s="25"/>
-      <c r="J115" s="18">
-        <v>42858</v>
-      </c>
-      <c r="K115" s="13">
-        <v>9</v>
-      </c>
+    <row r="115" spans="2:20">
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
       <c r="L115"/>
       <c r="M115"/>
       <c r="N115"/>
@@ -14613,28 +13725,17 @@
       <c r="S115"/>
       <c r="T115"/>
     </row>
-    <row r="116" spans="1:20">
-      <c r="A116" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13">
-        <v>7830</v>
-      </c>
-      <c r="E116" s="13"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25">
-        <v>1</v>
-      </c>
-      <c r="I116" s="25"/>
-      <c r="J116" s="18">
-        <v>7830</v>
-      </c>
-      <c r="K116" s="13">
-        <v>1</v>
-      </c>
+    <row r="116" spans="2:20">
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
       <c r="L116"/>
       <c r="M116"/>
       <c r="N116"/>
@@ -14645,28 +13746,17 @@
       <c r="S116"/>
       <c r="T116"/>
     </row>
-    <row r="117" spans="1:20">
-      <c r="A117" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13">
-        <v>7830</v>
-      </c>
-      <c r="E117" s="13"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="25">
-        <v>1</v>
-      </c>
-      <c r="I117" s="25"/>
-      <c r="J117" s="18">
-        <v>7830</v>
-      </c>
-      <c r="K117" s="13">
-        <v>1</v>
-      </c>
+    <row r="117" spans="2:20">
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
       <c r="L117"/>
       <c r="M117"/>
       <c r="N117"/>
@@ -14677,28 +13767,17 @@
       <c r="S117"/>
       <c r="T117"/>
     </row>
-    <row r="118" spans="1:20">
-      <c r="A118" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13">
-        <v>1521</v>
-      </c>
-      <c r="E118" s="13"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25">
-        <v>1</v>
-      </c>
-      <c r="I118" s="25"/>
-      <c r="J118" s="18">
-        <v>1521</v>
-      </c>
-      <c r="K118" s="13">
-        <v>1</v>
-      </c>
+    <row r="118" spans="2:20">
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
       <c r="L118"/>
       <c r="M118"/>
       <c r="N118"/>
@@ -14709,28 +13788,17 @@
       <c r="S118"/>
       <c r="T118"/>
     </row>
-    <row r="119" spans="1:20">
-      <c r="A119" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13">
-        <v>1521</v>
-      </c>
-      <c r="E119" s="13"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="25">
-        <v>1</v>
-      </c>
-      <c r="I119" s="25"/>
-      <c r="J119" s="18">
-        <v>1521</v>
-      </c>
-      <c r="K119" s="13">
-        <v>1</v>
-      </c>
+    <row r="119" spans="2:20">
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
       <c r="L119"/>
       <c r="M119"/>
       <c r="N119"/>
@@ -14741,28 +13809,17 @@
       <c r="S119"/>
       <c r="T119"/>
     </row>
-    <row r="120" spans="1:20">
-      <c r="A120" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13">
-        <v>3900</v>
-      </c>
-      <c r="E120" s="13"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="25"/>
-      <c r="H120" s="25">
-        <v>1</v>
-      </c>
-      <c r="I120" s="25"/>
-      <c r="J120" s="18">
-        <v>3900</v>
-      </c>
-      <c r="K120" s="13">
-        <v>1</v>
-      </c>
+    <row r="120" spans="2:20">
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
       <c r="L120"/>
       <c r="M120"/>
       <c r="N120"/>
@@ -14773,28 +13830,17 @@
       <c r="S120"/>
       <c r="T120"/>
     </row>
-    <row r="121" spans="1:20">
-      <c r="A121" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13">
-        <v>3900</v>
-      </c>
-      <c r="E121" s="13"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="25"/>
-      <c r="H121" s="25">
-        <v>1</v>
-      </c>
-      <c r="I121" s="25"/>
-      <c r="J121" s="18">
-        <v>3900</v>
-      </c>
-      <c r="K121" s="13">
-        <v>1</v>
-      </c>
+    <row r="121" spans="2:20">
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
       <c r="L121"/>
       <c r="M121"/>
       <c r="N121"/>
@@ -14805,28 +13851,17 @@
       <c r="S121"/>
       <c r="T121"/>
     </row>
-    <row r="122" spans="1:20">
-      <c r="A122" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13">
-        <v>5205</v>
-      </c>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="25">
-        <v>1</v>
-      </c>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="18">
-        <v>5205</v>
-      </c>
-      <c r="K122" s="13">
-        <v>1</v>
-      </c>
+    <row r="122" spans="2:20">
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
       <c r="L122"/>
       <c r="M122"/>
       <c r="N122"/>
@@ -14837,28 +13872,17 @@
       <c r="S122"/>
       <c r="T122"/>
     </row>
-    <row r="123" spans="1:20">
-      <c r="A123" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13">
-        <v>5205</v>
-      </c>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="25">
-        <v>1</v>
-      </c>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
-      <c r="J123" s="18">
-        <v>5205</v>
-      </c>
-      <c r="K123" s="13">
-        <v>1</v>
-      </c>
+    <row r="123" spans="2:20">
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
       <c r="L123"/>
       <c r="M123"/>
       <c r="N123"/>
@@ -14869,28 +13893,17 @@
       <c r="S123"/>
       <c r="T123"/>
     </row>
-    <row r="124" spans="1:20">
-      <c r="A124" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13">
-        <v>7902</v>
-      </c>
-      <c r="E124" s="13"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="25"/>
-      <c r="H124" s="25">
-        <v>1</v>
-      </c>
-      <c r="I124" s="25"/>
-      <c r="J124" s="18">
-        <v>7902</v>
-      </c>
-      <c r="K124" s="13">
-        <v>1</v>
-      </c>
+    <row r="124" spans="2:20">
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
       <c r="L124"/>
       <c r="M124"/>
       <c r="N124"/>
@@ -14901,28 +13914,17 @@
       <c r="S124"/>
       <c r="T124"/>
     </row>
-    <row r="125" spans="1:20">
-      <c r="A125" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13">
-        <v>7902</v>
-      </c>
-      <c r="E125" s="13"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="25"/>
-      <c r="H125" s="25">
-        <v>1</v>
-      </c>
-      <c r="I125" s="25"/>
-      <c r="J125" s="18">
-        <v>7902</v>
-      </c>
-      <c r="K125" s="13">
-        <v>1</v>
-      </c>
+    <row r="125" spans="2:20">
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
       <c r="L125"/>
       <c r="M125"/>
       <c r="N125"/>
@@ -14933,28 +13935,17 @@
       <c r="S125"/>
       <c r="T125"/>
     </row>
-    <row r="126" spans="1:20">
-      <c r="A126" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13">
-        <v>1578</v>
-      </c>
-      <c r="E126" s="13"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="25"/>
-      <c r="H126" s="25">
-        <v>1</v>
-      </c>
-      <c r="I126" s="25"/>
-      <c r="J126" s="18">
-        <v>1578</v>
-      </c>
-      <c r="K126" s="13">
-        <v>1</v>
-      </c>
+    <row r="126" spans="2:20">
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
       <c r="L126"/>
       <c r="M126"/>
       <c r="N126"/>
@@ -14965,28 +13956,17 @@
       <c r="S126"/>
       <c r="T126"/>
     </row>
-    <row r="127" spans="1:20">
-      <c r="A127" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13">
-        <v>1578</v>
-      </c>
-      <c r="E127" s="13"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="25"/>
-      <c r="H127" s="25">
-        <v>1</v>
-      </c>
-      <c r="I127" s="25"/>
-      <c r="J127" s="18">
-        <v>1578</v>
-      </c>
-      <c r="K127" s="13">
-        <v>1</v>
-      </c>
+    <row r="127" spans="2:20">
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
       <c r="L127"/>
       <c r="M127"/>
       <c r="N127"/>
@@ -14997,28 +13977,17 @@
       <c r="S127"/>
       <c r="T127"/>
     </row>
-    <row r="128" spans="1:20">
-      <c r="A128" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13">
-        <v>3177</v>
-      </c>
-      <c r="E128" s="13"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="25"/>
-      <c r="H128" s="25">
-        <v>1</v>
-      </c>
-      <c r="I128" s="25"/>
-      <c r="J128" s="18">
-        <v>3177</v>
-      </c>
-      <c r="K128" s="13">
-        <v>1</v>
-      </c>
+    <row r="128" spans="2:20">
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
       <c r="L128"/>
       <c r="M128"/>
       <c r="N128"/>
@@ -15029,28 +13998,17 @@
       <c r="S128"/>
       <c r="T128"/>
     </row>
-    <row r="129" spans="1:20">
-      <c r="A129" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13">
-        <v>3177</v>
-      </c>
-      <c r="E129" s="13"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="25"/>
-      <c r="H129" s="25">
-        <v>1</v>
-      </c>
-      <c r="I129" s="25"/>
-      <c r="J129" s="18">
-        <v>3177</v>
-      </c>
-      <c r="K129" s="13">
-        <v>1</v>
-      </c>
+    <row r="129" spans="2:20">
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
       <c r="L129"/>
       <c r="M129"/>
       <c r="N129"/>
@@ -15061,28 +14019,17 @@
       <c r="S129"/>
       <c r="T129"/>
     </row>
-    <row r="130" spans="1:20">
-      <c r="A130" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B130" s="13"/>
-      <c r="C130" s="13">
-        <v>4347</v>
-      </c>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="25">
-        <v>1</v>
-      </c>
-      <c r="H130" s="25"/>
-      <c r="I130" s="25"/>
-      <c r="J130" s="18">
-        <v>4347</v>
-      </c>
-      <c r="K130" s="13">
-        <v>1</v>
-      </c>
+    <row r="130" spans="2:20">
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
       <c r="L130"/>
       <c r="M130"/>
       <c r="N130"/>
@@ -15093,28 +14040,17 @@
       <c r="S130"/>
       <c r="T130"/>
     </row>
-    <row r="131" spans="1:20">
-      <c r="A131" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="B131" s="13"/>
-      <c r="C131" s="13">
-        <v>4347</v>
-      </c>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="25">
-        <v>1</v>
-      </c>
-      <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
-      <c r="J131" s="18">
-        <v>4347</v>
-      </c>
-      <c r="K131" s="13">
-        <v>1</v>
-      </c>
+    <row r="131" spans="2:20">
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
       <c r="L131"/>
       <c r="M131"/>
       <c r="N131"/>
@@ -15125,28 +14061,17 @@
       <c r="S131"/>
       <c r="T131"/>
     </row>
-    <row r="132" spans="1:20">
-      <c r="A132" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13">
-        <v>7398</v>
-      </c>
-      <c r="E132" s="13"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="25"/>
-      <c r="H132" s="25">
-        <v>1</v>
-      </c>
-      <c r="I132" s="25"/>
-      <c r="J132" s="18">
-        <v>7398</v>
-      </c>
-      <c r="K132" s="13">
-        <v>1</v>
-      </c>
+    <row r="132" spans="2:20">
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
       <c r="L132"/>
       <c r="M132"/>
       <c r="N132"/>
@@ -15157,28 +14082,17 @@
       <c r="S132"/>
       <c r="T132"/>
     </row>
-    <row r="133" spans="1:20">
-      <c r="A133" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="B133" s="13"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13">
-        <v>7398</v>
-      </c>
-      <c r="E133" s="13"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="25"/>
-      <c r="H133" s="25">
-        <v>1</v>
-      </c>
-      <c r="I133" s="25"/>
-      <c r="J133" s="18">
-        <v>7398</v>
-      </c>
-      <c r="K133" s="13">
-        <v>1</v>
-      </c>
+    <row r="133" spans="2:20">
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
       <c r="L133"/>
       <c r="M133"/>
       <c r="N133"/>
@@ -15189,32 +14103,17 @@
       <c r="S133"/>
       <c r="T133"/>
     </row>
-    <row r="134" spans="1:20">
-      <c r="A134" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B134" s="13"/>
-      <c r="C134" s="13">
-        <v>8874</v>
-      </c>
-      <c r="D134" s="13">
-        <v>21660</v>
-      </c>
-      <c r="E134" s="13"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="25">
-        <v>2</v>
-      </c>
-      <c r="H134" s="25">
-        <v>1</v>
-      </c>
-      <c r="I134" s="25"/>
-      <c r="J134" s="18">
-        <v>30534</v>
-      </c>
-      <c r="K134" s="13">
-        <v>3</v>
-      </c>
+    <row r="134" spans="2:20">
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
       <c r="L134"/>
       <c r="M134"/>
       <c r="N134"/>
@@ -15225,32 +14124,17 @@
       <c r="S134"/>
       <c r="T134"/>
     </row>
-    <row r="135" spans="1:20">
-      <c r="A135" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B135" s="13"/>
-      <c r="C135" s="13">
-        <v>3789</v>
-      </c>
-      <c r="D135" s="13">
-        <v>21660</v>
-      </c>
-      <c r="E135" s="13"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="25">
-        <v>1</v>
-      </c>
-      <c r="H135" s="25">
-        <v>1</v>
-      </c>
-      <c r="I135" s="25"/>
-      <c r="J135" s="18">
-        <v>25449</v>
-      </c>
-      <c r="K135" s="13">
-        <v>2</v>
-      </c>
+    <row r="135" spans="2:20">
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
       <c r="L135"/>
       <c r="M135"/>
       <c r="N135"/>
@@ -15261,28 +14145,17 @@
       <c r="S135"/>
       <c r="T135"/>
     </row>
-    <row r="136" spans="1:20">
-      <c r="A136" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="B136" s="13"/>
-      <c r="C136" s="13">
-        <v>3789</v>
-      </c>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="25">
-        <v>1</v>
-      </c>
-      <c r="H136" s="25"/>
-      <c r="I136" s="25"/>
-      <c r="J136" s="18">
-        <v>3789</v>
-      </c>
-      <c r="K136" s="13">
-        <v>1</v>
-      </c>
+    <row r="136" spans="2:20">
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
       <c r="L136"/>
       <c r="M136"/>
       <c r="N136"/>
@@ -15293,28 +14166,17 @@
       <c r="S136"/>
       <c r="T136"/>
     </row>
-    <row r="137" spans="1:20">
-      <c r="A137" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="B137" s="13"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13">
-        <v>21660</v>
-      </c>
-      <c r="E137" s="13"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="25"/>
-      <c r="H137" s="25">
-        <v>1</v>
-      </c>
-      <c r="I137" s="25"/>
-      <c r="J137" s="18">
-        <v>21660</v>
-      </c>
-      <c r="K137" s="13">
-        <v>1</v>
-      </c>
+    <row r="137" spans="2:20">
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
       <c r="L137"/>
       <c r="M137"/>
       <c r="N137"/>
@@ -15325,28 +14187,17 @@
       <c r="S137"/>
       <c r="T137"/>
     </row>
-    <row r="138" spans="1:20">
-      <c r="A138" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="B138" s="13"/>
-      <c r="C138" s="13">
-        <v>5085</v>
-      </c>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="24"/>
-      <c r="G138" s="25">
-        <v>1</v>
-      </c>
-      <c r="H138" s="25"/>
-      <c r="I138" s="25"/>
-      <c r="J138" s="18">
-        <v>5085</v>
-      </c>
-      <c r="K138" s="13">
-        <v>1</v>
-      </c>
+    <row r="138" spans="2:20">
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
       <c r="L138"/>
       <c r="M138"/>
       <c r="N138"/>
@@ -15357,28 +14208,17 @@
       <c r="S138"/>
       <c r="T138"/>
     </row>
-    <row r="139" spans="1:20">
-      <c r="A139" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="B139" s="13"/>
-      <c r="C139" s="13">
-        <v>5085</v>
-      </c>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="25">
-        <v>1</v>
-      </c>
-      <c r="H139" s="25"/>
-      <c r="I139" s="25"/>
-      <c r="J139" s="18">
-        <v>5085</v>
-      </c>
-      <c r="K139" s="13">
-        <v>1</v>
-      </c>
+    <row r="139" spans="2:20">
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
       <c r="L139"/>
       <c r="M139"/>
       <c r="N139"/>
@@ -15389,36 +14229,17 @@
       <c r="S139"/>
       <c r="T139"/>
     </row>
-    <row r="140" spans="1:20">
-      <c r="A140" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B140" s="13">
-        <v>4047</v>
-      </c>
-      <c r="C140" s="13">
-        <v>10098</v>
-      </c>
-      <c r="D140" s="13">
-        <v>48333</v>
-      </c>
-      <c r="E140" s="13"/>
-      <c r="F140" s="24">
-        <v>1</v>
-      </c>
-      <c r="G140" s="25">
-        <v>4</v>
-      </c>
-      <c r="H140" s="25">
-        <v>11</v>
-      </c>
-      <c r="I140" s="25"/>
-      <c r="J140" s="18">
-        <v>62478</v>
-      </c>
-      <c r="K140" s="13">
-        <v>16</v>
-      </c>
+    <row r="140" spans="2:20">
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
       <c r="L140"/>
       <c r="M140"/>
       <c r="N140"/>
@@ -15429,32 +14250,17 @@
       <c r="S140"/>
       <c r="T140"/>
     </row>
-    <row r="141" spans="1:20">
-      <c r="A141" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B141" s="13">
-        <v>4047</v>
-      </c>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13">
-        <v>21378</v>
-      </c>
-      <c r="E141" s="13"/>
-      <c r="F141" s="24">
-        <v>1</v>
-      </c>
-      <c r="G141" s="25"/>
-      <c r="H141" s="25">
-        <v>6</v>
-      </c>
-      <c r="I141" s="25"/>
-      <c r="J141" s="18">
-        <v>25425</v>
-      </c>
-      <c r="K141" s="13">
-        <v>7</v>
-      </c>
+    <row r="141" spans="2:20">
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
       <c r="L141"/>
       <c r="M141"/>
       <c r="N141"/>
@@ -15465,32 +14271,17 @@
       <c r="S141"/>
       <c r="T141"/>
     </row>
-    <row r="142" spans="1:20">
-      <c r="A142" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B142" s="13"/>
-      <c r="C142" s="13">
-        <v>10098</v>
-      </c>
-      <c r="D142" s="13">
-        <v>26955</v>
-      </c>
-      <c r="E142" s="13"/>
-      <c r="F142" s="24"/>
-      <c r="G142" s="25">
-        <v>4</v>
-      </c>
-      <c r="H142" s="25">
-        <v>5</v>
-      </c>
-      <c r="I142" s="25"/>
-      <c r="J142" s="18">
-        <v>37053</v>
-      </c>
-      <c r="K142" s="13">
-        <v>9</v>
-      </c>
+    <row r="142" spans="2:20">
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
       <c r="L142"/>
       <c r="M142"/>
       <c r="N142"/>
@@ -15501,28 +14292,17 @@
       <c r="S142"/>
       <c r="T142"/>
     </row>
-    <row r="143" spans="1:20">
-      <c r="A143" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B143" s="13"/>
-      <c r="C143" s="13">
-        <v>2685</v>
-      </c>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="25">
-        <v>2</v>
-      </c>
-      <c r="H143" s="25"/>
-      <c r="I143" s="25"/>
-      <c r="J143" s="18">
-        <v>2685</v>
-      </c>
-      <c r="K143" s="13">
-        <v>2</v>
-      </c>
+    <row r="143" spans="2:20">
+      <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
       <c r="L143"/>
       <c r="M143"/>
       <c r="N143"/>
@@ -15533,28 +14313,17 @@
       <c r="S143"/>
       <c r="T143"/>
     </row>
-    <row r="144" spans="1:20">
-      <c r="A144" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B144" s="13"/>
-      <c r="C144" s="13">
-        <v>999</v>
-      </c>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="24"/>
-      <c r="G144" s="25">
-        <v>1</v>
-      </c>
-      <c r="H144" s="25"/>
-      <c r="I144" s="25"/>
-      <c r="J144" s="18">
-        <v>999</v>
-      </c>
-      <c r="K144" s="13">
-        <v>1</v>
-      </c>
+    <row r="144" spans="2:20">
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
       <c r="L144"/>
       <c r="M144"/>
       <c r="N144"/>
@@ -15565,28 +14334,17 @@
       <c r="S144"/>
       <c r="T144"/>
     </row>
-    <row r="145" spans="1:20">
-      <c r="A145" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B145" s="13"/>
-      <c r="C145" s="13">
-        <v>999</v>
-      </c>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="24"/>
-      <c r="G145" s="25">
-        <v>1</v>
-      </c>
-      <c r="H145" s="25"/>
-      <c r="I145" s="25"/>
-      <c r="J145" s="18">
-        <v>999</v>
-      </c>
-      <c r="K145" s="13">
-        <v>1</v>
-      </c>
+    <row r="145" spans="2:20">
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
       <c r="L145"/>
       <c r="M145"/>
       <c r="N145"/>
@@ -15597,28 +14355,17 @@
       <c r="S145"/>
       <c r="T145"/>
     </row>
-    <row r="146" spans="1:20">
-      <c r="A146" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="B146" s="13"/>
-      <c r="C146" s="13">
-        <v>999</v>
-      </c>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="24"/>
-      <c r="G146" s="25">
-        <v>1</v>
-      </c>
-      <c r="H146" s="25"/>
-      <c r="I146" s="25"/>
-      <c r="J146" s="18">
-        <v>999</v>
-      </c>
-      <c r="K146" s="13">
-        <v>1</v>
-      </c>
+    <row r="146" spans="2:20">
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
       <c r="L146"/>
       <c r="M146"/>
       <c r="N146"/>
@@ -15629,28 +14376,17 @@
       <c r="S146"/>
       <c r="T146"/>
     </row>
-    <row r="147" spans="1:20">
-      <c r="A147" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B147" s="13"/>
-      <c r="C147" s="13">
-        <v>1686</v>
-      </c>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="24"/>
-      <c r="G147" s="25">
-        <v>1</v>
-      </c>
-      <c r="H147" s="25"/>
-      <c r="I147" s="25"/>
-      <c r="J147" s="18">
-        <v>1686</v>
-      </c>
-      <c r="K147" s="13">
-        <v>1</v>
-      </c>
+    <row r="147" spans="2:20">
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
       <c r="L147"/>
       <c r="M147"/>
       <c r="N147"/>
@@ -15661,28 +14397,17 @@
       <c r="S147"/>
       <c r="T147"/>
     </row>
-    <row r="148" spans="1:20">
-      <c r="A148" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B148" s="13"/>
-      <c r="C148" s="13">
-        <v>1686</v>
-      </c>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="24"/>
-      <c r="G148" s="25">
-        <v>1</v>
-      </c>
-      <c r="H148" s="25"/>
-      <c r="I148" s="25"/>
-      <c r="J148" s="18">
-        <v>1686</v>
-      </c>
-      <c r="K148" s="13">
-        <v>1</v>
-      </c>
+    <row r="148" spans="2:20">
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
       <c r="L148"/>
       <c r="M148"/>
       <c r="N148"/>
@@ -15693,28 +14418,17 @@
       <c r="S148"/>
       <c r="T148"/>
     </row>
-    <row r="149" spans="1:20">
-      <c r="A149" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="B149" s="13"/>
-      <c r="C149" s="13">
-        <v>1686</v>
-      </c>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="24"/>
-      <c r="G149" s="25">
-        <v>1</v>
-      </c>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
-      <c r="J149" s="18">
-        <v>1686</v>
-      </c>
-      <c r="K149" s="13">
-        <v>1</v>
-      </c>
+    <row r="149" spans="2:20">
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
       <c r="L149"/>
       <c r="M149"/>
       <c r="N149"/>
@@ -15725,32 +14439,17 @@
       <c r="S149"/>
       <c r="T149"/>
     </row>
-    <row r="150" spans="1:20">
-      <c r="A150" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="B150" s="13"/>
-      <c r="C150" s="13">
-        <v>7413</v>
-      </c>
-      <c r="D150" s="13">
-        <v>26955</v>
-      </c>
-      <c r="E150" s="13"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="25">
-        <v>2</v>
-      </c>
-      <c r="H150" s="25">
-        <v>5</v>
-      </c>
-      <c r="I150" s="25"/>
-      <c r="J150" s="18">
-        <v>34368</v>
-      </c>
-      <c r="K150" s="13">
-        <v>7</v>
-      </c>
+    <row r="150" spans="2:20">
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
       <c r="L150"/>
       <c r="M150"/>
       <c r="N150"/>
@@ -15761,32 +14460,17 @@
       <c r="S150"/>
       <c r="T150"/>
     </row>
-    <row r="151" spans="1:20">
-      <c r="A151" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B151" s="13"/>
-      <c r="C151" s="13">
-        <v>3633</v>
-      </c>
-      <c r="D151" s="13">
-        <v>26955</v>
-      </c>
-      <c r="E151" s="13"/>
-      <c r="F151" s="24"/>
-      <c r="G151" s="25">
-        <v>1</v>
-      </c>
-      <c r="H151" s="25">
-        <v>5</v>
-      </c>
-      <c r="I151" s="25"/>
-      <c r="J151" s="18">
-        <v>30588</v>
-      </c>
-      <c r="K151" s="13">
-        <v>6</v>
-      </c>
+    <row r="151" spans="2:20">
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
       <c r="L151"/>
       <c r="M151"/>
       <c r="N151"/>
@@ -15797,28 +14481,17 @@
       <c r="S151"/>
       <c r="T151"/>
     </row>
-    <row r="152" spans="1:20">
-      <c r="A152" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="B152" s="13"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13">
-        <v>3390</v>
-      </c>
-      <c r="E152" s="13"/>
-      <c r="F152" s="24"/>
-      <c r="G152" s="25"/>
-      <c r="H152" s="25">
-        <v>1</v>
-      </c>
-      <c r="I152" s="25"/>
-      <c r="J152" s="18">
-        <v>3390</v>
-      </c>
-      <c r="K152" s="13">
-        <v>1</v>
-      </c>
+    <row r="152" spans="2:20">
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
       <c r="L152"/>
       <c r="M152"/>
       <c r="N152"/>
@@ -15829,28 +14502,17 @@
       <c r="S152"/>
       <c r="T152"/>
     </row>
-    <row r="153" spans="1:20">
-      <c r="A153" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="B153" s="13"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13">
-        <v>3390</v>
-      </c>
-      <c r="E153" s="13"/>
-      <c r="F153" s="24"/>
-      <c r="G153" s="25"/>
-      <c r="H153" s="25">
-        <v>1</v>
-      </c>
-      <c r="I153" s="25"/>
-      <c r="J153" s="18">
-        <v>3390</v>
-      </c>
-      <c r="K153" s="13">
-        <v>1</v>
-      </c>
+    <row r="153" spans="2:20">
+      <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153"/>
+      <c r="G153"/>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153"/>
       <c r="L153"/>
       <c r="M153"/>
       <c r="N153"/>
@@ -15861,28 +14523,17 @@
       <c r="S153"/>
       <c r="T153"/>
     </row>
-    <row r="154" spans="1:20">
-      <c r="A154" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B154" s="13"/>
-      <c r="C154" s="13">
-        <v>3633</v>
-      </c>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="24"/>
-      <c r="G154" s="25">
-        <v>1</v>
-      </c>
-      <c r="H154" s="25"/>
-      <c r="I154" s="25"/>
-      <c r="J154" s="18">
-        <v>3633</v>
-      </c>
-      <c r="K154" s="13">
-        <v>1</v>
-      </c>
+    <row r="154" spans="2:20">
+      <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
       <c r="L154"/>
       <c r="M154"/>
       <c r="N154"/>
@@ -15893,28 +14544,17 @@
       <c r="S154"/>
       <c r="T154"/>
     </row>
-    <row r="155" spans="1:20">
-      <c r="A155" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="B155" s="13"/>
-      <c r="C155" s="13">
-        <v>3633</v>
-      </c>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="24"/>
-      <c r="G155" s="25">
-        <v>1</v>
-      </c>
-      <c r="H155" s="25"/>
-      <c r="I155" s="25"/>
-      <c r="J155" s="18">
-        <v>3633</v>
-      </c>
-      <c r="K155" s="13">
-        <v>1</v>
-      </c>
+    <row r="155" spans="2:20">
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
       <c r="L155"/>
       <c r="M155"/>
       <c r="N155"/>
@@ -15925,28 +14565,17 @@
       <c r="S155"/>
       <c r="T155"/>
     </row>
-    <row r="156" spans="1:20">
-      <c r="A156" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="B156" s="13"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13">
-        <v>4866</v>
-      </c>
-      <c r="E156" s="13"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="25"/>
-      <c r="H156" s="25">
-        <v>1</v>
-      </c>
-      <c r="I156" s="25"/>
-      <c r="J156" s="18">
-        <v>4866</v>
-      </c>
-      <c r="K156" s="13">
-        <v>1</v>
-      </c>
+    <row r="156" spans="2:20">
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
       <c r="L156"/>
       <c r="M156"/>
       <c r="N156"/>
@@ -15957,28 +14586,17 @@
       <c r="S156"/>
       <c r="T156"/>
     </row>
-    <row r="157" spans="1:20">
-      <c r="A157" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="B157" s="13"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13">
-        <v>4866</v>
-      </c>
-      <c r="E157" s="13"/>
-      <c r="F157" s="24"/>
-      <c r="G157" s="25"/>
-      <c r="H157" s="25">
-        <v>1</v>
-      </c>
-      <c r="I157" s="25"/>
-      <c r="J157" s="18">
-        <v>4866</v>
-      </c>
-      <c r="K157" s="13">
-        <v>1</v>
-      </c>
+    <row r="157" spans="2:20">
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157"/>
       <c r="L157"/>
       <c r="M157"/>
       <c r="N157"/>
@@ -15989,28 +14607,17 @@
       <c r="S157"/>
       <c r="T157"/>
     </row>
-    <row r="158" spans="1:20">
-      <c r="A158" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13">
-        <v>10854</v>
-      </c>
-      <c r="E158" s="13"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="25"/>
-      <c r="H158" s="25">
-        <v>1</v>
-      </c>
-      <c r="I158" s="25"/>
-      <c r="J158" s="18">
-        <v>10854</v>
-      </c>
-      <c r="K158" s="13">
-        <v>1</v>
-      </c>
+    <row r="158" spans="2:20">
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158"/>
       <c r="L158"/>
       <c r="M158"/>
       <c r="N158"/>
@@ -16021,28 +14628,17 @@
       <c r="S158"/>
       <c r="T158"/>
     </row>
-    <row r="159" spans="1:20">
-      <c r="A159" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="B159" s="13"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13">
-        <v>10854</v>
-      </c>
-      <c r="E159" s="13"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="25"/>
-      <c r="H159" s="25">
-        <v>1</v>
-      </c>
-      <c r="I159" s="25"/>
-      <c r="J159" s="18">
-        <v>10854</v>
-      </c>
-      <c r="K159" s="13">
-        <v>1</v>
-      </c>
+    <row r="159" spans="2:20">
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159"/>
+      <c r="G159"/>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159"/>
       <c r="L159"/>
       <c r="M159"/>
       <c r="N159"/>
@@ -16053,28 +14649,17 @@
       <c r="S159"/>
       <c r="T159"/>
     </row>
-    <row r="160" spans="1:20">
-      <c r="A160" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B160" s="13"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13">
-        <v>138</v>
-      </c>
-      <c r="E160" s="13"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="25"/>
-      <c r="H160" s="25">
-        <v>1</v>
-      </c>
-      <c r="I160" s="25"/>
-      <c r="J160" s="18">
-        <v>138</v>
-      </c>
-      <c r="K160" s="13">
-        <v>1</v>
-      </c>
+    <row r="160" spans="2:20">
+      <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160"/>
       <c r="L160"/>
       <c r="M160"/>
       <c r="N160"/>
@@ -16085,28 +14670,17 @@
       <c r="S160"/>
       <c r="T160"/>
     </row>
-    <row r="161" spans="1:20">
-      <c r="A161" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="B161" s="13"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13">
-        <v>138</v>
-      </c>
-      <c r="E161" s="13"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="25"/>
-      <c r="H161" s="25">
-        <v>1</v>
-      </c>
-      <c r="I161" s="25"/>
-      <c r="J161" s="18">
-        <v>138</v>
-      </c>
-      <c r="K161" s="13">
-        <v>1</v>
-      </c>
+    <row r="161" spans="2:20">
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
       <c r="L161"/>
       <c r="M161"/>
       <c r="N161"/>
@@ -16117,28 +14691,17 @@
       <c r="S161"/>
       <c r="T161"/>
     </row>
-    <row r="162" spans="1:20">
-      <c r="A162" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B162" s="13"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13">
-        <v>7707</v>
-      </c>
-      <c r="E162" s="13"/>
-      <c r="F162" s="24"/>
-      <c r="G162" s="25"/>
-      <c r="H162" s="25">
-        <v>1</v>
-      </c>
-      <c r="I162" s="25"/>
-      <c r="J162" s="18">
-        <v>7707</v>
-      </c>
-      <c r="K162" s="13">
-        <v>1</v>
-      </c>
+    <row r="162" spans="2:20">
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="H162"/>
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162"/>
       <c r="L162"/>
       <c r="M162"/>
       <c r="N162"/>
@@ -16149,28 +14712,17 @@
       <c r="S162"/>
       <c r="T162"/>
     </row>
-    <row r="163" spans="1:20">
-      <c r="A163" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="B163" s="13"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13">
-        <v>7707</v>
-      </c>
-      <c r="E163" s="13"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="25"/>
-      <c r="H163" s="25">
-        <v>1</v>
-      </c>
-      <c r="I163" s="25"/>
-      <c r="J163" s="18">
-        <v>7707</v>
-      </c>
-      <c r="K163" s="13">
-        <v>1</v>
-      </c>
+    <row r="163" spans="2:20">
+      <c r="B163"/>
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163"/>
       <c r="L163"/>
       <c r="M163"/>
       <c r="N163"/>
@@ -16181,28 +14733,17 @@
       <c r="S163"/>
       <c r="T163"/>
     </row>
-    <row r="164" spans="1:20">
-      <c r="A164" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B164" s="13"/>
-      <c r="C164" s="13">
-        <v>3780</v>
-      </c>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="24"/>
-      <c r="G164" s="25">
-        <v>1</v>
-      </c>
-      <c r="H164" s="25"/>
-      <c r="I164" s="25"/>
-      <c r="J164" s="18">
-        <v>3780</v>
-      </c>
-      <c r="K164" s="13">
-        <v>1</v>
-      </c>
+    <row r="164" spans="2:20">
+      <c r="B164"/>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164"/>
       <c r="L164"/>
       <c r="M164"/>
       <c r="N164"/>
@@ -16213,28 +14754,17 @@
       <c r="S164"/>
       <c r="T164"/>
     </row>
-    <row r="165" spans="1:20">
-      <c r="A165" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B165" s="13"/>
-      <c r="C165" s="13">
-        <v>3780</v>
-      </c>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="24"/>
-      <c r="G165" s="25">
-        <v>1</v>
-      </c>
-      <c r="H165" s="25"/>
-      <c r="I165" s="25"/>
-      <c r="J165" s="18">
-        <v>3780</v>
-      </c>
-      <c r="K165" s="13">
-        <v>1</v>
-      </c>
+    <row r="165" spans="2:20">
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165"/>
+      <c r="I165"/>
+      <c r="J165"/>
+      <c r="K165"/>
       <c r="L165"/>
       <c r="M165"/>
       <c r="N165"/>
@@ -16245,28 +14775,17 @@
       <c r="S165"/>
       <c r="T165"/>
     </row>
-    <row r="166" spans="1:20">
-      <c r="A166" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="B166" s="13"/>
-      <c r="C166" s="13">
-        <v>3780</v>
-      </c>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="24"/>
-      <c r="G166" s="25">
-        <v>1</v>
-      </c>
-      <c r="H166" s="25"/>
-      <c r="I166" s="25"/>
-      <c r="J166" s="18">
-        <v>3780</v>
-      </c>
-      <c r="K166" s="13">
-        <v>1</v>
-      </c>
+    <row r="166" spans="2:20">
+      <c r="B166"/>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="H166"/>
+      <c r="I166"/>
+      <c r="J166"/>
+      <c r="K166"/>
       <c r="L166"/>
       <c r="M166"/>
       <c r="N166"/>
@@ -16277,20 +14796,17 @@
       <c r="S166"/>
       <c r="T166"/>
     </row>
-    <row r="167" spans="1:20">
-      <c r="A167" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B167" s="13"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="24"/>
-      <c r="G167" s="25"/>
-      <c r="H167" s="25"/>
-      <c r="I167" s="25"/>
-      <c r="J167" s="18"/>
-      <c r="K167" s="13"/>
+    <row r="167" spans="2:20">
+      <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167"/>
+      <c r="G167"/>
+      <c r="H167"/>
+      <c r="I167"/>
+      <c r="J167"/>
+      <c r="K167"/>
       <c r="L167"/>
       <c r="M167"/>
       <c r="N167"/>
@@ -16301,20 +14817,17 @@
       <c r="S167"/>
       <c r="T167"/>
     </row>
-    <row r="168" spans="1:20">
-      <c r="A168" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B168" s="13"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="25"/>
-      <c r="H168" s="25"/>
-      <c r="I168" s="25"/>
-      <c r="J168" s="18"/>
-      <c r="K168" s="13"/>
+    <row r="168" spans="2:20">
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="H168"/>
+      <c r="I168"/>
+      <c r="J168"/>
+      <c r="K168"/>
       <c r="L168"/>
       <c r="M168"/>
       <c r="N168"/>
@@ -16325,20 +14838,17 @@
       <c r="S168"/>
       <c r="T168"/>
     </row>
-    <row r="169" spans="1:20">
-      <c r="A169" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B169" s="13"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="25"/>
-      <c r="H169" s="25"/>
-      <c r="I169" s="25"/>
-      <c r="J169" s="18"/>
-      <c r="K169" s="13"/>
+    <row r="169" spans="2:20">
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169"/>
+      <c r="K169"/>
       <c r="L169"/>
       <c r="M169"/>
       <c r="N169"/>
@@ -16349,20 +14859,17 @@
       <c r="S169"/>
       <c r="T169"/>
     </row>
-    <row r="170" spans="1:20">
-      <c r="A170" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="B170" s="13"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="24"/>
-      <c r="G170" s="25"/>
-      <c r="H170" s="25"/>
-      <c r="I170" s="25"/>
-      <c r="J170" s="18"/>
-      <c r="K170" s="13"/>
+    <row r="170" spans="2:20">
+      <c r="B170"/>
+      <c r="C170"/>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170"/>
       <c r="L170"/>
       <c r="M170"/>
       <c r="N170"/>
@@ -16373,20 +14880,17 @@
       <c r="S170"/>
       <c r="T170"/>
     </row>
-    <row r="171" spans="1:20">
-      <c r="A171" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="B171" s="13"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="25"/>
-      <c r="H171" s="25"/>
-      <c r="I171" s="25"/>
-      <c r="J171" s="18"/>
-      <c r="K171" s="13"/>
+    <row r="171" spans="2:20">
+      <c r="B171"/>
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171"/>
+      <c r="G171"/>
+      <c r="H171"/>
+      <c r="I171"/>
+      <c r="J171"/>
+      <c r="K171"/>
       <c r="L171"/>
       <c r="M171"/>
       <c r="N171"/>
@@ -16397,20 +14901,17 @@
       <c r="S171"/>
       <c r="T171"/>
     </row>
-    <row r="172" spans="1:20">
-      <c r="A172" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="B172" s="13"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="13"/>
-      <c r="F172" s="24"/>
-      <c r="G172" s="25"/>
-      <c r="H172" s="25"/>
-      <c r="I172" s="25"/>
-      <c r="J172" s="18"/>
-      <c r="K172" s="13"/>
+    <row r="172" spans="2:20">
+      <c r="B172"/>
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+      <c r="G172"/>
+      <c r="H172"/>
+      <c r="I172"/>
+      <c r="J172"/>
+      <c r="K172"/>
       <c r="L172"/>
       <c r="M172"/>
       <c r="N172"/>
@@ -16421,36 +14922,17 @@
       <c r="S172"/>
       <c r="T172"/>
     </row>
-    <row r="173" spans="1:20">
-      <c r="A173" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="B173" s="13">
-        <v>7338</v>
-      </c>
-      <c r="C173" s="13">
-        <v>172635</v>
-      </c>
-      <c r="D173" s="13">
-        <v>310950</v>
-      </c>
-      <c r="E173" s="13"/>
-      <c r="F173" s="24">
-        <v>3</v>
-      </c>
-      <c r="G173" s="25">
-        <v>39</v>
-      </c>
-      <c r="H173" s="25">
-        <v>57</v>
-      </c>
-      <c r="I173" s="25"/>
-      <c r="J173" s="18">
-        <v>490923</v>
-      </c>
-      <c r="K173" s="13">
-        <v>99</v>
-      </c>
+    <row r="173" spans="2:20">
+      <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173"/>
+      <c r="G173"/>
+      <c r="H173"/>
+      <c r="I173"/>
+      <c r="J173"/>
+      <c r="K173"/>
       <c r="L173"/>
       <c r="M173"/>
       <c r="N173"/>
@@ -16461,7 +14943,7 @@
       <c r="S173"/>
       <c r="T173"/>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="2:20">
       <c r="B174"/>
       <c r="C174"/>
       <c r="D174"/>
@@ -16482,7 +14964,7 @@
       <c r="S174"/>
       <c r="T174"/>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="2:20">
       <c r="B175"/>
       <c r="C175"/>
       <c r="D175"/>
@@ -16503,7 +14985,7 @@
       <c r="S175"/>
       <c r="T175"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="2:20">
       <c r="B176"/>
       <c r="C176"/>
       <c r="D176"/>

--- a/sampling/sampled_villages.xlsx
+++ b/sampling/sampled_villages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pivot_table" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </definedNames>
   <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="445">
   <si>
     <t>lz</t>
   </si>
@@ -1652,943 +1652,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="196">
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <border>
         <top style="thin">
@@ -4900,8 +3964,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A1:I59" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A1:I81" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
@@ -4951,13 +4015,13 @@
         <item sd="0" x="15"/>
         <item sd="0" x="8"/>
         <item sd="0" x="9"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
         <item sd="0" x="5"/>
         <item sd="0" x="11"/>
         <item sd="0" x="17"/>
-        <item sd="0" x="1"/>
+        <item x="1"/>
         <item sd="0" x="6"/>
         <item sd="0" x="12"/>
         <item sd="0" x="18"/>
@@ -5185,7 +4249,7 @@
     <field x="9"/>
     <field x="16"/>
   </rowFields>
-  <rowItems count="56">
+  <rowItems count="78">
     <i>
       <x/>
     </i>
@@ -5249,6 +4313,12 @@
     <i r="3">
       <x v="12"/>
     </i>
+    <i r="4">
+      <x v="89"/>
+    </i>
+    <i r="5">
+      <x v="37"/>
+    </i>
     <i r="2">
       <x v="4"/>
     </i>
@@ -5264,11 +4334,71 @@
     <i r="3">
       <x v="6"/>
     </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="5">
+      <x v="3"/>
+    </i>
+    <i r="4">
+      <x v="5"/>
+    </i>
+    <i r="5">
+      <x v="42"/>
+    </i>
+    <i r="4">
+      <x v="26"/>
+    </i>
+    <i r="5">
+      <x v="14"/>
+    </i>
+    <i r="4">
+      <x v="27"/>
+    </i>
+    <i r="5">
+      <x v="53"/>
+    </i>
+    <i r="4">
+      <x v="29"/>
+    </i>
+    <i r="5">
+      <x v="55"/>
+    </i>
     <i r="3">
       <x v="7"/>
     </i>
+    <i r="4">
+      <x v="76"/>
+    </i>
+    <i r="5">
+      <x v="32"/>
+    </i>
+    <i r="4">
+      <x v="80"/>
+    </i>
+    <i r="5">
+      <x v="33"/>
+    </i>
     <i r="3">
       <x v="8"/>
+    </i>
+    <i r="4">
+      <x v="24"/>
+    </i>
+    <i r="5">
+      <x v="51"/>
+    </i>
+    <i r="4">
+      <x v="59"/>
+    </i>
+    <i r="5">
+      <x v="26"/>
+    </i>
+    <i r="4">
+      <x v="65"/>
+    </i>
+    <i r="5">
+      <x v="28"/>
     </i>
     <i r="2">
       <x v="6"/>
@@ -5383,7 +4513,7 @@
     <i t="grand">
       <x/>
     </i>
-    <i t="grand" i="1">
+    <i t="grand">
       <x/>
     </i>
   </colItems>
@@ -5392,36 +4522,36 @@
     <dataField name="num_villages" fld="12" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="28">
-    <format dxfId="195">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="194">
+    <format dxfId="26">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="193">
+    <format dxfId="25">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="192">
+    <format dxfId="24">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="191">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="190">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="189">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="188">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5434,7 +4564,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="187">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5444,7 +4574,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="186">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5454,7 +4584,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="185">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5467,7 +4597,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="184">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5477,7 +4607,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="183">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0" defaultSubtotal="1">
@@ -5486,10 +4616,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="182">
+    <format dxfId="14">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="181">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" defaultSubtotal="1">
@@ -5498,7 +4628,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="180">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0" defaultSubtotal="1">
@@ -5507,10 +4637,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="179">
+    <format dxfId="11">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="178">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" defaultSubtotal="1">
@@ -5519,7 +4649,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="177">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0" defaultSubtotal="1">
@@ -5528,7 +4658,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="176">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0" defaultSubtotal="1">
@@ -5537,7 +4667,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="175">
+    <format dxfId="7">
       <pivotArea field="1" dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -5546,7 +4676,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="174">
+    <format dxfId="6">
       <pivotArea field="1" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5555,7 +4685,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="173">
+    <format dxfId="5">
       <pivotArea field="1" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5564,7 +4694,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="172">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -5573,7 +4703,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="171">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5583,7 +4713,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="170">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5593,7 +4723,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="169">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -5602,7 +4732,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="168">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5950,13 +5080,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="49.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="9" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="14" customWidth="1"/>
@@ -6821,28 +5951,24 @@
       <c r="T24"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="6" t="s">
-        <v>20</v>
+      <c r="A25" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13">
-        <v>23832</v>
-      </c>
-      <c r="D25" s="13">
-        <v>11157</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="D25" s="13"/>
       <c r="E25" s="24"/>
       <c r="F25" s="25">
-        <v>7</v>
-      </c>
-      <c r="G25" s="25">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G25" s="25"/>
       <c r="H25" s="18">
-        <v>34989</v>
+        <v>657</v>
       </c>
       <c r="I25" s="13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -6857,12 +5983,12 @@
       <c r="T25"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="7" t="s">
-        <v>21</v>
+      <c r="A26" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13">
-        <v>1821</v>
+        <v>657</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="24"/>
@@ -6871,7 +5997,7 @@
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="18">
-        <v>1821</v>
+        <v>657</v>
       </c>
       <c r="I26" s="13">
         <v>1</v>
@@ -6889,24 +6015,28 @@
       <c r="T26"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="8" t="s">
-        <v>38</v>
+      <c r="A27" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13">
-        <v>1821</v>
-      </c>
-      <c r="D27" s="13"/>
+        <v>23832</v>
+      </c>
+      <c r="D27" s="13">
+        <v>11157</v>
+      </c>
       <c r="E27" s="24"/>
       <c r="F27" s="25">
-        <v>1</v>
-      </c>
-      <c r="G27" s="25"/>
+        <v>7</v>
+      </c>
+      <c r="G27" s="25">
+        <v>4</v>
+      </c>
       <c r="H27" s="18">
-        <v>1821</v>
+        <v>34989</v>
       </c>
       <c r="I27" s="13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
@@ -6921,8 +6051,8 @@
       <c r="T27"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="16" t="s">
-        <v>41</v>
+      <c r="A28" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13">
@@ -6953,28 +6083,24 @@
       <c r="T28"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="7" t="s">
-        <v>42</v>
+      <c r="A29" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13">
-        <v>6654</v>
-      </c>
-      <c r="D29" s="13">
-        <v>6513</v>
-      </c>
+        <v>1821</v>
+      </c>
+      <c r="D29" s="13"/>
       <c r="E29" s="24"/>
       <c r="F29" s="25">
-        <v>2</v>
-      </c>
-      <c r="G29" s="25">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G29" s="25"/>
       <c r="H29" s="18">
-        <v>13167</v>
+        <v>1821</v>
       </c>
       <c r="I29" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -6989,24 +6115,24 @@
       <c r="T29"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="7" t="s">
-        <v>63</v>
+      <c r="A30" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13">
-        <v>3582</v>
+        <v>1821</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="24"/>
       <c r="F30" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="18">
-        <v>3582</v>
+        <v>1821</v>
       </c>
       <c r="I30" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -7022,27 +6148,27 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13">
-        <v>11775</v>
+        <v>6654</v>
       </c>
       <c r="D31" s="13">
-        <v>4644</v>
+        <v>6513</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="25">
         <v>2</v>
       </c>
       <c r="G31" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" s="18">
-        <v>16419</v>
+        <v>13167</v>
       </c>
       <c r="I31" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
@@ -7057,28 +6183,24 @@
       <c r="T31"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="6" t="s">
-        <v>85</v>
+      <c r="A32" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13">
-        <v>33714</v>
-      </c>
-      <c r="D32" s="13">
-        <v>2712</v>
-      </c>
+        <v>2208</v>
+      </c>
+      <c r="D32" s="13"/>
       <c r="E32" s="24"/>
       <c r="F32" s="25">
-        <v>7</v>
-      </c>
-      <c r="G32" s="25">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G32" s="25"/>
       <c r="H32" s="18">
-        <v>36426</v>
+        <v>2208</v>
       </c>
       <c r="I32" s="13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J32"/>
       <c r="K32"/>
@@ -7093,28 +6215,24 @@
       <c r="T32"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="7" t="s">
-        <v>86</v>
+      <c r="A33" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13">
-        <v>21552</v>
-      </c>
-      <c r="D33" s="13">
-        <v>1665</v>
-      </c>
+        <v>2208</v>
+      </c>
+      <c r="D33" s="13"/>
       <c r="E33" s="24"/>
       <c r="F33" s="25">
-        <v>3</v>
-      </c>
-      <c r="G33" s="25">
         <v>1</v>
       </c>
+      <c r="G33" s="25"/>
       <c r="H33" s="18">
-        <v>23217</v>
+        <v>2208</v>
       </c>
       <c r="I33" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
@@ -7129,28 +6247,24 @@
       <c r="T33"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="7" t="s">
-        <v>102</v>
+      <c r="A34" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="B34" s="13"/>
-      <c r="C34" s="13">
-        <v>2793</v>
-      </c>
+      <c r="C34" s="13"/>
       <c r="D34" s="13">
-        <v>1047</v>
+        <v>1485</v>
       </c>
       <c r="E34" s="24"/>
-      <c r="F34" s="25">
-        <v>1</v>
-      </c>
+      <c r="F34" s="25"/>
       <c r="G34" s="25">
         <v>1</v>
       </c>
       <c r="H34" s="18">
-        <v>3840</v>
+        <v>1485</v>
       </c>
       <c r="I34" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
@@ -7165,24 +6279,24 @@
       <c r="T34"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="7" t="s">
-        <v>111</v>
+      <c r="A35" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B35" s="13"/>
-      <c r="C35" s="13">
-        <v>9369</v>
-      </c>
-      <c r="D35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13">
+        <v>1485</v>
+      </c>
       <c r="E35" s="24"/>
-      <c r="F35" s="25">
-        <v>3</v>
-      </c>
-      <c r="G35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25">
+        <v>1</v>
+      </c>
       <c r="H35" s="18">
-        <v>9369</v>
+        <v>1485</v>
       </c>
       <c r="I35" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
@@ -7197,32 +6311,24 @@
       <c r="T35"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="13">
-        <v>777</v>
-      </c>
+      <c r="A36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="13"/>
       <c r="C36" s="13">
-        <v>23787</v>
-      </c>
-      <c r="D36" s="13">
-        <v>33162</v>
-      </c>
-      <c r="E36" s="24">
+        <v>4446</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25">
         <v>1</v>
       </c>
-      <c r="F36" s="25">
-        <v>4</v>
-      </c>
-      <c r="G36" s="25">
-        <v>5</v>
-      </c>
+      <c r="G36" s="25"/>
       <c r="H36" s="18">
-        <v>57726</v>
+        <v>4446</v>
       </c>
       <c r="I36" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
@@ -7237,32 +6343,24 @@
       <c r="T36"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="13">
-        <v>777</v>
-      </c>
+      <c r="A37" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="13"/>
       <c r="C37" s="13">
-        <v>23787</v>
-      </c>
-      <c r="D37" s="13">
-        <v>33162</v>
-      </c>
-      <c r="E37" s="24">
+        <v>4446</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25">
         <v>1</v>
       </c>
-      <c r="F37" s="25">
-        <v>4</v>
-      </c>
-      <c r="G37" s="25">
-        <v>5</v>
-      </c>
+      <c r="G37" s="25"/>
       <c r="H37" s="18">
-        <v>57726</v>
+        <v>4446</v>
       </c>
       <c r="I37" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
@@ -7277,28 +6375,24 @@
       <c r="T37"/>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="7" t="s">
-        <v>168</v>
+      <c r="A38" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="B38" s="13"/>
-      <c r="C38" s="13">
-        <v>21345</v>
-      </c>
+      <c r="C38" s="13"/>
       <c r="D38" s="13">
-        <v>13086</v>
+        <v>1035</v>
       </c>
       <c r="E38" s="24"/>
-      <c r="F38" s="25">
-        <v>3</v>
-      </c>
+      <c r="F38" s="25"/>
       <c r="G38" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38" s="18">
-        <v>34431</v>
+        <v>1035</v>
       </c>
       <c r="I38" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J38"/>
       <c r="K38"/>
@@ -7313,21 +6407,21 @@
       <c r="T38"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B39" s="13">
-        <v>777</v>
-      </c>
+      <c r="A39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="13"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="24">
+      <c r="D39" s="13">
+        <v>1035</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25">
         <v>1</v>
       </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
       <c r="H39" s="18">
-        <v>777</v>
+        <v>1035</v>
       </c>
       <c r="I39" s="13">
         <v>1</v>
@@ -7345,28 +6439,24 @@
       <c r="T39"/>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="7" t="s">
-        <v>230</v>
+      <c r="A40" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B40" s="13"/>
-      <c r="C40" s="13">
-        <v>2442</v>
-      </c>
+      <c r="C40" s="13"/>
       <c r="D40" s="13">
-        <v>20076</v>
+        <v>3993</v>
       </c>
       <c r="E40" s="24"/>
-      <c r="F40" s="25">
+      <c r="F40" s="25"/>
+      <c r="G40" s="25">
         <v>1</v>
       </c>
-      <c r="G40" s="25">
-        <v>2</v>
-      </c>
       <c r="H40" s="18">
-        <v>22518</v>
+        <v>3993</v>
       </c>
       <c r="I40" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
@@ -7381,28 +6471,24 @@
       <c r="T40"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="17" t="s">
-        <v>124</v>
+      <c r="A41" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="B41" s="13"/>
-      <c r="C41" s="13">
-        <v>18426</v>
-      </c>
+      <c r="C41" s="13"/>
       <c r="D41" s="13">
-        <v>75972</v>
+        <v>3993</v>
       </c>
       <c r="E41" s="24"/>
-      <c r="F41" s="25">
-        <v>4</v>
-      </c>
+      <c r="F41" s="25"/>
       <c r="G41" s="25">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H41" s="18">
-        <v>94398</v>
+        <v>3993</v>
       </c>
       <c r="I41" s="13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
@@ -7417,24 +6503,24 @@
       <c r="T41"/>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="5" t="s">
-        <v>19</v>
+      <c r="A42" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13">
-        <v>21006</v>
-      </c>
+      <c r="C42" s="13">
+        <v>3582</v>
+      </c>
+      <c r="D42" s="13"/>
       <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25">
-        <v>4</v>
-      </c>
+      <c r="F42" s="25">
+        <v>2</v>
+      </c>
+      <c r="G42" s="25"/>
       <c r="H42" s="18">
-        <v>21006</v>
+        <v>3582</v>
       </c>
       <c r="I42" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
@@ -7449,24 +6535,24 @@
       <c r="T42"/>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="6" t="s">
-        <v>125</v>
+      <c r="A43" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13">
-        <v>21006</v>
-      </c>
+      <c r="C43" s="13">
+        <v>2610</v>
+      </c>
+      <c r="D43" s="13"/>
       <c r="E43" s="24"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25">
-        <v>4</v>
-      </c>
+      <c r="F43" s="25">
+        <v>1</v>
+      </c>
+      <c r="G43" s="25"/>
       <c r="H43" s="18">
-        <v>21006</v>
+        <v>2610</v>
       </c>
       <c r="I43" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
@@ -7481,24 +6567,24 @@
       <c r="T43"/>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" s="7" t="s">
-        <v>126</v>
+      <c r="A44" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13">
-        <v>17196</v>
-      </c>
+      <c r="C44" s="13">
+        <v>2610</v>
+      </c>
+      <c r="D44" s="13"/>
       <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25">
-        <v>3</v>
-      </c>
+      <c r="F44" s="25">
+        <v>1</v>
+      </c>
+      <c r="G44" s="25"/>
       <c r="H44" s="18">
-        <v>17196</v>
+        <v>2610</v>
       </c>
       <c r="I44" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
@@ -7513,21 +6599,21 @@
       <c r="T44"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="7" t="s">
-        <v>139</v>
+      <c r="A45" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13">
-        <v>3810</v>
-      </c>
+      <c r="C45" s="13">
+        <v>972</v>
+      </c>
+      <c r="D45" s="13"/>
       <c r="E45" s="24"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25">
+      <c r="F45" s="25">
         <v>1</v>
       </c>
+      <c r="G45" s="25"/>
       <c r="H45" s="18">
-        <v>3810</v>
+        <v>972</v>
       </c>
       <c r="I45" s="13">
         <v>1</v>
@@ -7545,28 +6631,24 @@
       <c r="T45"/>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="5" t="s">
-        <v>166</v>
+      <c r="A46" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="13">
-        <v>18426</v>
-      </c>
-      <c r="D46" s="13">
-        <v>54966</v>
-      </c>
+        <v>972</v>
+      </c>
+      <c r="D46" s="13"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25">
-        <v>4</v>
-      </c>
-      <c r="G46" s="25">
-        <v>8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G46" s="25"/>
       <c r="H46" s="18">
-        <v>73392</v>
+        <v>972</v>
       </c>
       <c r="I46" s="13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -7581,28 +6663,28 @@
       <c r="T46"/>
     </row>
     <row r="47" spans="1:20">
-      <c r="A47" s="6" t="s">
-        <v>349</v>
+      <c r="A47" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="13">
-        <v>18426</v>
+        <v>11775</v>
       </c>
       <c r="D47" s="13">
-        <v>54966</v>
+        <v>4644</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G47" s="25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H47" s="18">
-        <v>73392</v>
+        <v>16419</v>
       </c>
       <c r="I47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -7617,28 +6699,24 @@
       <c r="T47"/>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="7" t="s">
-        <v>350</v>
+      <c r="A48" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="B48" s="13"/>
-      <c r="C48" s="13">
-        <v>9552</v>
-      </c>
+      <c r="C48" s="13"/>
       <c r="D48" s="13">
-        <v>33306</v>
+        <v>4644</v>
       </c>
       <c r="E48" s="24"/>
-      <c r="F48" s="25">
-        <v>2</v>
-      </c>
+      <c r="F48" s="25"/>
       <c r="G48" s="25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H48" s="18">
-        <v>42858</v>
+        <v>4644</v>
       </c>
       <c r="I48" s="13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -7653,28 +6731,24 @@
       <c r="T48"/>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="7" t="s">
-        <v>383</v>
+      <c r="A49" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="B49" s="13"/>
-      <c r="C49" s="13">
-        <v>8874</v>
-      </c>
+      <c r="C49" s="13"/>
       <c r="D49" s="13">
-        <v>21660</v>
+        <v>4644</v>
       </c>
       <c r="E49" s="24"/>
-      <c r="F49" s="25">
-        <v>2</v>
-      </c>
+      <c r="F49" s="25"/>
       <c r="G49" s="25">
         <v>1</v>
       </c>
       <c r="H49" s="18">
-        <v>30534</v>
+        <v>4644</v>
       </c>
       <c r="I49" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -7689,32 +6763,24 @@
       <c r="T49"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50" s="13">
-        <v>6732</v>
-      </c>
+      <c r="A50" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="13"/>
       <c r="C50" s="13">
-        <v>7413</v>
-      </c>
-      <c r="D50" s="13">
-        <v>74589</v>
-      </c>
-      <c r="E50" s="24">
-        <v>3</v>
-      </c>
+        <v>4824</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="25">
-        <v>2</v>
-      </c>
-      <c r="G50" s="25">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G50" s="25"/>
       <c r="H50" s="18">
-        <v>88734</v>
+        <v>4824</v>
       </c>
       <c r="I50" s="13">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -7729,28 +6795,24 @@
       <c r="T50"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="13">
-        <v>4047</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13">
-        <v>14445</v>
-      </c>
-      <c r="E51" s="24">
+      <c r="A51" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13">
+        <v>4824</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25">
         <v>1</v>
       </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25">
-        <v>4</v>
-      </c>
+      <c r="G51" s="25"/>
       <c r="H51" s="18">
-        <v>18492</v>
+        <v>4824</v>
       </c>
       <c r="I51" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -7765,28 +6827,24 @@
       <c r="T51"/>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B52" s="13">
-        <v>4047</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13">
-        <v>14445</v>
-      </c>
-      <c r="E52" s="24">
+      <c r="A52" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13">
+        <v>6951</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="25">
         <v>1</v>
       </c>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25">
-        <v>4</v>
-      </c>
+      <c r="G52" s="25"/>
       <c r="H52" s="18">
-        <v>18492</v>
+        <v>6951</v>
       </c>
       <c r="I52" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -7801,28 +6859,24 @@
       <c r="T52"/>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="13">
-        <v>4047</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13">
-        <v>14445</v>
-      </c>
-      <c r="E53" s="24">
+      <c r="A53" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13">
+        <v>6951</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="25">
         <v>1</v>
       </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25">
-        <v>4</v>
-      </c>
+      <c r="G53" s="25"/>
       <c r="H53" s="18">
-        <v>18492</v>
+        <v>6951</v>
       </c>
       <c r="I53" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
@@ -7837,29 +6891,25 @@
       <c r="T53"/>
     </row>
     <row r="54" spans="1:20">
-      <c r="A54" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B54" s="13">
-        <v>2685</v>
-      </c>
+      <c r="A54" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="13"/>
       <c r="C54" s="13">
-        <v>7413</v>
+        <v>33714</v>
       </c>
       <c r="D54" s="13">
-        <v>60144</v>
-      </c>
-      <c r="E54" s="24">
+        <v>2712</v>
+      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" s="25">
+        <v>7</v>
+      </c>
+      <c r="G54" s="25">
         <v>2</v>
       </c>
-      <c r="F54" s="25">
-        <v>2</v>
-      </c>
-      <c r="G54" s="25">
-        <v>5</v>
-      </c>
       <c r="H54" s="18">
-        <v>70242</v>
+        <v>36426</v>
       </c>
       <c r="I54" s="13">
         <v>9</v>
@@ -7877,25 +6927,25 @@
       <c r="T54"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B55" s="13">
-        <v>2685</v>
-      </c>
-      <c r="C55" s="13"/>
+      <c r="A55" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13">
+        <v>21552</v>
+      </c>
       <c r="D55" s="13">
-        <v>38193</v>
-      </c>
-      <c r="E55" s="24">
-        <v>2</v>
-      </c>
-      <c r="F55" s="25"/>
+        <v>1665</v>
+      </c>
+      <c r="E55" s="24"/>
+      <c r="F55" s="25">
+        <v>3</v>
+      </c>
       <c r="G55" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="18">
-        <v>40878</v>
+        <v>23217</v>
       </c>
       <c r="I55" s="13">
         <v>4</v>
@@ -7913,28 +6963,28 @@
       <c r="T55"/>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="6" t="s">
-        <v>349</v>
+      <c r="A56" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13">
-        <v>7413</v>
+        <v>2793</v>
       </c>
       <c r="D56" s="13">
-        <v>21951</v>
+        <v>1047</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="25">
+        <v>1</v>
+      </c>
+      <c r="G56" s="25">
+        <v>1</v>
+      </c>
+      <c r="H56" s="18">
+        <v>3840</v>
+      </c>
+      <c r="I56" s="13">
         <v>2</v>
-      </c>
-      <c r="G56" s="25">
-        <v>3</v>
-      </c>
-      <c r="H56" s="18">
-        <v>29364</v>
-      </c>
-      <c r="I56" s="13">
-        <v>5</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
@@ -7950,27 +7000,23 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="7" t="s">
-        <v>350</v>
+        <v>111</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="13">
-        <v>3633</v>
-      </c>
-      <c r="D57" s="13">
-        <v>21951</v>
-      </c>
+        <v>9369</v>
+      </c>
+      <c r="D57" s="13"/>
       <c r="E57" s="24"/>
       <c r="F57" s="25">
-        <v>1</v>
-      </c>
-      <c r="G57" s="25">
         <v>3</v>
       </c>
+      <c r="G57" s="25"/>
       <c r="H57" s="18">
-        <v>25584</v>
+        <v>9369</v>
       </c>
       <c r="I57" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
@@ -7985,24 +7031,32 @@
       <c r="T57"/>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="B58" s="13"/>
+      <c r="A58" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="13">
+        <v>777</v>
+      </c>
       <c r="C58" s="13">
-        <v>3780</v>
-      </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="24"/>
+        <v>23787</v>
+      </c>
+      <c r="D58" s="13">
+        <v>33162</v>
+      </c>
+      <c r="E58" s="24">
+        <v>1</v>
+      </c>
       <c r="F58" s="25">
-        <v>1</v>
-      </c>
-      <c r="G58" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="G58" s="25">
+        <v>5</v>
+      </c>
       <c r="H58" s="18">
-        <v>3780</v>
+        <v>57726</v>
       </c>
       <c r="I58" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
@@ -8017,32 +7071,32 @@
       <c r="T58"/>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="4" t="s">
-        <v>424</v>
+      <c r="A59" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="B59" s="13">
-        <v>10023</v>
+        <v>777</v>
       </c>
       <c r="C59" s="13">
-        <v>169950</v>
+        <v>23787</v>
       </c>
       <c r="D59" s="13">
-        <v>337206</v>
+        <v>33162</v>
       </c>
       <c r="E59" s="24">
+        <v>1</v>
+      </c>
+      <c r="F59" s="25">
+        <v>4</v>
+      </c>
+      <c r="G59" s="25">
         <v>5</v>
       </c>
-      <c r="F59" s="25">
-        <v>37</v>
-      </c>
-      <c r="G59" s="25">
-        <v>55</v>
-      </c>
       <c r="H59" s="18">
-        <v>517179</v>
+        <v>57726</v>
       </c>
       <c r="I59" s="13">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
@@ -8057,14 +7111,29 @@
       <c r="T59"/>
     </row>
     <row r="60" spans="1:20">
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
+      <c r="A60" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13">
+        <v>21345</v>
+      </c>
+      <c r="D60" s="13">
+        <v>13086</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="25">
+        <v>3</v>
+      </c>
+      <c r="G60" s="25">
+        <v>3</v>
+      </c>
+      <c r="H60" s="18">
+        <v>34431</v>
+      </c>
+      <c r="I60" s="13">
+        <v>6</v>
+      </c>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
@@ -8078,14 +7147,25 @@
       <c r="T60"/>
     </row>
     <row r="61" spans="1:20">
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
+      <c r="A61" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="13">
+        <v>777</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="24">
+        <v>1</v>
+      </c>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="18">
+        <v>777</v>
+      </c>
+      <c r="I61" s="13">
+        <v>1</v>
+      </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
@@ -8099,14 +7179,29 @@
       <c r="T61"/>
     </row>
     <row r="62" spans="1:20">
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
+      <c r="A62" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13">
+        <v>2442</v>
+      </c>
+      <c r="D62" s="13">
+        <v>20076</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" s="25">
+        <v>1</v>
+      </c>
+      <c r="G62" s="25">
+        <v>2</v>
+      </c>
+      <c r="H62" s="18">
+        <v>22518</v>
+      </c>
+      <c r="I62" s="13">
+        <v>3</v>
+      </c>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
@@ -8120,14 +7215,29 @@
       <c r="T62"/>
     </row>
     <row r="63" spans="1:20">
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
+      <c r="A63" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13">
+        <v>18426</v>
+      </c>
+      <c r="D63" s="13">
+        <v>75972</v>
+      </c>
+      <c r="E63" s="24"/>
+      <c r="F63" s="25">
+        <v>4</v>
+      </c>
+      <c r="G63" s="25">
+        <v>12</v>
+      </c>
+      <c r="H63" s="18">
+        <v>94398</v>
+      </c>
+      <c r="I63" s="13">
+        <v>16</v>
+      </c>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
@@ -8141,14 +7251,25 @@
       <c r="T63"/>
     </row>
     <row r="64" spans="1:20">
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
+      <c r="A64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13">
+        <v>21006</v>
+      </c>
+      <c r="E64" s="24"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25">
+        <v>4</v>
+      </c>
+      <c r="H64" s="18">
+        <v>21006</v>
+      </c>
+      <c r="I64" s="13">
+        <v>4</v>
+      </c>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
@@ -8161,15 +7282,26 @@
       <c r="S64"/>
       <c r="T64"/>
     </row>
-    <row r="65" spans="2:20">
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
+    <row r="65" spans="1:20">
+      <c r="A65" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13">
+        <v>21006</v>
+      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25">
+        <v>4</v>
+      </c>
+      <c r="H65" s="18">
+        <v>21006</v>
+      </c>
+      <c r="I65" s="13">
+        <v>4</v>
+      </c>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
@@ -8182,15 +7314,26 @@
       <c r="S65"/>
       <c r="T65"/>
     </row>
-    <row r="66" spans="2:20">
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
+    <row r="66" spans="1:20">
+      <c r="A66" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13">
+        <v>17196</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25">
+        <v>3</v>
+      </c>
+      <c r="H66" s="18">
+        <v>17196</v>
+      </c>
+      <c r="I66" s="13">
+        <v>3</v>
+      </c>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66"/>
@@ -8203,15 +7346,26 @@
       <c r="S66"/>
       <c r="T66"/>
     </row>
-    <row r="67" spans="2:20">
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
+    <row r="67" spans="1:20">
+      <c r="A67" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13">
+        <v>3810</v>
+      </c>
+      <c r="E67" s="24"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25">
+        <v>1</v>
+      </c>
+      <c r="H67" s="18">
+        <v>3810</v>
+      </c>
+      <c r="I67" s="13">
+        <v>1</v>
+      </c>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67"/>
@@ -8224,15 +7378,30 @@
       <c r="S67"/>
       <c r="T67"/>
     </row>
-    <row r="68" spans="2:20">
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
+    <row r="68" spans="1:20">
+      <c r="A68" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13">
+        <v>18426</v>
+      </c>
+      <c r="D68" s="13">
+        <v>54966</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="F68" s="25">
+        <v>4</v>
+      </c>
+      <c r="G68" s="25">
+        <v>8</v>
+      </c>
+      <c r="H68" s="18">
+        <v>73392</v>
+      </c>
+      <c r="I68" s="13">
+        <v>12</v>
+      </c>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68"/>
@@ -8245,15 +7414,30 @@
       <c r="S68"/>
       <c r="T68"/>
     </row>
-    <row r="69" spans="2:20">
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
+    <row r="69" spans="1:20">
+      <c r="A69" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13">
+        <v>18426</v>
+      </c>
+      <c r="D69" s="13">
+        <v>54966</v>
+      </c>
+      <c r="E69" s="24"/>
+      <c r="F69" s="25">
+        <v>4</v>
+      </c>
+      <c r="G69" s="25">
+        <v>8</v>
+      </c>
+      <c r="H69" s="18">
+        <v>73392</v>
+      </c>
+      <c r="I69" s="13">
+        <v>12</v>
+      </c>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
@@ -8266,15 +7450,30 @@
       <c r="S69"/>
       <c r="T69"/>
     </row>
-    <row r="70" spans="2:20">
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
+    <row r="70" spans="1:20">
+      <c r="A70" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13">
+        <v>9552</v>
+      </c>
+      <c r="D70" s="13">
+        <v>33306</v>
+      </c>
+      <c r="E70" s="24"/>
+      <c r="F70" s="25">
+        <v>2</v>
+      </c>
+      <c r="G70" s="25">
+        <v>7</v>
+      </c>
+      <c r="H70" s="18">
+        <v>42858</v>
+      </c>
+      <c r="I70" s="13">
+        <v>9</v>
+      </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
@@ -8287,15 +7486,30 @@
       <c r="S70"/>
       <c r="T70"/>
     </row>
-    <row r="71" spans="2:20">
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
+    <row r="71" spans="1:20">
+      <c r="A71" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13">
+        <v>8874</v>
+      </c>
+      <c r="D71" s="13">
+        <v>21660</v>
+      </c>
+      <c r="E71" s="24"/>
+      <c r="F71" s="25">
+        <v>2</v>
+      </c>
+      <c r="G71" s="25">
+        <v>1</v>
+      </c>
+      <c r="H71" s="18">
+        <v>30534</v>
+      </c>
+      <c r="I71" s="13">
+        <v>3</v>
+      </c>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
@@ -8308,15 +7522,34 @@
       <c r="S71"/>
       <c r="T71"/>
     </row>
-    <row r="72" spans="2:20">
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
+    <row r="72" spans="1:20">
+      <c r="A72" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="13">
+        <v>6732</v>
+      </c>
+      <c r="C72" s="13">
+        <v>7413</v>
+      </c>
+      <c r="D72" s="13">
+        <v>74589</v>
+      </c>
+      <c r="E72" s="24">
+        <v>3</v>
+      </c>
+      <c r="F72" s="25">
+        <v>2</v>
+      </c>
+      <c r="G72" s="25">
+        <v>9</v>
+      </c>
+      <c r="H72" s="18">
+        <v>88734</v>
+      </c>
+      <c r="I72" s="13">
+        <v>14</v>
+      </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72"/>
@@ -8329,15 +7562,30 @@
       <c r="S72"/>
       <c r="T72"/>
     </row>
-    <row r="73" spans="2:20">
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
+    <row r="73" spans="1:20">
+      <c r="A73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="13">
+        <v>4047</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13">
+        <v>14445</v>
+      </c>
+      <c r="E73" s="24">
+        <v>1</v>
+      </c>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25">
+        <v>4</v>
+      </c>
+      <c r="H73" s="18">
+        <v>18492</v>
+      </c>
+      <c r="I73" s="13">
+        <v>5</v>
+      </c>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
@@ -8350,15 +7598,30 @@
       <c r="S73"/>
       <c r="T73"/>
     </row>
-    <row r="74" spans="2:20">
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
+    <row r="74" spans="1:20">
+      <c r="A74" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="13">
+        <v>4047</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13">
+        <v>14445</v>
+      </c>
+      <c r="E74" s="24">
+        <v>1</v>
+      </c>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25">
+        <v>4</v>
+      </c>
+      <c r="H74" s="18">
+        <v>18492</v>
+      </c>
+      <c r="I74" s="13">
+        <v>5</v>
+      </c>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
@@ -8371,15 +7634,30 @@
       <c r="S74"/>
       <c r="T74"/>
     </row>
-    <row r="75" spans="2:20">
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
+    <row r="75" spans="1:20">
+      <c r="A75" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="13">
+        <v>4047</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13">
+        <v>14445</v>
+      </c>
+      <c r="E75" s="24">
+        <v>1</v>
+      </c>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25">
+        <v>4</v>
+      </c>
+      <c r="H75" s="18">
+        <v>18492</v>
+      </c>
+      <c r="I75" s="13">
+        <v>5</v>
+      </c>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
@@ -8392,15 +7670,34 @@
       <c r="S75"/>
       <c r="T75"/>
     </row>
-    <row r="76" spans="2:20">
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
+    <row r="76" spans="1:20">
+      <c r="A76" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="13">
+        <v>2685</v>
+      </c>
+      <c r="C76" s="13">
+        <v>7413</v>
+      </c>
+      <c r="D76" s="13">
+        <v>60144</v>
+      </c>
+      <c r="E76" s="24">
+        <v>2</v>
+      </c>
+      <c r="F76" s="25">
+        <v>2</v>
+      </c>
+      <c r="G76" s="25">
+        <v>5</v>
+      </c>
+      <c r="H76" s="18">
+        <v>70242</v>
+      </c>
+      <c r="I76" s="13">
+        <v>9</v>
+      </c>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76"/>
@@ -8413,15 +7710,30 @@
       <c r="S76"/>
       <c r="T76"/>
     </row>
-    <row r="77" spans="2:20">
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
+    <row r="77" spans="1:20">
+      <c r="A77" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B77" s="13">
+        <v>2685</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13">
+        <v>38193</v>
+      </c>
+      <c r="E77" s="24">
+        <v>2</v>
+      </c>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25">
+        <v>2</v>
+      </c>
+      <c r="H77" s="18">
+        <v>40878</v>
+      </c>
+      <c r="I77" s="13">
+        <v>4</v>
+      </c>
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
@@ -8434,15 +7746,30 @@
       <c r="S77"/>
       <c r="T77"/>
     </row>
-    <row r="78" spans="2:20">
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
+    <row r="78" spans="1:20">
+      <c r="A78" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13">
+        <v>7413</v>
+      </c>
+      <c r="D78" s="13">
+        <v>21951</v>
+      </c>
+      <c r="E78" s="24"/>
+      <c r="F78" s="25">
+        <v>2</v>
+      </c>
+      <c r="G78" s="25">
+        <v>3</v>
+      </c>
+      <c r="H78" s="18">
+        <v>29364</v>
+      </c>
+      <c r="I78" s="13">
+        <v>5</v>
+      </c>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
@@ -8455,15 +7782,30 @@
       <c r="S78"/>
       <c r="T78"/>
     </row>
-    <row r="79" spans="2:20">
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
+    <row r="79" spans="1:20">
+      <c r="A79" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13">
+        <v>3633</v>
+      </c>
+      <c r="D79" s="13">
+        <v>21951</v>
+      </c>
+      <c r="E79" s="24"/>
+      <c r="F79" s="25">
+        <v>1</v>
+      </c>
+      <c r="G79" s="25">
+        <v>3</v>
+      </c>
+      <c r="H79" s="18">
+        <v>25584</v>
+      </c>
+      <c r="I79" s="13">
+        <v>4</v>
+      </c>
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79"/>
@@ -8476,15 +7818,26 @@
       <c r="S79"/>
       <c r="T79"/>
     </row>
-    <row r="80" spans="2:20">
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
+    <row r="80" spans="1:20">
+      <c r="A80" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13">
+        <v>3780</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="25">
+        <v>1</v>
+      </c>
+      <c r="G80" s="25"/>
+      <c r="H80" s="18">
+        <v>3780</v>
+      </c>
+      <c r="I80" s="13">
+        <v>1</v>
+      </c>
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
@@ -8497,15 +7850,34 @@
       <c r="S80"/>
       <c r="T80"/>
     </row>
-    <row r="81" spans="2:20">
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
+    <row r="81" spans="1:20">
+      <c r="A81" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B81" s="13">
+        <v>10023</v>
+      </c>
+      <c r="C81" s="13">
+        <v>169950</v>
+      </c>
+      <c r="D81" s="13">
+        <v>337206</v>
+      </c>
+      <c r="E81" s="24">
+        <v>5</v>
+      </c>
+      <c r="F81" s="25">
+        <v>37</v>
+      </c>
+      <c r="G81" s="25">
+        <v>55</v>
+      </c>
+      <c r="H81" s="18">
+        <v>517179</v>
+      </c>
+      <c r="I81" s="13">
+        <v>97</v>
+      </c>
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81"/>
@@ -8518,7 +7890,7 @@
       <c r="S81"/>
       <c r="T81"/>
     </row>
-    <row r="82" spans="2:20">
+    <row r="82" spans="1:20">
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -8539,7 +7911,7 @@
       <c r="S82"/>
       <c r="T82"/>
     </row>
-    <row r="83" spans="2:20">
+    <row r="83" spans="1:20">
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
@@ -8560,7 +7932,7 @@
       <c r="S83"/>
       <c r="T83"/>
     </row>
-    <row r="84" spans="2:20">
+    <row r="84" spans="1:20">
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -8581,7 +7953,7 @@
       <c r="S84"/>
       <c r="T84"/>
     </row>
-    <row r="85" spans="2:20">
+    <row r="85" spans="1:20">
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -8602,7 +7974,7 @@
       <c r="S85"/>
       <c r="T85"/>
     </row>
-    <row r="86" spans="2:20">
+    <row r="86" spans="1:20">
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -8623,7 +7995,7 @@
       <c r="S86"/>
       <c r="T86"/>
     </row>
-    <row r="87" spans="2:20">
+    <row r="87" spans="1:20">
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
@@ -8644,7 +8016,7 @@
       <c r="S87"/>
       <c r="T87"/>
     </row>
-    <row r="88" spans="2:20">
+    <row r="88" spans="1:20">
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
@@ -8665,7 +8037,7 @@
       <c r="S88"/>
       <c r="T88"/>
     </row>
-    <row r="89" spans="2:20">
+    <row r="89" spans="1:20">
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
@@ -8686,7 +8058,7 @@
       <c r="S89"/>
       <c r="T89"/>
     </row>
-    <row r="90" spans="2:20">
+    <row r="90" spans="1:20">
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
@@ -8707,7 +8079,7 @@
       <c r="S90"/>
       <c r="T90"/>
     </row>
-    <row r="91" spans="2:20">
+    <row r="91" spans="1:20">
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
@@ -8728,7 +8100,7 @@
       <c r="S91"/>
       <c r="T91"/>
     </row>
-    <row r="92" spans="2:20">
+    <row r="92" spans="1:20">
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
@@ -8749,7 +8121,7 @@
       <c r="S92"/>
       <c r="T92"/>
     </row>
-    <row r="93" spans="2:20">
+    <row r="93" spans="1:20">
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
@@ -8770,7 +8142,7 @@
       <c r="S93"/>
       <c r="T93"/>
     </row>
-    <row r="94" spans="2:20">
+    <row r="94" spans="1:20">
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
@@ -8791,7 +8163,7 @@
       <c r="S94"/>
       <c r="T94"/>
     </row>
-    <row r="95" spans="2:20">
+    <row r="95" spans="1:20">
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
@@ -8812,7 +8184,7 @@
       <c r="S95"/>
       <c r="T95"/>
     </row>
-    <row r="96" spans="2:20">
+    <row r="96" spans="1:20">
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>

--- a/sampling/sampled_villages.xlsx
+++ b/sampling/sampled_villages.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pivot_table" sheetId="2" r:id="rId1"/>
     <sheet name="data" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$Q$98</definedName>
     <definedName name="sampled_villages_centroids" localSheetId="1">data!#REF!</definedName>
     <definedName name="sampled_villages_centroids_1" localSheetId="1">data!$A$1:$Q$98</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -493,9 +494,6 @@
     <t>-25.2017, 29.1557</t>
   </si>
   <si>
-    <t>hea - Mpheleng SP: -25.2017, 29.1557</t>
-  </si>
-  <si>
     <t>Phukukane</t>
   </si>
   <si>
@@ -505,9 +503,6 @@
     <t>-25.2482, 29.1260</t>
   </si>
   <si>
-    <t>hea - Phukukane SP: -25.2482, 29.1260</t>
-  </si>
-  <si>
     <t>Thabakhubedu</t>
   </si>
   <si>
@@ -517,9 +512,6 @@
     <t>-25.3431, 29.2537</t>
   </si>
   <si>
-    <t>hea - Thabakhubedu SP: -25.3431, 29.2537</t>
-  </si>
-  <si>
     <t>Ephraim Mogale</t>
   </si>
   <si>
@@ -1436,6 +1428,15 @@
   </si>
   <si>
     <t>hea - Vlakpoort: -27.1376, 29.9660</t>
+  </si>
+  <si>
+    <t>both - Mpheleng SP: -25.2017, 29.1557</t>
+  </si>
+  <si>
+    <t>both - Phukukane SP: -25.2482, 29.1260</t>
+  </si>
+  <si>
+    <t>both - Thabakhubedu SP: -25.3431, 29.2537</t>
   </si>
 </sst>
 </file>
@@ -1686,2503 +1687,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="476">
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-        <vertical style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </left>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <border>
         <top style="thin">
@@ -4345,7 +1850,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Charles Rethman" refreshedDate="42671.633836342589" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="97">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Charles Rethman" refreshedDate="42761.585798148146" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="97">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:Q98" sheet="data"/>
   </cacheSource>
@@ -4536,7 +2041,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="village_and_coord" numFmtId="49">
-      <sharedItems count="97">
+      <sharedItems count="100">
         <s v="continuum - Mohlabeng: -23.9324, 30.9964"/>
         <s v="hea - Humulani: -23.8723, 31.0641"/>
         <s v="continuum - Tshitale SP: -23.3586, 29.9951"/>
@@ -4560,9 +2065,9 @@
         <s v="continuum - Hasane SP: -23.0936, 30.4783"/>
         <s v="continuum - Makuleke SP: -22.8695, 30.9188"/>
         <s v="continuum - Mtititi SP: -23.0931, 30.8984"/>
-        <s v="hea - Mpheleng SP: -25.2017, 29.1557"/>
-        <s v="hea - Phukukane SP: -25.2482, 29.1260"/>
-        <s v="hea - Thabakhubedu SP: -25.3431, 29.2537"/>
+        <s v="both - Mpheleng SP: -25.2017, 29.1557"/>
+        <s v="both - Phukukane SP: -25.2482, 29.1260"/>
+        <s v="both - Thabakhubedu SP: -25.3431, 29.2537"/>
         <s v="hea - Matlala Ramoshebo SP: -25.0441, 29.1021"/>
         <s v="both - Malebitsa SP: -24.8980, 28.9280"/>
         <s v="hea - Matlerekeng SP: -24.9871, 29.0572"/>
@@ -4634,6 +2139,9 @@
         <s v="hea - Marapyane SP: -25.0083, 28.7897"/>
         <s v="hea - Seabe SP: -25.0257, 28.6961"/>
         <s v="continuum - Bhundu SP: -25.3083, 29.0680"/>
+        <s v="hea - Mpheleng SP: -25.2017, 29.1557" u="1"/>
+        <s v="hea - Thabakhubedu SP: -25.3431, 29.2537" u="1"/>
+        <s v="hea - Phukukane SP: -25.2482, 29.1260" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -5086,7 +2594,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="1"/>
+    <x v="2"/>
     <d v="2016-10-04T00:00:00"/>
     <x v="0"/>
     <n v="9"/>
@@ -5105,7 +2613,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="1"/>
+    <x v="2"/>
     <d v="2016-10-04T00:00:00"/>
     <x v="0"/>
     <n v="9"/>
@@ -5124,7 +2632,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="1"/>
+    <x v="2"/>
     <d v="2016-10-04T00:00:00"/>
     <x v="0"/>
     <n v="9"/>
@@ -6494,7 +4002,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A1:I248" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0">
@@ -6669,7 +4177,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="98">
+      <items count="101">
         <item x="59"/>
         <item x="27"/>
         <item x="72"/>
@@ -6743,18 +4251,18 @@
         <item x="63"/>
         <item x="74"/>
         <item x="75"/>
-        <item x="23"/>
+        <item m="1" x="97"/>
         <item x="36"/>
         <item x="64"/>
         <item x="81"/>
         <item x="46"/>
-        <item x="24"/>
+        <item m="1" x="99"/>
         <item x="82"/>
         <item x="95"/>
         <item x="16"/>
         <item x="69"/>
         <item x="29"/>
-        <item x="25"/>
+        <item m="1" x="98"/>
         <item x="30"/>
         <item x="19"/>
         <item x="31"/>
@@ -6767,6 +4275,9 @@
         <item x="89"/>
         <item x="90"/>
         <item x="91"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7294,19 +4805,19 @@
       <x v="66"/>
     </i>
     <i r="5">
-      <x v="73"/>
+      <x v="97"/>
     </i>
     <i r="4">
       <x v="77"/>
     </i>
     <i r="5">
-      <x v="78"/>
+      <x v="98"/>
     </i>
     <i r="4">
       <x v="83"/>
     </i>
     <i r="5">
-      <x v="84"/>
+      <x v="99"/>
     </i>
     <i r="3">
       <x v="5"/>
@@ -7553,36 +5064,36 @@
     <dataField name="num_villages" fld="12" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="28">
-    <format dxfId="475">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="474">
+    <format dxfId="26">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="473">
+    <format dxfId="25">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="472">
+    <format dxfId="24">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="471">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="470">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="469">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="468">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7595,7 +5106,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="467">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7605,7 +5116,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="466">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7615,7 +5126,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="465">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7628,7 +5139,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="464">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7638,7 +5149,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="463">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0" defaultSubtotal="1">
@@ -7647,10 +5158,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="462">
+    <format dxfId="14">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="461">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" defaultSubtotal="1">
@@ -7659,7 +5170,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="460">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0" defaultSubtotal="1">
@@ -7668,10 +5179,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="459">
+    <format dxfId="11">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="458">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" defaultSubtotal="1">
@@ -7680,7 +5191,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="457">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0" defaultSubtotal="1">
@@ -7689,7 +5200,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="456">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0" defaultSubtotal="1">
@@ -7698,7 +5209,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="455">
+    <format dxfId="7">
       <pivotArea field="1" dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7707,7 +5218,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="454">
+    <format dxfId="6">
       <pivotArea field="1" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7716,7 +5227,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="453">
+    <format dxfId="5">
       <pivotArea field="1" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7725,7 +5236,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="452">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7734,7 +5245,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="451">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7744,7 +5255,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="450">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7754,7 +5265,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="449">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7763,7 +5274,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="448">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8111,8 +5622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="L198" sqref="L198"/>
+    <sheetView topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -8134,7 +5645,7 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="B1" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -8155,20 +5666,20 @@
     <row r="2" spans="1:39" s="11" customFormat="1" ht="48">
       <c r="A2"/>
       <c r="B2" s="23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="22" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="29" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
@@ -8203,10 +5714,10 @@
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>18</v>
@@ -8215,7 +5726,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>18</v>
@@ -8511,7 +6022,7 @@
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13">
@@ -8547,7 +6058,7 @@
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13">
@@ -8583,7 +6094,7 @@
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13">
@@ -8619,7 +6130,7 @@
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -8651,7 +6162,7 @@
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -8683,7 +6194,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -8715,7 +6226,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -8747,7 +6258,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13">
@@ -8779,7 +6290,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13">
@@ -8811,7 +6322,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -8843,7 +6354,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -8875,7 +6386,7 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -8907,7 +6418,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -8939,7 +6450,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13">
@@ -8971,7 +6482,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13">
@@ -9003,7 +6514,7 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -9035,7 +6546,7 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -9067,7 +6578,7 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -9099,7 +6610,7 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -9131,7 +6642,7 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13">
@@ -9167,7 +6678,7 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13">
@@ -9199,7 +6710,7 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13">
@@ -9231,7 +6742,7 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13">
@@ -9263,7 +6774,7 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="13">
@@ -9295,7 +6806,7 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13">
@@ -9327,7 +6838,7 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13">
@@ -9359,7 +6870,7 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13">
@@ -9391,7 +6902,7 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13">
@@ -9423,7 +6934,7 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -9455,7 +6966,7 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -9487,7 +6998,7 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="13">
@@ -9519,7 +7030,7 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="13">
@@ -9551,7 +7062,7 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -9583,7 +7094,7 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -9615,7 +7126,7 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="13">
@@ -9651,7 +7162,7 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="13">
@@ -9683,7 +7194,7 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13">
@@ -9715,7 +7226,7 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -9747,7 +7258,7 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -9779,7 +7290,7 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -9811,7 +7322,7 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -9843,7 +7354,7 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -9875,7 +7386,7 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="16" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -9907,7 +7418,7 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="13">
@@ -9939,7 +7450,7 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13">
@@ -9971,7 +7482,7 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="13">
@@ -10003,7 +7514,7 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="13">
@@ -10035,7 +7546,7 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13">
@@ -10067,7 +7578,7 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B60" s="15">
         <v>2514</v>
@@ -10107,7 +7618,7 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B61" s="13">
         <v>2514</v>
@@ -10147,7 +7658,7 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B62" s="13">
         <v>2514</v>
@@ -10187,7 +7698,7 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B63" s="13">
         <v>2514</v>
@@ -10227,7 +7738,7 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -10259,7 +7770,7 @@
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -10291,7 +7802,7 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -10323,7 +7834,7 @@
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -10355,7 +7866,7 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="13">
@@ -10387,7 +7898,7 @@
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="13">
@@ -10419,7 +7930,7 @@
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -10451,7 +7962,7 @@
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -10483,7 +7994,7 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -10515,7 +8026,7 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -10547,7 +8058,7 @@
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -10579,7 +8090,7 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -10611,7 +8122,7 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B76" s="13">
         <v>2514</v>
@@ -10643,7 +8154,7 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B77" s="13">
         <v>2514</v>
@@ -10675,7 +8186,7 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -10707,7 +8218,7 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -10739,7 +8250,7 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -10771,7 +8282,7 @@
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -10803,7 +8314,7 @@
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -10835,7 +8346,7 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -10867,7 +8378,7 @@
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -10899,7 +8410,7 @@
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -10931,7 +8442,7 @@
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -10963,7 +8474,7 @@
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -10995,7 +8506,7 @@
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -11027,7 +8538,7 @@
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -12855,7 +10366,7 @@
     </row>
     <row r="145" spans="1:20">
       <c r="A145" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B145" s="13">
         <v>777</v>
@@ -12895,7 +10406,7 @@
     </row>
     <row r="146" spans="1:20">
       <c r="A146" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B146" s="13">
         <v>777</v>
@@ -12935,7 +10446,7 @@
     </row>
     <row r="147" spans="1:20">
       <c r="A147" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B147" s="13"/>
       <c r="C147" s="13">
@@ -12971,7 +10482,7 @@
     </row>
     <row r="148" spans="1:20">
       <c r="A148" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -13003,7 +10514,7 @@
     </row>
     <row r="149" spans="1:20">
       <c r="A149" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -13035,7 +10546,7 @@
     </row>
     <row r="150" spans="1:20">
       <c r="A150" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B150" s="13"/>
       <c r="C150" s="13">
@@ -13067,7 +10578,7 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" s="16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="13">
@@ -13099,7 +10610,7 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B152" s="13"/>
       <c r="C152" s="13">
@@ -13131,7 +10642,7 @@
     </row>
     <row r="153" spans="1:20">
       <c r="A153" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B153" s="13"/>
       <c r="C153" s="13">
@@ -13163,7 +10674,7 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -13195,7 +10706,7 @@
     </row>
     <row r="155" spans="1:20">
       <c r="A155" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -13227,7 +10738,7 @@
     </row>
     <row r="156" spans="1:20">
       <c r="A156" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -13259,7 +10770,7 @@
     </row>
     <row r="157" spans="1:20">
       <c r="A157" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -13291,7 +10802,7 @@
     </row>
     <row r="158" spans="1:20">
       <c r="A158" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B158" s="13"/>
       <c r="C158" s="13">
@@ -13323,7 +10834,7 @@
     </row>
     <row r="159" spans="1:20">
       <c r="A159" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B159" s="13"/>
       <c r="C159" s="13">
@@ -13355,7 +10866,7 @@
     </row>
     <row r="160" spans="1:20">
       <c r="A160" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B160" s="13">
         <v>777</v>
@@ -13387,7 +10898,7 @@
     </row>
     <row r="161" spans="1:20">
       <c r="A161" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B161" s="13">
         <v>777</v>
@@ -13419,7 +10930,7 @@
     </row>
     <row r="162" spans="1:20">
       <c r="A162" s="16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B162" s="13">
         <v>777</v>
@@ -13451,7 +10962,7 @@
     </row>
     <row r="163" spans="1:20">
       <c r="A163" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B163" s="13"/>
       <c r="C163" s="13">
@@ -13487,7 +10998,7 @@
     </row>
     <row r="164" spans="1:20">
       <c r="A164" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B164" s="13"/>
       <c r="C164" s="13">
@@ -13519,7 +11030,7 @@
     </row>
     <row r="165" spans="1:20">
       <c r="A165" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B165" s="13"/>
       <c r="C165" s="13">
@@ -13551,7 +11062,7 @@
     </row>
     <row r="166" spans="1:20">
       <c r="A166" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -13583,7 +11094,7 @@
     </row>
     <row r="167" spans="1:20">
       <c r="A167" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -13615,7 +11126,7 @@
     </row>
     <row r="168" spans="1:20">
       <c r="A168" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -13647,7 +11158,7 @@
     </row>
     <row r="169" spans="1:20">
       <c r="A169" s="16" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -13681,19 +11192,23 @@
       <c r="A170" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B170" s="13"/>
+      <c r="B170" s="13">
+        <v>17196</v>
+      </c>
       <c r="C170" s="13">
         <v>18426</v>
       </c>
       <c r="D170" s="13">
-        <v>75972</v>
-      </c>
-      <c r="E170" s="24"/>
+        <v>58776</v>
+      </c>
+      <c r="E170" s="24">
+        <v>3</v>
+      </c>
       <c r="F170" s="25">
         <v>4</v>
       </c>
       <c r="G170" s="25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H170" s="18">
         <v>94398</v>
@@ -13717,15 +11232,19 @@
       <c r="A171" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B171" s="13"/>
+      <c r="B171" s="13">
+        <v>17196</v>
+      </c>
       <c r="C171" s="13"/>
       <c r="D171" s="13">
-        <v>21006</v>
-      </c>
-      <c r="E171" s="24"/>
+        <v>3810</v>
+      </c>
+      <c r="E171" s="24">
+        <v>3</v>
+      </c>
       <c r="F171" s="25"/>
       <c r="G171" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H171" s="18">
         <v>21006</v>
@@ -13749,15 +11268,19 @@
       <c r="A172" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B172" s="13"/>
+      <c r="B172" s="13">
+        <v>17196</v>
+      </c>
       <c r="C172" s="13"/>
       <c r="D172" s="13">
-        <v>21006</v>
-      </c>
-      <c r="E172" s="24"/>
+        <v>3810</v>
+      </c>
+      <c r="E172" s="24">
+        <v>3</v>
+      </c>
       <c r="F172" s="25"/>
       <c r="G172" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H172" s="18">
         <v>21006</v>
@@ -13781,16 +11304,16 @@
       <c r="A173" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B173" s="13"/>
+      <c r="B173" s="13">
+        <v>17196</v>
+      </c>
       <c r="C173" s="13"/>
-      <c r="D173" s="13">
-        <v>17196</v>
-      </c>
-      <c r="E173" s="24"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="24">
+        <v>3</v>
+      </c>
       <c r="F173" s="25"/>
-      <c r="G173" s="25">
-        <v>3</v>
-      </c>
+      <c r="G173" s="25"/>
       <c r="H173" s="18">
         <v>17196</v>
       </c>
@@ -13813,16 +11336,16 @@
       <c r="A174" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B174" s="13"/>
+      <c r="B174" s="13">
+        <v>7116</v>
+      </c>
       <c r="C174" s="13"/>
-      <c r="D174" s="13">
-        <v>7116</v>
-      </c>
-      <c r="E174" s="24"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="24">
+        <v>1</v>
+      </c>
       <c r="F174" s="25"/>
-      <c r="G174" s="25">
-        <v>1</v>
-      </c>
+      <c r="G174" s="25"/>
       <c r="H174" s="18">
         <v>7116</v>
       </c>
@@ -13843,18 +11366,18 @@
     </row>
     <row r="175" spans="1:20">
       <c r="A175" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B175" s="13"/>
+        <v>442</v>
+      </c>
+      <c r="B175" s="13">
+        <v>7116</v>
+      </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="13">
-        <v>7116</v>
-      </c>
-      <c r="E175" s="24"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="24">
+        <v>1</v>
+      </c>
       <c r="F175" s="25"/>
-      <c r="G175" s="25">
-        <v>1</v>
-      </c>
+      <c r="G175" s="25"/>
       <c r="H175" s="18">
         <v>7116</v>
       </c>
@@ -13875,18 +11398,18 @@
     </row>
     <row r="176" spans="1:20">
       <c r="A176" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B176" s="13"/>
+        <v>130</v>
+      </c>
+      <c r="B176" s="13">
+        <v>4155</v>
+      </c>
       <c r="C176" s="13"/>
-      <c r="D176" s="13">
-        <v>4155</v>
-      </c>
-      <c r="E176" s="24"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="24">
+        <v>1</v>
+      </c>
       <c r="F176" s="25"/>
-      <c r="G176" s="25">
-        <v>1</v>
-      </c>
+      <c r="G176" s="25"/>
       <c r="H176" s="18">
         <v>4155</v>
       </c>
@@ -13907,18 +11430,18 @@
     </row>
     <row r="177" spans="1:20">
       <c r="A177" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B177" s="13"/>
+        <v>443</v>
+      </c>
+      <c r="B177" s="13">
+        <v>4155</v>
+      </c>
       <c r="C177" s="13"/>
-      <c r="D177" s="13">
-        <v>4155</v>
-      </c>
-      <c r="E177" s="24"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="24">
+        <v>1</v>
+      </c>
       <c r="F177" s="25"/>
-      <c r="G177" s="25">
-        <v>1</v>
-      </c>
+      <c r="G177" s="25"/>
       <c r="H177" s="18">
         <v>4155</v>
       </c>
@@ -13939,18 +11462,18 @@
     </row>
     <row r="178" spans="1:20">
       <c r="A178" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B178" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="B178" s="13">
+        <v>5925</v>
+      </c>
       <c r="C178" s="13"/>
-      <c r="D178" s="13">
-        <v>5925</v>
-      </c>
-      <c r="E178" s="24"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="24">
+        <v>1</v>
+      </c>
       <c r="F178" s="25"/>
-      <c r="G178" s="25">
-        <v>1</v>
-      </c>
+      <c r="G178" s="25"/>
       <c r="H178" s="18">
         <v>5925</v>
       </c>
@@ -13971,18 +11494,18 @@
     </row>
     <row r="179" spans="1:20">
       <c r="A179" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B179" s="13"/>
+        <v>444</v>
+      </c>
+      <c r="B179" s="13">
+        <v>5925</v>
+      </c>
       <c r="C179" s="13"/>
-      <c r="D179" s="13">
-        <v>5925</v>
-      </c>
-      <c r="E179" s="24"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="24">
+        <v>1</v>
+      </c>
       <c r="F179" s="25"/>
-      <c r="G179" s="25">
-        <v>1</v>
-      </c>
+      <c r="G179" s="25"/>
       <c r="H179" s="18">
         <v>5925</v>
       </c>
@@ -14003,7 +11526,7 @@
     </row>
     <row r="180" spans="1:20">
       <c r="A180" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -14035,7 +11558,7 @@
     </row>
     <row r="181" spans="1:20">
       <c r="A181" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -14067,7 +11590,7 @@
     </row>
     <row r="182" spans="1:20">
       <c r="A182" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -14099,7 +11622,7 @@
     </row>
     <row r="183" spans="1:20">
       <c r="A183" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B183" s="13"/>
       <c r="C183" s="13">
@@ -14135,7 +11658,7 @@
     </row>
     <row r="184" spans="1:20">
       <c r="A184" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B184" s="13"/>
       <c r="C184" s="13">
@@ -14171,7 +11694,7 @@
     </row>
     <row r="185" spans="1:20">
       <c r="A185" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B185" s="13"/>
       <c r="C185" s="13">
@@ -14207,7 +11730,7 @@
     </row>
     <row r="186" spans="1:20">
       <c r="A186" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -14239,7 +11762,7 @@
     </row>
     <row r="187" spans="1:20">
       <c r="A187" s="16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -14271,7 +11794,7 @@
     </row>
     <row r="188" spans="1:20">
       <c r="A188" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
@@ -14303,7 +11826,7 @@
     </row>
     <row r="189" spans="1:20">
       <c r="A189" s="16" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
@@ -14335,7 +11858,7 @@
     </row>
     <row r="190" spans="1:20">
       <c r="A190" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -14367,7 +11890,7 @@
     </row>
     <row r="191" spans="1:20">
       <c r="A191" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -14399,7 +11922,7 @@
     </row>
     <row r="192" spans="1:20">
       <c r="A192" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B192" s="13"/>
       <c r="C192" s="13">
@@ -14431,7 +11954,7 @@
     </row>
     <row r="193" spans="1:20">
       <c r="A193" s="16" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B193" s="13"/>
       <c r="C193" s="13">
@@ -14463,7 +11986,7 @@
     </row>
     <row r="194" spans="1:20">
       <c r="A194" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -14495,7 +12018,7 @@
     </row>
     <row r="195" spans="1:20">
       <c r="A195" s="16" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
@@ -14527,7 +12050,7 @@
     </row>
     <row r="196" spans="1:20">
       <c r="A196" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -14559,7 +12082,7 @@
     </row>
     <row r="197" spans="1:20">
       <c r="A197" s="16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
@@ -14591,7 +12114,7 @@
     </row>
     <row r="198" spans="1:20">
       <c r="A198" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
@@ -14623,7 +12146,7 @@
     </row>
     <row r="199" spans="1:20">
       <c r="A199" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
@@ -14655,7 +12178,7 @@
     </row>
     <row r="200" spans="1:20">
       <c r="A200" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B200" s="13"/>
       <c r="C200" s="13">
@@ -14687,7 +12210,7 @@
     </row>
     <row r="201" spans="1:20">
       <c r="A201" s="16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B201" s="13"/>
       <c r="C201" s="13">
@@ -14719,7 +12242,7 @@
     </row>
     <row r="202" spans="1:20">
       <c r="A202" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
@@ -14751,7 +12274,7 @@
     </row>
     <row r="203" spans="1:20">
       <c r="A203" s="16" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
@@ -14783,7 +12306,7 @@
     </row>
     <row r="204" spans="1:20">
       <c r="A204" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B204" s="13"/>
       <c r="C204" s="13">
@@ -14819,7 +12342,7 @@
     </row>
     <row r="205" spans="1:20">
       <c r="A205" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B205" s="13"/>
       <c r="C205" s="13">
@@ -14855,7 +12378,7 @@
     </row>
     <row r="206" spans="1:20">
       <c r="A206" s="16" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B206" s="13"/>
       <c r="C206" s="13">
@@ -14887,7 +12410,7 @@
     </row>
     <row r="207" spans="1:20">
       <c r="A207" s="16" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
@@ -14919,7 +12442,7 @@
     </row>
     <row r="208" spans="1:20">
       <c r="A208" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B208" s="13"/>
       <c r="C208" s="13">
@@ -14951,7 +12474,7 @@
     </row>
     <row r="209" spans="1:20">
       <c r="A209" s="16" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B209" s="13"/>
       <c r="C209" s="13">
@@ -14983,7 +12506,7 @@
     </row>
     <row r="210" spans="1:20">
       <c r="A210" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B210" s="13">
         <v>6732</v>
@@ -15095,7 +12618,7 @@
     </row>
     <row r="213" spans="1:20">
       <c r="A213" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B213" s="13">
         <v>4047</v>
@@ -15131,7 +12654,7 @@
     </row>
     <row r="214" spans="1:20">
       <c r="A214" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B214" s="13">
         <v>4047</v>
@@ -15163,7 +12686,7 @@
     </row>
     <row r="215" spans="1:20">
       <c r="A215" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B215" s="13">
         <v>4047</v>
@@ -15195,7 +12718,7 @@
     </row>
     <row r="216" spans="1:20">
       <c r="A216" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
@@ -15227,7 +12750,7 @@
     </row>
     <row r="217" spans="1:20">
       <c r="A217" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
@@ -15259,7 +12782,7 @@
     </row>
     <row r="218" spans="1:20">
       <c r="A218" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
@@ -15291,7 +12814,7 @@
     </row>
     <row r="219" spans="1:20">
       <c r="A219" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
@@ -15323,7 +12846,7 @@
     </row>
     <row r="220" spans="1:20">
       <c r="A220" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
@@ -15355,7 +12878,7 @@
     </row>
     <row r="221" spans="1:20">
       <c r="A221" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
@@ -15387,7 +12910,7 @@
     </row>
     <row r="222" spans="1:20">
       <c r="A222" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
@@ -15419,7 +12942,7 @@
     </row>
     <row r="223" spans="1:20">
       <c r="A223" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
@@ -15451,7 +12974,7 @@
     </row>
     <row r="224" spans="1:20">
       <c r="A224" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B224" s="13">
         <v>2685</v>
@@ -15491,7 +13014,7 @@
     </row>
     <row r="225" spans="1:20">
       <c r="A225" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B225" s="13">
         <v>2685</v>
@@ -15527,7 +13050,7 @@
     </row>
     <row r="226" spans="1:20">
       <c r="A226" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B226" s="13">
         <v>999</v>
@@ -15563,7 +13086,7 @@
     </row>
     <row r="227" spans="1:20">
       <c r="A227" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B227" s="13">
         <v>999</v>
@@ -15595,7 +13118,7 @@
     </row>
     <row r="228" spans="1:20">
       <c r="A228" s="16" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B228" s="13">
         <v>999</v>
@@ -15627,7 +13150,7 @@
     </row>
     <row r="229" spans="1:20">
       <c r="A229" s="8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
@@ -15659,7 +13182,7 @@
     </row>
     <row r="230" spans="1:20">
       <c r="A230" s="16" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
@@ -15691,7 +13214,7 @@
     </row>
     <row r="231" spans="1:20">
       <c r="A231" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B231" s="13">
         <v>1686</v>
@@ -15727,7 +13250,7 @@
     </row>
     <row r="232" spans="1:20">
       <c r="A232" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B232" s="13">
         <v>1686</v>
@@ -15763,7 +13286,7 @@
     </row>
     <row r="233" spans="1:20">
       <c r="A233" s="16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B233" s="13">
         <v>1686</v>
@@ -15795,7 +13318,7 @@
     </row>
     <row r="234" spans="1:20">
       <c r="A234" s="16" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
@@ -15827,7 +13350,7 @@
     </row>
     <row r="235" spans="1:20">
       <c r="A235" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B235" s="13"/>
       <c r="C235" s="13">
@@ -15854,7 +13377,7 @@
     </row>
     <row r="236" spans="1:20">
       <c r="A236" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B236" s="13"/>
       <c r="C236" s="13">
@@ -15881,7 +13404,7 @@
     </row>
     <row r="237" spans="1:20">
       <c r="A237" s="8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
@@ -15904,7 +13427,7 @@
     </row>
     <row r="238" spans="1:20">
       <c r="A238" s="16" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
@@ -15927,7 +13450,7 @@
     </row>
     <row r="239" spans="1:20">
       <c r="A239" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B239" s="13"/>
       <c r="C239" s="13">
@@ -15950,7 +13473,7 @@
     </row>
     <row r="240" spans="1:20">
       <c r="A240" s="16" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B240" s="13"/>
       <c r="C240" s="13">
@@ -15973,7 +13496,7 @@
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
@@ -15996,7 +13519,7 @@
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="16" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
@@ -16019,7 +13542,7 @@
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B243" s="13"/>
       <c r="C243" s="13"/>
@@ -16042,7 +13565,7 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="16" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
@@ -16065,7 +13588,7 @@
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B245" s="13"/>
       <c r="C245" s="13">
@@ -16088,7 +13611,7 @@
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B246" s="13"/>
       <c r="C246" s="13">
@@ -16111,7 +13634,7 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="16" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B247" s="13"/>
       <c r="C247" s="13">
@@ -16134,25 +13657,25 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B248" s="13">
-        <v>10023</v>
+        <v>27219</v>
       </c>
       <c r="C248" s="13">
         <v>169950</v>
       </c>
       <c r="D248" s="13">
-        <v>337206</v>
+        <v>320010</v>
       </c>
       <c r="E248" s="24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F248" s="25">
         <v>37</v>
       </c>
       <c r="G248" s="25">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H248" s="18">
         <v>517179</v>
@@ -16320,7 +13843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q99" sqref="Q99"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
@@ -17620,7 +15145,7 @@
         <v>124</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="C25" s="2">
         <v>42647</v>
@@ -17665,7 +15190,7 @@
         <v>129</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>130</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -17673,7 +15198,7 @@
         <v>124</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="C26" s="2">
         <v>42647</v>
@@ -17697,13 +15222,13 @@
         <v>984</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K26">
         <v>984062</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M26">
         <v>984062001</v>
@@ -17715,10 +15240,10 @@
         <v>7</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>134</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -17726,7 +15251,7 @@
         <v>124</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="C27" s="2">
         <v>42647</v>
@@ -17750,13 +15275,13 @@
         <v>984</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K27">
         <v>984073</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M27">
         <v>984073001</v>
@@ -17768,10 +15293,10 @@
         <v>9</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>138</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -17797,19 +15322,19 @@
         <v>947</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I28">
         <v>983</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K28">
         <v>983063</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M28">
         <v>983063001</v>
@@ -17821,18 +15346,18 @@
         <v>6</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C29" s="2">
         <v>42647</v>
@@ -17850,19 +15375,19 @@
         <v>947</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I29">
         <v>983</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K29">
         <v>983035</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M29">
         <v>983035001</v>
@@ -17874,15 +15399,15 @@
         <v>7</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>26</v>
@@ -17903,19 +15428,19 @@
         <v>947</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I30">
         <v>983</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K30">
         <v>983061</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M30">
         <v>983061001</v>
@@ -17927,15 +15452,15 @@
         <v>10</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>26</v>
@@ -17956,19 +15481,19 @@
         <v>947</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I31">
         <v>983</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K31">
         <v>983051</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M31">
         <v>983051001</v>
@@ -17980,15 +15505,15 @@
         <v>4</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>26</v>
@@ -18009,19 +15534,19 @@
         <v>947</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I32">
         <v>983</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K32">
         <v>983062</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M32">
         <v>983062001</v>
@@ -18033,15 +15558,15 @@
         <v>3</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>26</v>
@@ -18062,19 +15587,19 @@
         <v>947</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I33">
         <v>983</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K33">
         <v>983042</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M33">
         <v>983042001</v>
@@ -18086,10 +15611,10 @@
         <v>9</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -18103,31 +15628,31 @@
         <v>42647</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E34">
         <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G34">
         <v>832</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I34">
         <v>877</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K34">
         <v>877083</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M34">
         <v>877083001</v>
@@ -18139,10 +15664,10 @@
         <v>17</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -18156,31 +15681,31 @@
         <v>42647</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E35">
         <v>8</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G35">
         <v>832</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I35">
         <v>877</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K35">
         <v>877120</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M35">
         <v>877120001</v>
@@ -18192,10 +15717,10 @@
         <v>34</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -18209,31 +15734,31 @@
         <v>42647</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E36">
         <v>8</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G36">
         <v>832</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I36">
         <v>877</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K36">
         <v>877020</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M36">
         <v>877020001</v>
@@ -18245,10 +15770,10 @@
         <v>8</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -18262,31 +15787,31 @@
         <v>42647</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E37">
         <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G37">
         <v>832</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I37">
         <v>877</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K37">
         <v>877099</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M37">
         <v>877099001</v>
@@ -18298,10 +15823,10 @@
         <v>10</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -18315,31 +15840,31 @@
         <v>42647</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E38">
         <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G38">
         <v>832</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I38">
         <v>877</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K38">
         <v>877033</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M38">
         <v>877033001</v>
@@ -18351,10 +15876,10 @@
         <v>3</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -18368,31 +15893,31 @@
         <v>42647</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E39">
         <v>8</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G39">
         <v>832</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I39">
         <v>877</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K39">
         <v>877095</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M39">
         <v>877095001</v>
@@ -18404,10 +15929,10 @@
         <v>10</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -18421,31 +15946,31 @@
         <v>42647</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E40">
         <v>8</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G40">
         <v>832</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I40">
         <v>877</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K40">
         <v>877064</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M40">
         <v>877064001</v>
@@ -18457,10 +15982,10 @@
         <v>2</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -18474,31 +15999,31 @@
         <v>42647</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E41">
         <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G41">
         <v>832</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I41">
         <v>877</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K41">
         <v>877088</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M41">
         <v>877088001</v>
@@ -18510,10 +16035,10 @@
         <v>7</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -18527,31 +16052,31 @@
         <v>42647</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E42">
         <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G42">
         <v>832</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I42">
         <v>874</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K42">
         <v>874018</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M42">
         <v>874018001</v>
@@ -18563,10 +16088,10 @@
         <v>15</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -18580,31 +16105,31 @@
         <v>42647</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E43">
         <v>8</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G43">
         <v>832</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I43">
         <v>874</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K43">
         <v>874027</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M43">
         <v>874027001</v>
@@ -18616,10 +16141,10 @@
         <v>12</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -18633,31 +16158,31 @@
         <v>42647</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E44">
         <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G44">
         <v>832</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I44">
         <v>874</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K44">
         <v>874019</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M44">
         <v>874019001</v>
@@ -18669,10 +16194,10 @@
         <v>8</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -18686,31 +16211,31 @@
         <v>42647</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E45">
         <v>8</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G45">
         <v>832</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I45">
         <v>874</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K45">
         <v>874002</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M45">
         <v>874002001</v>
@@ -18722,10 +16247,10 @@
         <v>2</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -18739,31 +16264,31 @@
         <v>42647</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E46">
         <v>8</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G46">
         <v>832</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I46">
         <v>874</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K46">
         <v>874026</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M46">
         <v>874026001</v>
@@ -18775,10 +16300,10 @@
         <v>12</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -18792,31 +16317,31 @@
         <v>42647</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E47">
         <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G47">
         <v>832</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I47">
         <v>874</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K47">
         <v>874054</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M47">
         <v>874054001</v>
@@ -18828,10 +16353,10 @@
         <v>25</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -18845,31 +16370,31 @@
         <v>42647</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E48">
         <v>8</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G48">
         <v>832</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I48">
         <v>874</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K48">
         <v>874014</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M48">
         <v>874014001</v>
@@ -18881,10 +16406,10 @@
         <v>29</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -18898,31 +16423,31 @@
         <v>42647</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E49">
         <v>8</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G49">
         <v>832</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I49">
         <v>876</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K49">
         <v>876028</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M49">
         <v>876028001</v>
@@ -18934,10 +16459,10 @@
         <v>7</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -18951,31 +16476,31 @@
         <v>42647</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E50">
         <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G50">
         <v>832</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I50">
         <v>876</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K50">
         <v>876042</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M50">
         <v>876042001</v>
@@ -18987,10 +16512,10 @@
         <v>9</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -19004,31 +16529,31 @@
         <v>42647</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E51">
         <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G51">
         <v>832</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I51">
         <v>876</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K51">
         <v>876043</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M51">
         <v>876043001</v>
@@ -19040,10 +16565,10 @@
         <v>12</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -19057,31 +16582,31 @@
         <v>42647</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E52">
         <v>8</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G52">
         <v>832</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I52">
         <v>876</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K52">
         <v>876033</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M52">
         <v>876033001</v>
@@ -19093,10 +16618,10 @@
         <v>6</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -19110,31 +16635,31 @@
         <v>42647</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E53">
         <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G53">
         <v>832</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I53">
         <v>876</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K53">
         <v>876035</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M53">
         <v>876035001</v>
@@ -19146,10 +16671,10 @@
         <v>6</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -19163,31 +16688,31 @@
         <v>42647</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E54">
         <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G54">
         <v>832</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I54">
         <v>875</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K54">
         <v>875001</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M54">
         <v>875001001</v>
@@ -19199,15 +16724,15 @@
         <v>2</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>26</v>
@@ -19216,31 +16741,31 @@
         <v>42647</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E55">
         <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G55">
         <v>830</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I55">
         <v>860</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K55">
         <v>860039</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M55">
         <v>860039001</v>
@@ -19252,15 +16777,15 @@
         <v>3</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>26</v>
@@ -19269,31 +16794,31 @@
         <v>42647</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E56">
         <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G56">
         <v>830</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I56">
         <v>860</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K56">
         <v>860035</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M56">
         <v>860035001</v>
@@ -19305,15 +16830,15 @@
         <v>11</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>18</v>
@@ -19322,31 +16847,31 @@
         <v>42647</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E57">
         <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G57">
         <v>830</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I57">
         <v>860</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K57">
         <v>860011</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M57">
         <v>860011001</v>
@@ -19358,15 +16883,15 @@
         <v>1</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>26</v>
@@ -19375,31 +16900,31 @@
         <v>42647</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E58">
         <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G58">
         <v>830</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I58">
         <v>860</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K58">
         <v>860022</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M58">
         <v>860022001</v>
@@ -19411,15 +16936,15 @@
         <v>1</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>26</v>
@@ -19428,31 +16953,31 @@
         <v>42647</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E59">
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G59">
         <v>830</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I59">
         <v>860</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K59">
         <v>860031</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M59">
         <v>860031001</v>
@@ -19464,15 +16989,15 @@
         <v>3</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>26</v>
@@ -19481,31 +17006,31 @@
         <v>42647</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E60">
         <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G60">
         <v>830</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I60">
         <v>860</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K60">
         <v>860050</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M60">
         <v>860050001</v>
@@ -19517,48 +17042,48 @@
         <v>29</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C61" s="2">
         <v>42647</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E61">
         <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G61">
         <v>830</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I61">
         <v>860</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K61">
         <v>860038</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M61">
         <v>860038001</v>
@@ -19570,15 +17095,15 @@
         <v>5</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>26</v>
@@ -19587,31 +17112,31 @@
         <v>42647</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E62">
         <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G62">
         <v>830</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I62">
         <v>860</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K62">
         <v>860026</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M62">
         <v>860026001</v>
@@ -19623,15 +17148,15 @@
         <v>1</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>26</v>
@@ -19640,31 +17165,31 @@
         <v>42647</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E63">
         <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G63">
         <v>830</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I63">
         <v>860</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K63">
         <v>860041</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M63">
         <v>860041001</v>
@@ -19676,15 +17201,15 @@
         <v>2</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>26</v>
@@ -19693,31 +17218,31 @@
         <v>42647</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E64">
         <v>8</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G64">
         <v>830</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I64">
         <v>860</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K64">
         <v>860012</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M64">
         <v>860012001</v>
@@ -19729,15 +17254,15 @@
         <v>1</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>26</v>
@@ -19746,31 +17271,31 @@
         <v>42647</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E65">
         <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G65">
         <v>830</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I65">
         <v>860</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K65">
         <v>860008</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M65">
         <v>860008001</v>
@@ -19782,15 +17307,15 @@
         <v>1</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>26</v>
@@ -19799,31 +17324,31 @@
         <v>42647</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E66">
         <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G66">
         <v>830</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I66">
         <v>860</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K66">
         <v>860021</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M66">
         <v>860021001</v>
@@ -19835,15 +17360,15 @@
         <v>2</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>26</v>
@@ -19852,31 +17377,31 @@
         <v>42647</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E67">
         <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G67">
         <v>830</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I67">
         <v>860</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K67">
         <v>860009</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M67">
         <v>860009002</v>
@@ -19888,10 +17413,10 @@
         <v>4</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -19905,31 +17430,31 @@
         <v>42647</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E68">
         <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G68">
         <v>832</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I68">
         <v>877</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K68">
         <v>877062</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M68">
         <v>877062001</v>
@@ -19941,10 +17466,10 @@
         <v>6</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -19958,31 +17483,31 @@
         <v>42647</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E69">
         <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G69">
         <v>832</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I69">
         <v>877</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K69">
         <v>877070</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M69">
         <v>877070001</v>
@@ -19994,10 +17519,10 @@
         <v>9</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -20011,31 +17536,31 @@
         <v>42647</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E70">
         <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G70">
         <v>832</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I70">
         <v>877</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K70">
         <v>877047</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M70">
         <v>877047001</v>
@@ -20047,10 +17572,10 @@
         <v>11</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -20064,31 +17589,31 @@
         <v>42647</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E71">
         <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G71">
         <v>832</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I71">
         <v>877</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K71">
         <v>877126</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M71">
         <v>877126001</v>
@@ -20100,10 +17625,10 @@
         <v>7</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -20117,31 +17642,31 @@
         <v>42647</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E72">
         <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G72">
         <v>832</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I72">
         <v>877</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K72">
         <v>877021</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M72">
         <v>877021001</v>
@@ -20153,10 +17678,10 @@
         <v>15</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -20170,31 +17695,31 @@
         <v>42647</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E73">
         <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G73">
         <v>832</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I73">
         <v>877</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K73">
         <v>877131</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M73">
         <v>877131001</v>
@@ -20206,10 +17731,10 @@
         <v>10</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -20217,37 +17742,37 @@
         <v>31</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C74" s="2">
         <v>42647</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E74">
         <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G74">
         <v>832</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I74">
         <v>874</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K74">
         <v>874025</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M74">
         <v>874025001</v>
@@ -20259,10 +17784,10 @@
         <v>2</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -20276,31 +17801,31 @@
         <v>42647</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E75">
         <v>8</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G75">
         <v>832</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I75">
         <v>876</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K75">
         <v>876056</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M75">
         <v>876056001</v>
@@ -20312,10 +17837,10 @@
         <v>4</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -20329,31 +17854,31 @@
         <v>42647</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E76">
         <v>8</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G76">
         <v>832</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I76">
         <v>876</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K76">
         <v>876054</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M76">
         <v>876054001</v>
@@ -20365,10 +17890,10 @@
         <v>15</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -20382,31 +17907,31 @@
         <v>42647</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E77">
         <v>8</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G77">
         <v>832</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I77">
         <v>876</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K77">
         <v>876050</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M77">
         <v>876050001</v>
@@ -20418,10 +17943,10 @@
         <v>15</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -20435,31 +17960,31 @@
         <v>42647</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E78">
         <v>8</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G78">
         <v>831</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I78">
         <v>872</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K78">
         <v>872031</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M78">
         <v>872031001</v>
@@ -20471,10 +17996,10 @@
         <v>11</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -20488,31 +18013,31 @@
         <v>42647</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E79">
         <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G79">
         <v>831</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I79">
         <v>872</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K79">
         <v>872049</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M79">
         <v>872049001</v>
@@ -20524,10 +18049,10 @@
         <v>3</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -20541,31 +18066,31 @@
         <v>42647</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E80">
         <v>8</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G80">
         <v>831</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I80">
         <v>872</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K80">
         <v>872022</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M80">
         <v>872022002</v>
@@ -20577,10 +18102,10 @@
         <v>7</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -20594,31 +18119,31 @@
         <v>42647</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E81">
         <v>8</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G81">
         <v>831</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I81">
         <v>872</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K81">
         <v>872033</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M81">
         <v>872033001</v>
@@ -20630,10 +18155,10 @@
         <v>8</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -20647,31 +18172,31 @@
         <v>42647</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E82">
         <v>8</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G82">
         <v>831</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I82">
         <v>872</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K82">
         <v>872019</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M82">
         <v>872019001</v>
@@ -20683,10 +18208,10 @@
         <v>16</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -20700,31 +18225,31 @@
         <v>42647</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E83">
         <v>8</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G83">
         <v>831</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I83">
         <v>872</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K83">
         <v>872036</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M83">
         <v>872036002</v>
@@ -20736,10 +18261,10 @@
         <v>3</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -20753,31 +18278,31 @@
         <v>42647</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E84">
         <v>8</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G84">
         <v>831</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I84">
         <v>872</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K84">
         <v>872046</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M84">
         <v>872046001</v>
@@ -20789,10 +18314,10 @@
         <v>6</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -20806,31 +18331,31 @@
         <v>42647</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E85">
         <v>8</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G85">
         <v>831</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I85">
         <v>872</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K85">
         <v>872017</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M85">
         <v>872017001</v>
@@ -20842,10 +18367,10 @@
         <v>7</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -20859,31 +18384,31 @@
         <v>42647</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E86">
         <v>8</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G86">
         <v>831</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I86">
         <v>872</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K86">
         <v>872040</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M86">
         <v>872040001</v>
@@ -20895,10 +18420,10 @@
         <v>12</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -20912,31 +18437,31 @@
         <v>42647</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E87">
         <v>8</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G87">
         <v>831</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I87">
         <v>871</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K87">
         <v>871016</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M87">
         <v>871016001</v>
@@ -20948,10 +18473,10 @@
         <v>10</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -20965,31 +18490,31 @@
         <v>42647</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E88">
         <v>8</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G88">
         <v>831</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I88">
         <v>871</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K88">
         <v>871006</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M88">
         <v>871006001</v>
@@ -21001,10 +18526,10 @@
         <v>34</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -21018,31 +18543,31 @@
         <v>42647</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E89">
         <v>8</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G89">
         <v>831</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I89">
         <v>871</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K89">
         <v>871006</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M89">
         <v>871006005</v>
@@ -21054,48 +18579,48 @@
         <v>7</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C90" s="2">
         <v>42647</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E90">
         <v>8</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G90">
         <v>830</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I90">
         <v>862</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K90">
         <v>862006</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M90">
         <v>862006001</v>
@@ -21107,15 +18632,15 @@
         <v>2</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>26</v>
@@ -21124,31 +18649,31 @@
         <v>42647</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E91">
         <v>8</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G91">
         <v>830</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I91">
         <v>862</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K91">
         <v>862005</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M91">
         <v>862005001</v>
@@ -21160,48 +18685,48 @@
         <v>34</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C92" s="2">
         <v>42647</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E92">
         <v>8</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G92">
         <v>830</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I92">
         <v>863</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K92">
         <v>863005</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M92">
         <v>863005001</v>
@@ -21213,15 +18738,15 @@
         <v>2</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>26</v>
@@ -21230,31 +18755,31 @@
         <v>42647</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E93">
         <v>8</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G93">
         <v>830</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I93">
         <v>863</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K93">
         <v>863005</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M93">
         <v>863005003</v>
@@ -21266,15 +18791,15 @@
         <v>17</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>26</v>
@@ -21283,31 +18808,31 @@
         <v>42647</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E94">
         <v>8</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G94">
         <v>831</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I94">
         <v>872</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K94">
         <v>872011</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M94">
         <v>872011001</v>
@@ -21319,15 +18844,15 @@
         <v>6</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>18</v>
@@ -21336,31 +18861,31 @@
         <v>42647</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E95">
         <v>8</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G95">
         <v>831</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I95">
         <v>872</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K95">
         <v>872001</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M95">
         <v>872001001</v>
@@ -21372,15 +18897,15 @@
         <v>7</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>26</v>
@@ -21389,31 +18914,31 @@
         <v>42647</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E96">
         <v>8</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G96">
         <v>831</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I96">
         <v>872</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K96">
         <v>872008</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M96">
         <v>872008001</v>
@@ -21425,15 +18950,15 @@
         <v>23</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>26</v>
@@ -21442,31 +18967,31 @@
         <v>42647</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E97">
         <v>8</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G97">
         <v>831</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I97">
         <v>872</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K97">
         <v>872007</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M97">
         <v>872007001</v>
@@ -21478,15 +19003,15 @@
         <v>15</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>18</v>
@@ -21495,31 +19020,31 @@
         <v>42647</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E98">
         <v>8</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G98">
         <v>831</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I98">
         <v>871</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K98">
         <v>871004</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M98">
         <v>871004001</v>
@@ -21531,13 +19056,14 @@
         <v>7</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q98"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
